--- a/data/trans_orig/CONS_COL-Edad-trans_orig.xlsx
+++ b/data/trans_orig/CONS_COL-Edad-trans_orig.xlsx
@@ -740,97 +740,97 @@
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="F4" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="G4" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="H4" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="I4" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="J4" s="2" t="inlineStr">
+        <is>
           <t>0</t>
         </is>
       </c>
-      <c r="F4" s="2" t="inlineStr">
-        <is>
-          <t>320</t>
-        </is>
-      </c>
-      <c r="G4" s="2" t="inlineStr">
+      <c r="K4" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="L4" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="M4" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="N4" s="2" t="inlineStr">
         <is>
           <t>0,0%</t>
         </is>
       </c>
-      <c r="H4" s="2" t="inlineStr">
-        <is>
-          <t>0%</t>
-        </is>
-      </c>
-      <c r="I4" s="2" t="inlineStr">
-        <is>
-          <t>0,51%</t>
-        </is>
-      </c>
-      <c r="J4" s="2" t="inlineStr">
+      <c r="O4" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="P4" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="Q4" s="2" t="inlineStr">
         <is>
           <t>0</t>
         </is>
       </c>
-      <c r="K4" s="2" t="inlineStr">
+      <c r="R4" s="2" t="inlineStr">
         <is>
           <t>0</t>
         </is>
       </c>
-      <c r="L4" s="2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="M4" s="2" t="inlineStr">
-        <is>
-          <t>344</t>
-        </is>
-      </c>
-      <c r="N4" s="2" t="inlineStr">
+      <c r="S4" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="T4" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="U4" s="2" t="inlineStr">
         <is>
           <t>0,0%</t>
         </is>
       </c>
-      <c r="O4" s="2" t="inlineStr">
-        <is>
-          <t>0%</t>
-        </is>
-      </c>
-      <c r="P4" s="2" t="inlineStr">
-        <is>
-          <t>0,55%</t>
-        </is>
-      </c>
-      <c r="Q4" s="2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="R4" s="2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="S4" s="2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="T4" s="2" t="inlineStr">
-        <is>
-          <t>332</t>
-        </is>
-      </c>
-      <c r="U4" s="2" t="inlineStr">
-        <is>
-          <t>0,0%</t>
-        </is>
-      </c>
       <c r="V4" s="2" t="inlineStr">
         <is>
-          <t>0%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="W4" s="2" t="inlineStr">
         <is>
-          <t>0,26%</t>
+          <t>—%</t>
         </is>
       </c>
     </row>
@@ -853,12 +853,12 @@
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>62496</t>
+          <t>—</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>62816</t>
+          <t>—</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
@@ -868,12 +868,12 @@
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>99,49%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>100%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
@@ -888,12 +888,12 @@
       </c>
       <c r="L5" s="2" t="inlineStr">
         <is>
-          <t>62149</t>
+          <t>—</t>
         </is>
       </c>
       <c r="M5" s="2" t="inlineStr">
         <is>
-          <t>62493</t>
+          <t>—</t>
         </is>
       </c>
       <c r="N5" s="2" t="inlineStr">
@@ -903,12 +903,12 @@
       </c>
       <c r="O5" s="2" t="inlineStr">
         <is>
-          <t>99,45%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="P5" s="2" t="inlineStr">
         <is>
-          <t>100%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="Q5" s="2" t="inlineStr">
@@ -923,12 +923,12 @@
       </c>
       <c r="S5" s="2" t="inlineStr">
         <is>
-          <t>124977</t>
+          <t>—</t>
         </is>
       </c>
       <c r="T5" s="2" t="inlineStr">
         <is>
-          <t>125309</t>
+          <t>—</t>
         </is>
       </c>
       <c r="U5" s="2" t="inlineStr">
@@ -938,12 +938,12 @@
       </c>
       <c r="V5" s="2" t="inlineStr">
         <is>
-          <t>99,74%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="W5" s="2" t="inlineStr">
         <is>
-          <t>100%</t>
+          <t>—%</t>
         </is>
       </c>
     </row>
@@ -1118,12 +1118,12 @@
       </c>
       <c r="L7" s="2" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>—</t>
         </is>
       </c>
       <c r="M7" s="2" t="inlineStr">
         <is>
-          <t>326</t>
+          <t>—</t>
         </is>
       </c>
       <c r="N7" s="2" t="inlineStr">
@@ -1133,12 +1133,12 @@
       </c>
       <c r="O7" s="2" t="inlineStr">
         <is>
-          <t>0%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="P7" s="2" t="inlineStr">
         <is>
-          <t>0,52%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="Q7" s="2" t="inlineStr">
@@ -1231,12 +1231,12 @@
       </c>
       <c r="L8" s="2" t="inlineStr">
         <is>
-          <t>62157</t>
+          <t>—</t>
         </is>
       </c>
       <c r="M8" s="2" t="inlineStr">
         <is>
-          <t>62483</t>
+          <t>—</t>
         </is>
       </c>
       <c r="N8" s="2" t="inlineStr">
@@ -1246,12 +1246,12 @@
       </c>
       <c r="O8" s="2" t="inlineStr">
         <is>
-          <t>99,48%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="P8" s="2" t="inlineStr">
         <is>
-          <t>100%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="Q8" s="2" t="inlineStr">
@@ -3727,12 +3727,12 @@
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>—</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>4766</t>
+          <t>—</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
@@ -3742,12 +3742,12 @@
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>0%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="I4" s="2" t="inlineStr">
         <is>
-          <t>2,02%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="J4" s="2" t="inlineStr">
@@ -3840,12 +3840,12 @@
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>231470</t>
+          <t>—</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>236236</t>
+          <t>—</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
@@ -3855,12 +3855,12 @@
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>97,98%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>100%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
@@ -4070,12 +4070,12 @@
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>—</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>2857</t>
+          <t>—</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
@@ -4085,12 +4085,12 @@
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>0%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>1,25%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
@@ -4183,12 +4183,12 @@
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>226511</t>
+          <t>—</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>229368</t>
+          <t>—</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
@@ -4198,12 +4198,12 @@
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>98,75%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="I8" s="2" t="inlineStr">
         <is>
-          <t>100%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="J8" s="2" t="inlineStr">
@@ -6714,12 +6714,12 @@
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>—</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>1196</t>
+          <t>—</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
@@ -6729,12 +6729,12 @@
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>0%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="I4" s="2" t="inlineStr">
         <is>
-          <t>0,7%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="J4" s="2" t="inlineStr">
@@ -6827,12 +6827,12 @@
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>168975</t>
+          <t>—</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>170171</t>
+          <t>—</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
@@ -6842,12 +6842,12 @@
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>99,3%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>100%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">

--- a/data/trans_orig/CONS_COL-Edad-trans_orig.xlsx
+++ b/data/trans_orig/CONS_COL-Edad-trans_orig.xlsx
@@ -545,7 +545,7 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Consumo de medicamentos para el colesterol en País Vasco</t>
+          <t>Consumo de medicamentos para el colesterol en País Vasco (tasa de respuesta: 99,45%)</t>
         </is>
       </c>
       <c r="B1" s="2" t="n"/>
@@ -3532,7 +3532,7 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Consumo de medicamentos para el colesterol en Andalucia</t>
+          <t>Consumo de medicamentos para el colesterol en Andalucia (tasa de respuesta: 99,9%)</t>
         </is>
       </c>
       <c r="B1" s="2" t="n"/>
@@ -6519,7 +6519,7 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Consumo de medicamentos para el colesterol en C.Valenciana</t>
+          <t>Consumo de medicamentos para el colesterol en C.Valenciana (tasa de respuesta: 99,74%)</t>
         </is>
       </c>
       <c r="B1" s="2" t="n"/>

--- a/data/trans_orig/CONS_COL-Edad-trans_orig.xlsx
+++ b/data/trans_orig/CONS_COL-Edad-trans_orig.xlsx
@@ -848,7 +848,7 @@
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>62816</t>
+          <t>76881</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
@@ -883,7 +883,7 @@
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>62493</t>
+          <t>66242</t>
         </is>
       </c>
       <c r="L5" s="2" t="inlineStr">
@@ -918,7 +918,7 @@
       </c>
       <c r="R5" s="2" t="inlineStr">
         <is>
-          <t>125309</t>
+          <t>143123</t>
         </is>
       </c>
       <c r="S5" s="2" t="inlineStr">
@@ -961,17 +961,17 @@
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>62816</t>
+          <t>76881</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>62816</t>
+          <t>76881</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>62816</t>
+          <t>76881</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
@@ -996,17 +996,17 @@
       </c>
       <c r="K6" s="2" t="inlineStr">
         <is>
-          <t>62493</t>
+          <t>66242</t>
         </is>
       </c>
       <c r="L6" s="2" t="inlineStr">
         <is>
-          <t>62493</t>
+          <t>66242</t>
         </is>
       </c>
       <c r="M6" s="2" t="inlineStr">
         <is>
-          <t>62493</t>
+          <t>66242</t>
         </is>
       </c>
       <c r="N6" s="2" t="inlineStr">
@@ -1031,17 +1031,17 @@
       </c>
       <c r="R6" s="2" t="inlineStr">
         <is>
-          <t>125309</t>
+          <t>143123</t>
         </is>
       </c>
       <c r="S6" s="2" t="inlineStr">
         <is>
-          <t>125309</t>
+          <t>143123</t>
         </is>
       </c>
       <c r="T6" s="2" t="inlineStr">
         <is>
-          <t>125309</t>
+          <t>143123</t>
         </is>
       </c>
       <c r="U6" s="2" t="inlineStr">
@@ -1078,7 +1078,7 @@
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>562</t>
+          <t>431</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
@@ -1088,12 +1088,12 @@
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>2124</t>
+          <t>1498</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>0,81%</t>
+          <t>0,57%</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
@@ -1103,7 +1103,7 @@
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>3,07%</t>
+          <t>2,0%</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
@@ -1148,7 +1148,7 @@
       </c>
       <c r="R7" s="2" t="inlineStr">
         <is>
-          <t>562</t>
+          <t>431</t>
         </is>
       </c>
       <c r="S7" s="2" t="inlineStr">
@@ -1158,12 +1158,12 @@
       </c>
       <c r="T7" s="2" t="inlineStr">
         <is>
-          <t>2104</t>
+          <t>1556</t>
         </is>
       </c>
       <c r="U7" s="2" t="inlineStr">
         <is>
-          <t>0,43%</t>
+          <t>0,3%</t>
         </is>
       </c>
       <c r="V7" s="2" t="inlineStr">
@@ -1173,7 +1173,7 @@
       </c>
       <c r="W7" s="2" t="inlineStr">
         <is>
-          <t>1,6%</t>
+          <t>1,09%</t>
         </is>
       </c>
     </row>
@@ -1191,27 +1191,27 @@
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>68603</t>
+          <t>74552</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>67041</t>
+          <t>73485</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>69165</t>
+          <t>74983</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>99,19%</t>
+          <t>99,43%</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>96,93%</t>
+          <t>98,0%</t>
         </is>
       </c>
       <c r="I8" s="2" t="inlineStr">
@@ -1226,7 +1226,7 @@
       </c>
       <c r="K8" s="2" t="inlineStr">
         <is>
-          <t>62483</t>
+          <t>68048</t>
         </is>
       </c>
       <c r="L8" s="2" t="inlineStr">
@@ -1261,27 +1261,27 @@
       </c>
       <c r="R8" s="2" t="inlineStr">
         <is>
-          <t>131085</t>
+          <t>142600</t>
         </is>
       </c>
       <c r="S8" s="2" t="inlineStr">
         <is>
-          <t>129543</t>
+          <t>141475</t>
         </is>
       </c>
       <c r="T8" s="2" t="inlineStr">
         <is>
-          <t>131647</t>
+          <t>143031</t>
         </is>
       </c>
       <c r="U8" s="2" t="inlineStr">
         <is>
-          <t>99,57%</t>
+          <t>99,7%</t>
         </is>
       </c>
       <c r="V8" s="2" t="inlineStr">
         <is>
-          <t>98,4%</t>
+          <t>98,91%</t>
         </is>
       </c>
       <c r="W8" s="2" t="inlineStr">
@@ -1304,17 +1304,17 @@
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>69165</t>
+          <t>74983</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>69165</t>
+          <t>74983</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>69165</t>
+          <t>74983</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
@@ -1339,17 +1339,17 @@
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>62483</t>
+          <t>68048</t>
         </is>
       </c>
       <c r="L9" s="2" t="inlineStr">
         <is>
-          <t>62483</t>
+          <t>68048</t>
         </is>
       </c>
       <c r="M9" s="2" t="inlineStr">
         <is>
-          <t>62483</t>
+          <t>68048</t>
         </is>
       </c>
       <c r="N9" s="2" t="inlineStr">
@@ -1374,17 +1374,17 @@
       </c>
       <c r="R9" s="2" t="inlineStr">
         <is>
-          <t>131647</t>
+          <t>143031</t>
         </is>
       </c>
       <c r="S9" s="2" t="inlineStr">
         <is>
-          <t>131647</t>
+          <t>143031</t>
         </is>
       </c>
       <c r="T9" s="2" t="inlineStr">
         <is>
-          <t>131647</t>
+          <t>143031</t>
         </is>
       </c>
       <c r="U9" s="2" t="inlineStr">
@@ -1421,32 +1421,32 @@
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>3270</t>
+          <t>3247</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>1895</t>
+          <t>1857</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>5249</t>
+          <t>5205</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>3,45%</t>
+          <t>3,12%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>2,0%</t>
+          <t>1,79%</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
         <is>
-          <t>5,54%</t>
+          <t>5,01%</t>
         </is>
       </c>
       <c r="J10" s="2" t="inlineStr">
@@ -1456,32 +1456,32 @@
       </c>
       <c r="K10" s="2" t="inlineStr">
         <is>
-          <t>526</t>
+          <t>675</t>
         </is>
       </c>
       <c r="L10" s="2" t="inlineStr">
         <is>
-          <t>110</t>
+          <t>106</t>
         </is>
       </c>
       <c r="M10" s="2" t="inlineStr">
         <is>
-          <t>1359</t>
+          <t>2313</t>
         </is>
       </c>
       <c r="N10" s="2" t="inlineStr">
         <is>
-          <t>0,54%</t>
+          <t>0,61%</t>
         </is>
       </c>
       <c r="O10" s="2" t="inlineStr">
         <is>
-          <t>0,11%</t>
+          <t>0,1%</t>
         </is>
       </c>
       <c r="P10" s="2" t="inlineStr">
         <is>
-          <t>1,39%</t>
+          <t>2,09%</t>
         </is>
       </c>
       <c r="Q10" s="2" t="inlineStr">
@@ -1491,32 +1491,32 @@
       </c>
       <c r="R10" s="2" t="inlineStr">
         <is>
-          <t>3796</t>
+          <t>3922</t>
         </is>
       </c>
       <c r="S10" s="2" t="inlineStr">
         <is>
-          <t>2297</t>
+          <t>2460</t>
         </is>
       </c>
       <c r="T10" s="2" t="inlineStr">
         <is>
-          <t>6002</t>
+          <t>6182</t>
         </is>
       </c>
       <c r="U10" s="2" t="inlineStr">
         <is>
-          <t>1,98%</t>
+          <t>1,83%</t>
         </is>
       </c>
       <c r="V10" s="2" t="inlineStr">
         <is>
-          <t>1,2%</t>
+          <t>1,15%</t>
         </is>
       </c>
       <c r="W10" s="2" t="inlineStr">
         <is>
-          <t>3,12%</t>
+          <t>2,88%</t>
         </is>
       </c>
     </row>
@@ -1534,32 +1534,32 @@
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>91425</t>
+          <t>100713</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>89446</t>
+          <t>98755</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>92800</t>
+          <t>102103</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>96,55%</t>
+          <t>96,88%</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>94,46%</t>
+          <t>94,99%</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>98,0%</t>
+          <t>98,21%</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
@@ -1569,32 +1569,32 @@
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>96979</t>
+          <t>110040</t>
         </is>
       </c>
       <c r="L11" s="2" t="inlineStr">
         <is>
-          <t>96146</t>
+          <t>108402</t>
         </is>
       </c>
       <c r="M11" s="2" t="inlineStr">
         <is>
-          <t>97395</t>
+          <t>110609</t>
         </is>
       </c>
       <c r="N11" s="2" t="inlineStr">
         <is>
-          <t>99,46%</t>
+          <t>99,39%</t>
         </is>
       </c>
       <c r="O11" s="2" t="inlineStr">
         <is>
-          <t>98,61%</t>
+          <t>97,91%</t>
         </is>
       </c>
       <c r="P11" s="2" t="inlineStr">
         <is>
-          <t>99,89%</t>
+          <t>99,9%</t>
         </is>
       </c>
       <c r="Q11" s="2" t="inlineStr">
@@ -1604,32 +1604,32 @@
       </c>
       <c r="R11" s="2" t="inlineStr">
         <is>
-          <t>188404</t>
+          <t>210753</t>
         </is>
       </c>
       <c r="S11" s="2" t="inlineStr">
         <is>
-          <t>186198</t>
+          <t>208493</t>
         </is>
       </c>
       <c r="T11" s="2" t="inlineStr">
         <is>
-          <t>189903</t>
+          <t>212215</t>
         </is>
       </c>
       <c r="U11" s="2" t="inlineStr">
         <is>
-          <t>98,02%</t>
+          <t>98,17%</t>
         </is>
       </c>
       <c r="V11" s="2" t="inlineStr">
         <is>
-          <t>96,88%</t>
+          <t>97,12%</t>
         </is>
       </c>
       <c r="W11" s="2" t="inlineStr">
         <is>
-          <t>98,8%</t>
+          <t>98,85%</t>
         </is>
       </c>
     </row>
@@ -1647,17 +1647,17 @@
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
-          <t>94695</t>
+          <t>103960</t>
         </is>
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>94695</t>
+          <t>103960</t>
         </is>
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>94695</t>
+          <t>103960</t>
         </is>
       </c>
       <c r="G12" s="2" t="inlineStr">
@@ -1682,17 +1682,17 @@
       </c>
       <c r="K12" s="2" t="inlineStr">
         <is>
-          <t>97505</t>
+          <t>110715</t>
         </is>
       </c>
       <c r="L12" s="2" t="inlineStr">
         <is>
-          <t>97505</t>
+          <t>110715</t>
         </is>
       </c>
       <c r="M12" s="2" t="inlineStr">
         <is>
-          <t>97505</t>
+          <t>110715</t>
         </is>
       </c>
       <c r="N12" s="2" t="inlineStr">
@@ -1717,17 +1717,17 @@
       </c>
       <c r="R12" s="2" t="inlineStr">
         <is>
-          <t>192200</t>
+          <t>214675</t>
         </is>
       </c>
       <c r="S12" s="2" t="inlineStr">
         <is>
-          <t>192200</t>
+          <t>214675</t>
         </is>
       </c>
       <c r="T12" s="2" t="inlineStr">
         <is>
-          <t>192200</t>
+          <t>214675</t>
         </is>
       </c>
       <c r="U12" s="2" t="inlineStr">
@@ -1764,32 +1764,32 @@
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>8723</t>
+          <t>9129</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>6540</t>
+          <t>6907</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>11572</t>
+          <t>12221</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>6,26%</t>
+          <t>6,31%</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>4,69%</t>
+          <t>4,77%</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>8,3%</t>
+          <t>8,44%</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
@@ -1799,32 +1799,32 @@
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>5267</t>
+          <t>5187</t>
         </is>
       </c>
       <c r="L13" s="2" t="inlineStr">
         <is>
-          <t>3579</t>
+          <t>3397</t>
         </is>
       </c>
       <c r="M13" s="2" t="inlineStr">
         <is>
-          <t>7815</t>
+          <t>7270</t>
         </is>
       </c>
       <c r="N13" s="2" t="inlineStr">
         <is>
-          <t>3,82%</t>
+          <t>3,4%</t>
         </is>
       </c>
       <c r="O13" s="2" t="inlineStr">
         <is>
-          <t>2,59%</t>
+          <t>2,23%</t>
         </is>
       </c>
       <c r="P13" s="2" t="inlineStr">
         <is>
-          <t>5,66%</t>
+          <t>4,77%</t>
         </is>
       </c>
       <c r="Q13" s="2" t="inlineStr">
@@ -1834,32 +1834,32 @@
       </c>
       <c r="R13" s="2" t="inlineStr">
         <is>
-          <t>13991</t>
+          <t>14316</t>
         </is>
       </c>
       <c r="S13" s="2" t="inlineStr">
         <is>
-          <t>10853</t>
+          <t>11301</t>
         </is>
       </c>
       <c r="T13" s="2" t="inlineStr">
         <is>
-          <t>17458</t>
+          <t>17839</t>
         </is>
       </c>
       <c r="U13" s="2" t="inlineStr">
         <is>
-          <t>5,04%</t>
+          <t>4,82%</t>
         </is>
       </c>
       <c r="V13" s="2" t="inlineStr">
         <is>
-          <t>3,91%</t>
+          <t>3,8%</t>
         </is>
       </c>
       <c r="W13" s="2" t="inlineStr">
         <is>
-          <t>6,29%</t>
+          <t>6,0%</t>
         </is>
       </c>
     </row>
@@ -1877,32 +1877,32 @@
       </c>
       <c r="D14" s="2" t="inlineStr">
         <is>
-          <t>130691</t>
+          <t>135649</t>
         </is>
       </c>
       <c r="E14" s="2" t="inlineStr">
         <is>
-          <t>127842</t>
+          <t>132557</t>
         </is>
       </c>
       <c r="F14" s="2" t="inlineStr">
         <is>
-          <t>132874</t>
+          <t>137871</t>
         </is>
       </c>
       <c r="G14" s="2" t="inlineStr">
         <is>
-          <t>93,74%</t>
+          <t>93,69%</t>
         </is>
       </c>
       <c r="H14" s="2" t="inlineStr">
         <is>
-          <t>91,7%</t>
+          <t>91,56%</t>
         </is>
       </c>
       <c r="I14" s="2" t="inlineStr">
         <is>
-          <t>95,31%</t>
+          <t>95,23%</t>
         </is>
       </c>
       <c r="J14" s="2" t="inlineStr">
@@ -1912,32 +1912,32 @@
       </c>
       <c r="K14" s="2" t="inlineStr">
         <is>
-          <t>132708</t>
+          <t>147357</t>
         </is>
       </c>
       <c r="L14" s="2" t="inlineStr">
         <is>
-          <t>130160</t>
+          <t>145274</t>
         </is>
       </c>
       <c r="M14" s="2" t="inlineStr">
         <is>
-          <t>134396</t>
+          <t>149147</t>
         </is>
       </c>
       <c r="N14" s="2" t="inlineStr">
         <is>
-          <t>96,18%</t>
+          <t>96,6%</t>
         </is>
       </c>
       <c r="O14" s="2" t="inlineStr">
         <is>
-          <t>94,34%</t>
+          <t>95,23%</t>
         </is>
       </c>
       <c r="P14" s="2" t="inlineStr">
         <is>
-          <t>97,41%</t>
+          <t>97,77%</t>
         </is>
       </c>
       <c r="Q14" s="2" t="inlineStr">
@@ -1947,32 +1947,32 @@
       </c>
       <c r="R14" s="2" t="inlineStr">
         <is>
-          <t>263399</t>
+          <t>283005</t>
         </is>
       </c>
       <c r="S14" s="2" t="inlineStr">
         <is>
-          <t>259932</t>
+          <t>279482</t>
         </is>
       </c>
       <c r="T14" s="2" t="inlineStr">
         <is>
-          <t>266537</t>
+          <t>286020</t>
         </is>
       </c>
       <c r="U14" s="2" t="inlineStr">
         <is>
-          <t>94,96%</t>
+          <t>95,18%</t>
         </is>
       </c>
       <c r="V14" s="2" t="inlineStr">
         <is>
-          <t>93,71%</t>
+          <t>94,0%</t>
         </is>
       </c>
       <c r="W14" s="2" t="inlineStr">
         <is>
-          <t>96,09%</t>
+          <t>96,2%</t>
         </is>
       </c>
     </row>
@@ -1990,17 +1990,17 @@
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>139414</t>
+          <t>144778</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>139414</t>
+          <t>144778</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>139414</t>
+          <t>144778</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
@@ -2025,17 +2025,17 @@
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>137975</t>
+          <t>152544</t>
         </is>
       </c>
       <c r="L15" s="2" t="inlineStr">
         <is>
-          <t>137975</t>
+          <t>152544</t>
         </is>
       </c>
       <c r="M15" s="2" t="inlineStr">
         <is>
-          <t>137975</t>
+          <t>152544</t>
         </is>
       </c>
       <c r="N15" s="2" t="inlineStr">
@@ -2060,17 +2060,17 @@
       </c>
       <c r="R15" s="2" t="inlineStr">
         <is>
-          <t>277390</t>
+          <t>297321</t>
         </is>
       </c>
       <c r="S15" s="2" t="inlineStr">
         <is>
-          <t>277390</t>
+          <t>297321</t>
         </is>
       </c>
       <c r="T15" s="2" t="inlineStr">
         <is>
-          <t>277390</t>
+          <t>297321</t>
         </is>
       </c>
       <c r="U15" s="2" t="inlineStr">
@@ -2107,32 +2107,32 @@
       </c>
       <c r="D16" s="2" t="inlineStr">
         <is>
-          <t>24431</t>
+          <t>23834</t>
         </is>
       </c>
       <c r="E16" s="2" t="inlineStr">
         <is>
-          <t>20445</t>
+          <t>19894</t>
         </is>
       </c>
       <c r="F16" s="2" t="inlineStr">
         <is>
-          <t>28569</t>
+          <t>27878</t>
         </is>
       </c>
       <c r="G16" s="2" t="inlineStr">
         <is>
-          <t>19,26%</t>
+          <t>18,39%</t>
         </is>
       </c>
       <c r="H16" s="2" t="inlineStr">
         <is>
-          <t>16,12%</t>
+          <t>15,35%</t>
         </is>
       </c>
       <c r="I16" s="2" t="inlineStr">
         <is>
-          <t>22,52%</t>
+          <t>21,51%</t>
         </is>
       </c>
       <c r="J16" s="2" t="inlineStr">
@@ -2142,32 +2142,32 @@
       </c>
       <c r="K16" s="2" t="inlineStr">
         <is>
-          <t>17581</t>
+          <t>18138</t>
         </is>
       </c>
       <c r="L16" s="2" t="inlineStr">
         <is>
-          <t>14489</t>
+          <t>14894</t>
         </is>
       </c>
       <c r="M16" s="2" t="inlineStr">
         <is>
-          <t>21449</t>
+          <t>21842</t>
         </is>
       </c>
       <c r="N16" s="2" t="inlineStr">
         <is>
-          <t>11,93%</t>
+          <t>11,94%</t>
         </is>
       </c>
       <c r="O16" s="2" t="inlineStr">
         <is>
-          <t>9,83%</t>
+          <t>9,8%</t>
         </is>
       </c>
       <c r="P16" s="2" t="inlineStr">
         <is>
-          <t>14,56%</t>
+          <t>14,38%</t>
         </is>
       </c>
       <c r="Q16" s="2" t="inlineStr">
@@ -2177,32 +2177,32 @@
       </c>
       <c r="R16" s="2" t="inlineStr">
         <is>
-          <t>42012</t>
+          <t>41972</t>
         </is>
       </c>
       <c r="S16" s="2" t="inlineStr">
         <is>
-          <t>36944</t>
+          <t>36708</t>
         </is>
       </c>
       <c r="T16" s="2" t="inlineStr">
         <is>
-          <t>47622</t>
+          <t>47430</t>
         </is>
       </c>
       <c r="U16" s="2" t="inlineStr">
         <is>
-          <t>15,32%</t>
+          <t>14,91%</t>
         </is>
       </c>
       <c r="V16" s="2" t="inlineStr">
         <is>
-          <t>13,47%</t>
+          <t>13,04%</t>
         </is>
       </c>
       <c r="W16" s="2" t="inlineStr">
         <is>
-          <t>17,37%</t>
+          <t>16,85%</t>
         </is>
       </c>
     </row>
@@ -2220,32 +2220,32 @@
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>102423</t>
+          <t>105748</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>98285</t>
+          <t>101704</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>106409</t>
+          <t>109688</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>80,74%</t>
+          <t>81,61%</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>77,48%</t>
+          <t>78,49%</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>83,88%</t>
+          <t>84,65%</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
@@ -2255,32 +2255,32 @@
       </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
-          <t>129760</t>
+          <t>133777</t>
         </is>
       </c>
       <c r="L17" s="2" t="inlineStr">
         <is>
-          <t>125892</t>
+          <t>130073</t>
         </is>
       </c>
       <c r="M17" s="2" t="inlineStr">
         <is>
-          <t>132852</t>
+          <t>137021</t>
         </is>
       </c>
       <c r="N17" s="2" t="inlineStr">
         <is>
-          <t>88,07%</t>
+          <t>88,06%</t>
         </is>
       </c>
       <c r="O17" s="2" t="inlineStr">
         <is>
-          <t>85,44%</t>
+          <t>85,62%</t>
         </is>
       </c>
       <c r="P17" s="2" t="inlineStr">
         <is>
-          <t>90,17%</t>
+          <t>90,2%</t>
         </is>
       </c>
       <c r="Q17" s="2" t="inlineStr">
@@ -2290,32 +2290,32 @@
       </c>
       <c r="R17" s="2" t="inlineStr">
         <is>
-          <t>232182</t>
+          <t>239526</t>
         </is>
       </c>
       <c r="S17" s="2" t="inlineStr">
         <is>
-          <t>226572</t>
+          <t>234068</t>
         </is>
       </c>
       <c r="T17" s="2" t="inlineStr">
         <is>
-          <t>237250</t>
+          <t>244790</t>
         </is>
       </c>
       <c r="U17" s="2" t="inlineStr">
         <is>
-          <t>84,68%</t>
+          <t>85,09%</t>
         </is>
       </c>
       <c r="V17" s="2" t="inlineStr">
         <is>
-          <t>82,63%</t>
+          <t>83,15%</t>
         </is>
       </c>
       <c r="W17" s="2" t="inlineStr">
         <is>
-          <t>86,53%</t>
+          <t>86,96%</t>
         </is>
       </c>
     </row>
@@ -2333,17 +2333,17 @@
       </c>
       <c r="D18" s="2" t="inlineStr">
         <is>
-          <t>126854</t>
+          <t>129582</t>
         </is>
       </c>
       <c r="E18" s="2" t="inlineStr">
         <is>
-          <t>126854</t>
+          <t>129582</t>
         </is>
       </c>
       <c r="F18" s="2" t="inlineStr">
         <is>
-          <t>126854</t>
+          <t>129582</t>
         </is>
       </c>
       <c r="G18" s="2" t="inlineStr">
@@ -2368,17 +2368,17 @@
       </c>
       <c r="K18" s="2" t="inlineStr">
         <is>
-          <t>147341</t>
+          <t>151915</t>
         </is>
       </c>
       <c r="L18" s="2" t="inlineStr">
         <is>
-          <t>147341</t>
+          <t>151915</t>
         </is>
       </c>
       <c r="M18" s="2" t="inlineStr">
         <is>
-          <t>147341</t>
+          <t>151915</t>
         </is>
       </c>
       <c r="N18" s="2" t="inlineStr">
@@ -2403,17 +2403,17 @@
       </c>
       <c r="R18" s="2" t="inlineStr">
         <is>
-          <t>274194</t>
+          <t>281498</t>
         </is>
       </c>
       <c r="S18" s="2" t="inlineStr">
         <is>
-          <t>274194</t>
+          <t>281498</t>
         </is>
       </c>
       <c r="T18" s="2" t="inlineStr">
         <is>
-          <t>274194</t>
+          <t>281498</t>
         </is>
       </c>
       <c r="U18" s="2" t="inlineStr">
@@ -2450,32 +2450,32 @@
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>38134</t>
+          <t>36501</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>34265</t>
+          <t>32282</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>43241</t>
+          <t>40630</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
         <is>
-          <t>35,44%</t>
+          <t>34,94%</t>
         </is>
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>31,84%</t>
+          <t>30,9%</t>
         </is>
       </c>
       <c r="I19" s="2" t="inlineStr">
         <is>
-          <t>40,19%</t>
+          <t>38,89%</t>
         </is>
       </c>
       <c r="J19" s="2" t="inlineStr">
@@ -2485,32 +2485,32 @@
       </c>
       <c r="K19" s="2" t="inlineStr">
         <is>
-          <t>31489</t>
+          <t>33229</t>
         </is>
       </c>
       <c r="L19" s="2" t="inlineStr">
         <is>
-          <t>27942</t>
+          <t>29173</t>
         </is>
       </c>
       <c r="M19" s="2" t="inlineStr">
         <is>
-          <t>35938</t>
+          <t>37382</t>
         </is>
       </c>
       <c r="N19" s="2" t="inlineStr">
         <is>
-          <t>27,4%</t>
+          <t>28,7%</t>
         </is>
       </c>
       <c r="O19" s="2" t="inlineStr">
         <is>
-          <t>24,32%</t>
+          <t>25,2%</t>
         </is>
       </c>
       <c r="P19" s="2" t="inlineStr">
         <is>
-          <t>31,28%</t>
+          <t>32,29%</t>
         </is>
       </c>
       <c r="Q19" s="2" t="inlineStr">
@@ -2520,32 +2520,32 @@
       </c>
       <c r="R19" s="2" t="inlineStr">
         <is>
-          <t>69623</t>
+          <t>69729</t>
         </is>
       </c>
       <c r="S19" s="2" t="inlineStr">
         <is>
-          <t>63332</t>
+          <t>64140</t>
         </is>
       </c>
       <c r="T19" s="2" t="inlineStr">
         <is>
-          <t>76062</t>
+          <t>76086</t>
         </is>
       </c>
       <c r="U19" s="2" t="inlineStr">
         <is>
-          <t>31,29%</t>
+          <t>31,66%</t>
         </is>
       </c>
       <c r="V19" s="2" t="inlineStr">
         <is>
-          <t>28,46%</t>
+          <t>29,12%</t>
         </is>
       </c>
       <c r="W19" s="2" t="inlineStr">
         <is>
-          <t>34,18%</t>
+          <t>34,55%</t>
         </is>
       </c>
     </row>
@@ -2563,32 +2563,32 @@
       </c>
       <c r="D20" s="2" t="inlineStr">
         <is>
-          <t>69470</t>
+          <t>67965</t>
         </is>
       </c>
       <c r="E20" s="2" t="inlineStr">
         <is>
-          <t>64363</t>
+          <t>63836</t>
         </is>
       </c>
       <c r="F20" s="2" t="inlineStr">
         <is>
-          <t>73339</t>
+          <t>72184</t>
         </is>
       </c>
       <c r="G20" s="2" t="inlineStr">
         <is>
-          <t>64,56%</t>
+          <t>65,06%</t>
         </is>
       </c>
       <c r="H20" s="2" t="inlineStr">
         <is>
-          <t>59,81%</t>
+          <t>61,11%</t>
         </is>
       </c>
       <c r="I20" s="2" t="inlineStr">
         <is>
-          <t>68,16%</t>
+          <t>69,1%</t>
         </is>
       </c>
       <c r="J20" s="2" t="inlineStr">
@@ -2598,32 +2598,32 @@
       </c>
       <c r="K20" s="2" t="inlineStr">
         <is>
-          <t>83419</t>
+          <t>82551</t>
         </is>
       </c>
       <c r="L20" s="2" t="inlineStr">
         <is>
-          <t>78970</t>
+          <t>78398</t>
         </is>
       </c>
       <c r="M20" s="2" t="inlineStr">
         <is>
-          <t>86966</t>
+          <t>86607</t>
         </is>
       </c>
       <c r="N20" s="2" t="inlineStr">
         <is>
-          <t>72,6%</t>
+          <t>71,3%</t>
         </is>
       </c>
       <c r="O20" s="2" t="inlineStr">
         <is>
-          <t>68,72%</t>
+          <t>67,71%</t>
         </is>
       </c>
       <c r="P20" s="2" t="inlineStr">
         <is>
-          <t>75,68%</t>
+          <t>74,8%</t>
         </is>
       </c>
       <c r="Q20" s="2" t="inlineStr">
@@ -2633,32 +2633,32 @@
       </c>
       <c r="R20" s="2" t="inlineStr">
         <is>
-          <t>152889</t>
+          <t>150517</t>
         </is>
       </c>
       <c r="S20" s="2" t="inlineStr">
         <is>
-          <t>146450</t>
+          <t>144160</t>
         </is>
       </c>
       <c r="T20" s="2" t="inlineStr">
         <is>
-          <t>159180</t>
+          <t>156106</t>
         </is>
       </c>
       <c r="U20" s="2" t="inlineStr">
         <is>
-          <t>68,71%</t>
+          <t>68,34%</t>
         </is>
       </c>
       <c r="V20" s="2" t="inlineStr">
         <is>
-          <t>65,82%</t>
+          <t>65,45%</t>
         </is>
       </c>
       <c r="W20" s="2" t="inlineStr">
         <is>
-          <t>71,54%</t>
+          <t>70,88%</t>
         </is>
       </c>
     </row>
@@ -2676,17 +2676,17 @@
       </c>
       <c r="D21" s="2" t="inlineStr">
         <is>
-          <t>107604</t>
+          <t>104466</t>
         </is>
       </c>
       <c r="E21" s="2" t="inlineStr">
         <is>
-          <t>107604</t>
+          <t>104466</t>
         </is>
       </c>
       <c r="F21" s="2" t="inlineStr">
         <is>
-          <t>107604</t>
+          <t>104466</t>
         </is>
       </c>
       <c r="G21" s="2" t="inlineStr">
@@ -2711,17 +2711,17 @@
       </c>
       <c r="K21" s="2" t="inlineStr">
         <is>
-          <t>114908</t>
+          <t>115780</t>
         </is>
       </c>
       <c r="L21" s="2" t="inlineStr">
         <is>
-          <t>114908</t>
+          <t>115780</t>
         </is>
       </c>
       <c r="M21" s="2" t="inlineStr">
         <is>
-          <t>114908</t>
+          <t>115780</t>
         </is>
       </c>
       <c r="N21" s="2" t="inlineStr">
@@ -2746,17 +2746,17 @@
       </c>
       <c r="R21" s="2" t="inlineStr">
         <is>
-          <t>222512</t>
+          <t>220246</t>
         </is>
       </c>
       <c r="S21" s="2" t="inlineStr">
         <is>
-          <t>222512</t>
+          <t>220246</t>
         </is>
       </c>
       <c r="T21" s="2" t="inlineStr">
         <is>
-          <t>222512</t>
+          <t>220246</t>
         </is>
       </c>
       <c r="U21" s="2" t="inlineStr">
@@ -2793,32 +2793,32 @@
       </c>
       <c r="D22" s="2" t="inlineStr">
         <is>
-          <t>38119</t>
+          <t>34240</t>
         </is>
       </c>
       <c r="E22" s="2" t="inlineStr">
         <is>
-          <t>33904</t>
+          <t>30356</t>
         </is>
       </c>
       <c r="F22" s="2" t="inlineStr">
         <is>
-          <t>42512</t>
+          <t>38422</t>
         </is>
       </c>
       <c r="G22" s="2" t="inlineStr">
         <is>
-          <t>39,56%</t>
+          <t>38,38%</t>
         </is>
       </c>
       <c r="H22" s="2" t="inlineStr">
         <is>
-          <t>35,19%</t>
+          <t>34,02%</t>
         </is>
       </c>
       <c r="I22" s="2" t="inlineStr">
         <is>
-          <t>44,12%</t>
+          <t>43,06%</t>
         </is>
       </c>
       <c r="J22" s="2" t="inlineStr">
@@ -2828,32 +2828,32 @@
       </c>
       <c r="K22" s="2" t="inlineStr">
         <is>
-          <t>41201</t>
+          <t>39884</t>
         </is>
       </c>
       <c r="L22" s="2" t="inlineStr">
         <is>
-          <t>36814</t>
+          <t>35584</t>
         </is>
       </c>
       <c r="M22" s="2" t="inlineStr">
         <is>
-          <t>45721</t>
+          <t>44421</t>
         </is>
       </c>
       <c r="N22" s="2" t="inlineStr">
         <is>
-          <t>30,76%</t>
+          <t>30,14%</t>
         </is>
       </c>
       <c r="O22" s="2" t="inlineStr">
         <is>
-          <t>27,49%</t>
+          <t>26,89%</t>
         </is>
       </c>
       <c r="P22" s="2" t="inlineStr">
         <is>
-          <t>34,14%</t>
+          <t>33,57%</t>
         </is>
       </c>
       <c r="Q22" s="2" t="inlineStr">
@@ -2863,32 +2863,32 @@
       </c>
       <c r="R22" s="2" t="inlineStr">
         <is>
-          <t>79320</t>
+          <t>74124</t>
         </is>
       </c>
       <c r="S22" s="2" t="inlineStr">
         <is>
-          <t>72747</t>
+          <t>67474</t>
         </is>
       </c>
       <c r="T22" s="2" t="inlineStr">
         <is>
-          <t>85917</t>
+          <t>80380</t>
         </is>
       </c>
       <c r="U22" s="2" t="inlineStr">
         <is>
-          <t>34,44%</t>
+          <t>33,46%</t>
         </is>
       </c>
       <c r="V22" s="2" t="inlineStr">
         <is>
-          <t>31,59%</t>
+          <t>30,46%</t>
         </is>
       </c>
       <c r="W22" s="2" t="inlineStr">
         <is>
-          <t>37,31%</t>
+          <t>36,28%</t>
         </is>
       </c>
     </row>
@@ -2906,32 +2906,32 @@
       </c>
       <c r="D23" s="2" t="inlineStr">
         <is>
-          <t>58236</t>
+          <t>54983</t>
         </is>
       </c>
       <c r="E23" s="2" t="inlineStr">
         <is>
-          <t>53843</t>
+          <t>50801</t>
         </is>
       </c>
       <c r="F23" s="2" t="inlineStr">
         <is>
-          <t>62451</t>
+          <t>58867</t>
         </is>
       </c>
       <c r="G23" s="2" t="inlineStr">
         <is>
-          <t>60,44%</t>
+          <t>61,62%</t>
         </is>
       </c>
       <c r="H23" s="2" t="inlineStr">
         <is>
-          <t>55,88%</t>
+          <t>56,94%</t>
         </is>
       </c>
       <c r="I23" s="2" t="inlineStr">
         <is>
-          <t>64,81%</t>
+          <t>65,98%</t>
         </is>
       </c>
       <c r="J23" s="2" t="inlineStr">
@@ -2941,32 +2941,32 @@
       </c>
       <c r="K23" s="2" t="inlineStr">
         <is>
-          <t>92730</t>
+          <t>92428</t>
         </is>
       </c>
       <c r="L23" s="2" t="inlineStr">
         <is>
-          <t>88210</t>
+          <t>87891</t>
         </is>
       </c>
       <c r="M23" s="2" t="inlineStr">
         <is>
-          <t>97117</t>
+          <t>96728</t>
         </is>
       </c>
       <c r="N23" s="2" t="inlineStr">
         <is>
-          <t>69,24%</t>
+          <t>69,86%</t>
         </is>
       </c>
       <c r="O23" s="2" t="inlineStr">
         <is>
-          <t>65,86%</t>
+          <t>66,43%</t>
         </is>
       </c>
       <c r="P23" s="2" t="inlineStr">
         <is>
-          <t>72,51%</t>
+          <t>73,11%</t>
         </is>
       </c>
       <c r="Q23" s="2" t="inlineStr">
@@ -2976,32 +2976,32 @@
       </c>
       <c r="R23" s="2" t="inlineStr">
         <is>
-          <t>150966</t>
+          <t>147411</t>
         </is>
       </c>
       <c r="S23" s="2" t="inlineStr">
         <is>
-          <t>144369</t>
+          <t>141155</t>
         </is>
       </c>
       <c r="T23" s="2" t="inlineStr">
         <is>
-          <t>157539</t>
+          <t>154061</t>
         </is>
       </c>
       <c r="U23" s="2" t="inlineStr">
         <is>
-          <t>65,56%</t>
+          <t>66,54%</t>
         </is>
       </c>
       <c r="V23" s="2" t="inlineStr">
         <is>
-          <t>62,69%</t>
+          <t>63,72%</t>
         </is>
       </c>
       <c r="W23" s="2" t="inlineStr">
         <is>
-          <t>68,41%</t>
+          <t>69,54%</t>
         </is>
       </c>
     </row>
@@ -3019,17 +3019,17 @@
       </c>
       <c r="D24" s="2" t="inlineStr">
         <is>
-          <t>96355</t>
+          <t>89223</t>
         </is>
       </c>
       <c r="E24" s="2" t="inlineStr">
         <is>
-          <t>96355</t>
+          <t>89223</t>
         </is>
       </c>
       <c r="F24" s="2" t="inlineStr">
         <is>
-          <t>96355</t>
+          <t>89223</t>
         </is>
       </c>
       <c r="G24" s="2" t="inlineStr">
@@ -3054,17 +3054,17 @@
       </c>
       <c r="K24" s="2" t="inlineStr">
         <is>
-          <t>133931</t>
+          <t>132312</t>
         </is>
       </c>
       <c r="L24" s="2" t="inlineStr">
         <is>
-          <t>133931</t>
+          <t>132312</t>
         </is>
       </c>
       <c r="M24" s="2" t="inlineStr">
         <is>
-          <t>133931</t>
+          <t>132312</t>
         </is>
       </c>
       <c r="N24" s="2" t="inlineStr">
@@ -3089,17 +3089,17 @@
       </c>
       <c r="R24" s="2" t="inlineStr">
         <is>
-          <t>230286</t>
+          <t>221535</t>
         </is>
       </c>
       <c r="S24" s="2" t="inlineStr">
         <is>
-          <t>230286</t>
+          <t>221535</t>
         </is>
       </c>
       <c r="T24" s="2" t="inlineStr">
         <is>
-          <t>230286</t>
+          <t>221535</t>
         </is>
       </c>
       <c r="U24" s="2" t="inlineStr">
@@ -3136,32 +3136,32 @@
       </c>
       <c r="D25" s="2" t="inlineStr">
         <is>
-          <t>113238</t>
+          <t>107381</t>
         </is>
       </c>
       <c r="E25" s="2" t="inlineStr">
         <is>
-          <t>105139</t>
+          <t>100066</t>
         </is>
       </c>
       <c r="F25" s="2" t="inlineStr">
         <is>
-          <t>122446</t>
+          <t>115764</t>
         </is>
       </c>
       <c r="G25" s="2" t="inlineStr">
         <is>
-          <t>16,25%</t>
+          <t>14,83%</t>
         </is>
       </c>
       <c r="H25" s="2" t="inlineStr">
         <is>
-          <t>15,09%</t>
+          <t>13,82%</t>
         </is>
       </c>
       <c r="I25" s="2" t="inlineStr">
         <is>
-          <t>17,57%</t>
+          <t>15,99%</t>
         </is>
       </c>
       <c r="J25" s="2" t="inlineStr">
@@ -3171,32 +3171,32 @@
       </c>
       <c r="K25" s="2" t="inlineStr">
         <is>
-          <t>96065</t>
+          <t>97112</t>
         </is>
       </c>
       <c r="L25" s="2" t="inlineStr">
         <is>
-          <t>88165</t>
+          <t>89726</t>
         </is>
       </c>
       <c r="M25" s="2" t="inlineStr">
         <is>
-          <t>103761</t>
+          <t>105385</t>
         </is>
       </c>
       <c r="N25" s="2" t="inlineStr">
         <is>
-          <t>12,7%</t>
+          <t>12,18%</t>
         </is>
       </c>
       <c r="O25" s="2" t="inlineStr">
         <is>
-          <t>11,65%</t>
+          <t>11,25%</t>
         </is>
       </c>
       <c r="P25" s="2" t="inlineStr">
         <is>
-          <t>13,71%</t>
+          <t>13,21%</t>
         </is>
       </c>
       <c r="Q25" s="2" t="inlineStr">
@@ -3206,32 +3206,32 @@
       </c>
       <c r="R25" s="2" t="inlineStr">
         <is>
-          <t>209303</t>
+          <t>204494</t>
         </is>
       </c>
       <c r="S25" s="2" t="inlineStr">
         <is>
-          <t>197012</t>
+          <t>193928</t>
         </is>
       </c>
       <c r="T25" s="2" t="inlineStr">
         <is>
-          <t>219428</t>
+          <t>216346</t>
         </is>
       </c>
       <c r="U25" s="2" t="inlineStr">
         <is>
-          <t>14,4%</t>
+          <t>13,44%</t>
         </is>
       </c>
       <c r="V25" s="2" t="inlineStr">
         <is>
-          <t>13,55%</t>
+          <t>12,75%</t>
         </is>
       </c>
       <c r="W25" s="2" t="inlineStr">
         <is>
-          <t>15,1%</t>
+          <t>14,22%</t>
         </is>
       </c>
     </row>
@@ -3249,32 +3249,32 @@
       </c>
       <c r="D26" s="2" t="inlineStr">
         <is>
-          <t>583665</t>
+          <t>616491</t>
         </is>
       </c>
       <c r="E26" s="2" t="inlineStr">
         <is>
-          <t>574457</t>
+          <t>608108</t>
         </is>
       </c>
       <c r="F26" s="2" t="inlineStr">
         <is>
-          <t>591764</t>
+          <t>623806</t>
         </is>
       </c>
       <c r="G26" s="2" t="inlineStr">
         <is>
-          <t>83,75%</t>
+          <t>85,17%</t>
         </is>
       </c>
       <c r="H26" s="2" t="inlineStr">
         <is>
-          <t>82,43%</t>
+          <t>84,01%</t>
         </is>
       </c>
       <c r="I26" s="2" t="inlineStr">
         <is>
-          <t>84,91%</t>
+          <t>86,18%</t>
         </is>
       </c>
       <c r="J26" s="2" t="inlineStr">
@@ -3284,32 +3284,32 @@
       </c>
       <c r="K26" s="2" t="inlineStr">
         <is>
-          <t>660570</t>
+          <t>700444</t>
         </is>
       </c>
       <c r="L26" s="2" t="inlineStr">
         <is>
-          <t>652874</t>
+          <t>692171</t>
         </is>
       </c>
       <c r="M26" s="2" t="inlineStr">
         <is>
-          <t>668470</t>
+          <t>707830</t>
         </is>
       </c>
       <c r="N26" s="2" t="inlineStr">
         <is>
-          <t>87,3%</t>
+          <t>87,82%</t>
         </is>
       </c>
       <c r="O26" s="2" t="inlineStr">
         <is>
-          <t>86,29%</t>
+          <t>86,79%</t>
         </is>
       </c>
       <c r="P26" s="2" t="inlineStr">
         <is>
-          <t>88,35%</t>
+          <t>88,75%</t>
         </is>
       </c>
       <c r="Q26" s="2" t="inlineStr">
@@ -3319,32 +3319,32 @@
       </c>
       <c r="R26" s="2" t="inlineStr">
         <is>
-          <t>1244235</t>
+          <t>1316935</t>
         </is>
       </c>
       <c r="S26" s="2" t="inlineStr">
         <is>
-          <t>1234110</t>
+          <t>1305083</t>
         </is>
       </c>
       <c r="T26" s="2" t="inlineStr">
         <is>
-          <t>1256526</t>
+          <t>1327501</t>
         </is>
       </c>
       <c r="U26" s="2" t="inlineStr">
         <is>
-          <t>85,6%</t>
+          <t>86,56%</t>
         </is>
       </c>
       <c r="V26" s="2" t="inlineStr">
         <is>
-          <t>84,9%</t>
+          <t>85,78%</t>
         </is>
       </c>
       <c r="W26" s="2" t="inlineStr">
         <is>
-          <t>86,45%</t>
+          <t>87,25%</t>
         </is>
       </c>
     </row>
@@ -3362,17 +3362,17 @@
       </c>
       <c r="D27" s="2" t="inlineStr">
         <is>
-          <t>696903</t>
+          <t>723872</t>
         </is>
       </c>
       <c r="E27" s="2" t="inlineStr">
         <is>
-          <t>696903</t>
+          <t>723872</t>
         </is>
       </c>
       <c r="F27" s="2" t="inlineStr">
         <is>
-          <t>696903</t>
+          <t>723872</t>
         </is>
       </c>
       <c r="G27" s="2" t="inlineStr">
@@ -3397,17 +3397,17 @@
       </c>
       <c r="K27" s="2" t="inlineStr">
         <is>
-          <t>756635</t>
+          <t>797556</t>
         </is>
       </c>
       <c r="L27" s="2" t="inlineStr">
         <is>
-          <t>756635</t>
+          <t>797556</t>
         </is>
       </c>
       <c r="M27" s="2" t="inlineStr">
         <is>
-          <t>756635</t>
+          <t>797556</t>
         </is>
       </c>
       <c r="N27" s="2" t="inlineStr">
@@ -3432,17 +3432,17 @@
       </c>
       <c r="R27" s="2" t="inlineStr">
         <is>
-          <t>1453538</t>
+          <t>1521429</t>
         </is>
       </c>
       <c r="S27" s="2" t="inlineStr">
         <is>
-          <t>1453538</t>
+          <t>1521429</t>
         </is>
       </c>
       <c r="T27" s="2" t="inlineStr">
         <is>
-          <t>1453538</t>
+          <t>1521429</t>
         </is>
       </c>
       <c r="U27" s="2" t="inlineStr">
@@ -3767,7 +3767,7 @@
       </c>
       <c r="M4" s="2" t="inlineStr">
         <is>
-          <t>8785</t>
+          <t>7411</t>
         </is>
       </c>
       <c r="N4" s="2" t="inlineStr">
@@ -3782,7 +3782,7 @@
       </c>
       <c r="P4" s="2" t="inlineStr">
         <is>
-          <t>4,77%</t>
+          <t>4,02%</t>
         </is>
       </c>
       <c r="Q4" s="2" t="inlineStr">
@@ -3802,7 +3802,7 @@
       </c>
       <c r="T4" s="2" t="inlineStr">
         <is>
-          <t>8885</t>
+          <t>7981</t>
         </is>
       </c>
       <c r="U4" s="2" t="inlineStr">
@@ -3817,7 +3817,7 @@
       </c>
       <c r="W4" s="2" t="inlineStr">
         <is>
-          <t>2,11%</t>
+          <t>1,9%</t>
         </is>
       </c>
     </row>
@@ -3875,7 +3875,7 @@
       </c>
       <c r="L5" s="2" t="inlineStr">
         <is>
-          <t>175568</t>
+          <t>176942</t>
         </is>
       </c>
       <c r="M5" s="2" t="inlineStr">
@@ -3890,7 +3890,7 @@
       </c>
       <c r="O5" s="2" t="inlineStr">
         <is>
-          <t>95,23%</t>
+          <t>95,98%</t>
         </is>
       </c>
       <c r="P5" s="2" t="inlineStr">
@@ -3910,7 +3910,7 @@
       </c>
       <c r="S5" s="2" t="inlineStr">
         <is>
-          <t>411704</t>
+          <t>412608</t>
         </is>
       </c>
       <c r="T5" s="2" t="inlineStr">
@@ -3925,7 +3925,7 @@
       </c>
       <c r="V5" s="2" t="inlineStr">
         <is>
-          <t>97,89%</t>
+          <t>98,1%</t>
         </is>
       </c>
       <c r="W5" s="2" t="inlineStr">
@@ -4105,12 +4105,12 @@
       </c>
       <c r="L7" s="2" t="inlineStr">
         <is>
-          <t>737</t>
+          <t>759</t>
         </is>
       </c>
       <c r="M7" s="2" t="inlineStr">
         <is>
-          <t>9093</t>
+          <t>9107</t>
         </is>
       </c>
       <c r="N7" s="2" t="inlineStr">
@@ -4120,12 +4120,12 @@
       </c>
       <c r="O7" s="2" t="inlineStr">
         <is>
-          <t>0,23%</t>
+          <t>0,24%</t>
         </is>
       </c>
       <c r="P7" s="2" t="inlineStr">
         <is>
-          <t>2,89%</t>
+          <t>2,9%</t>
         </is>
       </c>
       <c r="Q7" s="2" t="inlineStr">
@@ -4140,12 +4140,12 @@
       </c>
       <c r="S7" s="2" t="inlineStr">
         <is>
-          <t>858</t>
+          <t>827</t>
         </is>
       </c>
       <c r="T7" s="2" t="inlineStr">
         <is>
-          <t>8312</t>
+          <t>8498</t>
         </is>
       </c>
       <c r="U7" s="2" t="inlineStr">
@@ -4155,12 +4155,12 @@
       </c>
       <c r="V7" s="2" t="inlineStr">
         <is>
-          <t>0,16%</t>
+          <t>0,15%</t>
         </is>
       </c>
       <c r="W7" s="2" t="inlineStr">
         <is>
-          <t>1,53%</t>
+          <t>1,56%</t>
         </is>
       </c>
     </row>
@@ -4218,12 +4218,12 @@
       </c>
       <c r="L8" s="2" t="inlineStr">
         <is>
-          <t>305335</t>
+          <t>305321</t>
         </is>
       </c>
       <c r="M8" s="2" t="inlineStr">
         <is>
-          <t>313691</t>
+          <t>313669</t>
         </is>
       </c>
       <c r="N8" s="2" t="inlineStr">
@@ -4233,12 +4233,12 @@
       </c>
       <c r="O8" s="2" t="inlineStr">
         <is>
-          <t>97,11%</t>
+          <t>97,1%</t>
         </is>
       </c>
       <c r="P8" s="2" t="inlineStr">
         <is>
-          <t>99,77%</t>
+          <t>99,76%</t>
         </is>
       </c>
       <c r="Q8" s="2" t="inlineStr">
@@ -4253,12 +4253,12 @@
       </c>
       <c r="S8" s="2" t="inlineStr">
         <is>
-          <t>535484</t>
+          <t>535298</t>
         </is>
       </c>
       <c r="T8" s="2" t="inlineStr">
         <is>
-          <t>542938</t>
+          <t>542969</t>
         </is>
       </c>
       <c r="U8" s="2" t="inlineStr">
@@ -4268,12 +4268,12 @@
       </c>
       <c r="V8" s="2" t="inlineStr">
         <is>
-          <t>98,47%</t>
+          <t>98,44%</t>
         </is>
       </c>
       <c r="W8" s="2" t="inlineStr">
         <is>
-          <t>99,84%</t>
+          <t>99,85%</t>
         </is>
       </c>
     </row>
@@ -4413,12 +4413,12 @@
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>2095</t>
+          <t>2199</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>12566</t>
+          <t>12368</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
@@ -4428,12 +4428,12 @@
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>0,67%</t>
+          <t>0,71%</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
         <is>
-          <t>4,04%</t>
+          <t>3,98%</t>
         </is>
       </c>
       <c r="J10" s="2" t="inlineStr">
@@ -4448,12 +4448,12 @@
       </c>
       <c r="L10" s="2" t="inlineStr">
         <is>
-          <t>1028</t>
+          <t>1215</t>
         </is>
       </c>
       <c r="M10" s="2" t="inlineStr">
         <is>
-          <t>7048</t>
+          <t>7624</t>
         </is>
       </c>
       <c r="N10" s="2" t="inlineStr">
@@ -4463,12 +4463,12 @@
       </c>
       <c r="O10" s="2" t="inlineStr">
         <is>
-          <t>0,32%</t>
+          <t>0,38%</t>
         </is>
       </c>
       <c r="P10" s="2" t="inlineStr">
         <is>
-          <t>2,18%</t>
+          <t>2,36%</t>
         </is>
       </c>
       <c r="Q10" s="2" t="inlineStr">
@@ -4483,12 +4483,12 @@
       </c>
       <c r="S10" s="2" t="inlineStr">
         <is>
-          <t>4653</t>
+          <t>4460</t>
         </is>
       </c>
       <c r="T10" s="2" t="inlineStr">
         <is>
-          <t>16112</t>
+          <t>15988</t>
         </is>
       </c>
       <c r="U10" s="2" t="inlineStr">
@@ -4498,12 +4498,12 @@
       </c>
       <c r="V10" s="2" t="inlineStr">
         <is>
-          <t>0,73%</t>
+          <t>0,7%</t>
         </is>
       </c>
       <c r="W10" s="2" t="inlineStr">
         <is>
-          <t>2,54%</t>
+          <t>2,52%</t>
         </is>
       </c>
     </row>
@@ -4526,12 +4526,12 @@
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>298203</t>
+          <t>298401</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>308674</t>
+          <t>308570</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
@@ -4541,12 +4541,12 @@
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>95,96%</t>
+          <t>96,02%</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>99,33%</t>
+          <t>99,29%</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
@@ -4561,12 +4561,12 @@
       </c>
       <c r="L11" s="2" t="inlineStr">
         <is>
-          <t>315565</t>
+          <t>314989</t>
         </is>
       </c>
       <c r="M11" s="2" t="inlineStr">
         <is>
-          <t>321585</t>
+          <t>321398</t>
         </is>
       </c>
       <c r="N11" s="2" t="inlineStr">
@@ -4576,12 +4576,12 @@
       </c>
       <c r="O11" s="2" t="inlineStr">
         <is>
-          <t>97,82%</t>
+          <t>97,64%</t>
         </is>
       </c>
       <c r="P11" s="2" t="inlineStr">
         <is>
-          <t>99,68%</t>
+          <t>99,62%</t>
         </is>
       </c>
       <c r="Q11" s="2" t="inlineStr">
@@ -4596,12 +4596,12 @@
       </c>
       <c r="S11" s="2" t="inlineStr">
         <is>
-          <t>617269</t>
+          <t>617393</t>
         </is>
       </c>
       <c r="T11" s="2" t="inlineStr">
         <is>
-          <t>628728</t>
+          <t>628921</t>
         </is>
       </c>
       <c r="U11" s="2" t="inlineStr">
@@ -4611,12 +4611,12 @@
       </c>
       <c r="V11" s="2" t="inlineStr">
         <is>
-          <t>97,46%</t>
+          <t>97,48%</t>
         </is>
       </c>
       <c r="W11" s="2" t="inlineStr">
         <is>
-          <t>99,27%</t>
+          <t>99,3%</t>
         </is>
       </c>
     </row>
@@ -4756,12 +4756,12 @@
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>8994</t>
+          <t>9079</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>52269</t>
+          <t>52137</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
@@ -4771,12 +4771,12 @@
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>1,43%</t>
+          <t>1,45%</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>8,33%</t>
+          <t>8,31%</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
@@ -4791,12 +4791,12 @@
       </c>
       <c r="L13" s="2" t="inlineStr">
         <is>
-          <t>18722</t>
+          <t>18978</t>
         </is>
       </c>
       <c r="M13" s="2" t="inlineStr">
         <is>
-          <t>33535</t>
+          <t>34308</t>
         </is>
       </c>
       <c r="N13" s="2" t="inlineStr">
@@ -4806,12 +4806,12 @@
       </c>
       <c r="O13" s="2" t="inlineStr">
         <is>
-          <t>4,63%</t>
+          <t>4,69%</t>
         </is>
       </c>
       <c r="P13" s="2" t="inlineStr">
         <is>
-          <t>8,28%</t>
+          <t>8,48%</t>
         </is>
       </c>
       <c r="Q13" s="2" t="inlineStr">
@@ -4826,12 +4826,12 @@
       </c>
       <c r="S13" s="2" t="inlineStr">
         <is>
-          <t>24359</t>
+          <t>26776</t>
         </is>
       </c>
       <c r="T13" s="2" t="inlineStr">
         <is>
-          <t>75941</t>
+          <t>77671</t>
         </is>
       </c>
       <c r="U13" s="2" t="inlineStr">
@@ -4841,12 +4841,12 @@
       </c>
       <c r="V13" s="2" t="inlineStr">
         <is>
-          <t>2,36%</t>
+          <t>2,59%</t>
         </is>
       </c>
       <c r="W13" s="2" t="inlineStr">
         <is>
-          <t>7,36%</t>
+          <t>7,53%</t>
         </is>
       </c>
     </row>
@@ -4869,12 +4869,12 @@
       </c>
       <c r="E14" s="2" t="inlineStr">
         <is>
-          <t>574895</t>
+          <t>575027</t>
         </is>
       </c>
       <c r="F14" s="2" t="inlineStr">
         <is>
-          <t>618170</t>
+          <t>618085</t>
         </is>
       </c>
       <c r="G14" s="2" t="inlineStr">
@@ -4884,12 +4884,12 @@
       </c>
       <c r="H14" s="2" t="inlineStr">
         <is>
-          <t>91,67%</t>
+          <t>91,69%</t>
         </is>
       </c>
       <c r="I14" s="2" t="inlineStr">
         <is>
-          <t>98,57%</t>
+          <t>98,55%</t>
         </is>
       </c>
       <c r="J14" s="2" t="inlineStr">
@@ -4904,12 +4904,12 @@
       </c>
       <c r="L14" s="2" t="inlineStr">
         <is>
-          <t>371267</t>
+          <t>370494</t>
         </is>
       </c>
       <c r="M14" s="2" t="inlineStr">
         <is>
-          <t>386080</t>
+          <t>385824</t>
         </is>
       </c>
       <c r="N14" s="2" t="inlineStr">
@@ -4919,12 +4919,12 @@
       </c>
       <c r="O14" s="2" t="inlineStr">
         <is>
-          <t>91,72%</t>
+          <t>91,52%</t>
         </is>
       </c>
       <c r="P14" s="2" t="inlineStr">
         <is>
-          <t>95,37%</t>
+          <t>95,31%</t>
         </is>
       </c>
       <c r="Q14" s="2" t="inlineStr">
@@ -4939,12 +4939,12 @@
       </c>
       <c r="S14" s="2" t="inlineStr">
         <is>
-          <t>956025</t>
+          <t>954295</t>
         </is>
       </c>
       <c r="T14" s="2" t="inlineStr">
         <is>
-          <t>1007607</t>
+          <t>1005190</t>
         </is>
       </c>
       <c r="U14" s="2" t="inlineStr">
@@ -4954,12 +4954,12 @@
       </c>
       <c r="V14" s="2" t="inlineStr">
         <is>
-          <t>92,64%</t>
+          <t>92,47%</t>
         </is>
       </c>
       <c r="W14" s="2" t="inlineStr">
         <is>
-          <t>97,64%</t>
+          <t>97,41%</t>
         </is>
       </c>
     </row>
@@ -5099,12 +5099,12 @@
       </c>
       <c r="E16" s="2" t="inlineStr">
         <is>
-          <t>51013</t>
+          <t>50179</t>
         </is>
       </c>
       <c r="F16" s="2" t="inlineStr">
         <is>
-          <t>77176</t>
+          <t>77613</t>
         </is>
       </c>
       <c r="G16" s="2" t="inlineStr">
@@ -5114,82 +5114,82 @@
       </c>
       <c r="H16" s="2" t="inlineStr">
         <is>
-          <t>15,04%</t>
+          <t>14,8%</t>
         </is>
       </c>
       <c r="I16" s="2" t="inlineStr">
         <is>
+          <t>22,89%</t>
+        </is>
+      </c>
+      <c r="J16" s="2" t="inlineStr">
+        <is>
+          <t>123</t>
+        </is>
+      </c>
+      <c r="K16" s="2" t="inlineStr">
+        <is>
+          <t>69546</t>
+        </is>
+      </c>
+      <c r="L16" s="2" t="inlineStr">
+        <is>
+          <t>59521</t>
+        </is>
+      </c>
+      <c r="M16" s="2" t="inlineStr">
+        <is>
+          <t>81363</t>
+        </is>
+      </c>
+      <c r="N16" s="2" t="inlineStr">
+        <is>
+          <t>21,81%</t>
+        </is>
+      </c>
+      <c r="O16" s="2" t="inlineStr">
+        <is>
+          <t>18,66%</t>
+        </is>
+      </c>
+      <c r="P16" s="2" t="inlineStr">
+        <is>
+          <t>25,51%</t>
+        </is>
+      </c>
+      <c r="Q16" s="2" t="inlineStr">
+        <is>
+          <t>197</t>
+        </is>
+      </c>
+      <c r="R16" s="2" t="inlineStr">
+        <is>
+          <t>133241</t>
+        </is>
+      </c>
+      <c r="S16" s="2" t="inlineStr">
+        <is>
+          <t>115774</t>
+        </is>
+      </c>
+      <c r="T16" s="2" t="inlineStr">
+        <is>
+          <t>149789</t>
+        </is>
+      </c>
+      <c r="U16" s="2" t="inlineStr">
+        <is>
+          <t>20,25%</t>
+        </is>
+      </c>
+      <c r="V16" s="2" t="inlineStr">
+        <is>
+          <t>17,59%</t>
+        </is>
+      </c>
+      <c r="W16" s="2" t="inlineStr">
+        <is>
           <t>22,76%</t>
-        </is>
-      </c>
-      <c r="J16" s="2" t="inlineStr">
-        <is>
-          <t>123</t>
-        </is>
-      </c>
-      <c r="K16" s="2" t="inlineStr">
-        <is>
-          <t>69546</t>
-        </is>
-      </c>
-      <c r="L16" s="2" t="inlineStr">
-        <is>
-          <t>58838</t>
-        </is>
-      </c>
-      <c r="M16" s="2" t="inlineStr">
-        <is>
-          <t>81077</t>
-        </is>
-      </c>
-      <c r="N16" s="2" t="inlineStr">
-        <is>
-          <t>21,81%</t>
-        </is>
-      </c>
-      <c r="O16" s="2" t="inlineStr">
-        <is>
-          <t>18,45%</t>
-        </is>
-      </c>
-      <c r="P16" s="2" t="inlineStr">
-        <is>
-          <t>25,42%</t>
-        </is>
-      </c>
-      <c r="Q16" s="2" t="inlineStr">
-        <is>
-          <t>197</t>
-        </is>
-      </c>
-      <c r="R16" s="2" t="inlineStr">
-        <is>
-          <t>133241</t>
-        </is>
-      </c>
-      <c r="S16" s="2" t="inlineStr">
-        <is>
-          <t>117837</t>
-        </is>
-      </c>
-      <c r="T16" s="2" t="inlineStr">
-        <is>
-          <t>151803</t>
-        </is>
-      </c>
-      <c r="U16" s="2" t="inlineStr">
-        <is>
-          <t>20,25%</t>
-        </is>
-      </c>
-      <c r="V16" s="2" t="inlineStr">
-        <is>
-          <t>17,91%</t>
-        </is>
-      </c>
-      <c r="W16" s="2" t="inlineStr">
-        <is>
-          <t>23,07%</t>
         </is>
       </c>
     </row>
@@ -5212,12 +5212,12 @@
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>261953</t>
+          <t>261516</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>288116</t>
+          <t>288950</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
@@ -5227,82 +5227,82 @@
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
+          <t>77,11%</t>
+        </is>
+      </c>
+      <c r="I17" s="2" t="inlineStr">
+        <is>
+          <t>85,2%</t>
+        </is>
+      </c>
+      <c r="J17" s="2" t="inlineStr">
+        <is>
+          <t>443</t>
+        </is>
+      </c>
+      <c r="K17" s="2" t="inlineStr">
+        <is>
+          <t>249348</t>
+        </is>
+      </c>
+      <c r="L17" s="2" t="inlineStr">
+        <is>
+          <t>237531</t>
+        </is>
+      </c>
+      <c r="M17" s="2" t="inlineStr">
+        <is>
+          <t>259373</t>
+        </is>
+      </c>
+      <c r="N17" s="2" t="inlineStr">
+        <is>
+          <t>78,19%</t>
+        </is>
+      </c>
+      <c r="O17" s="2" t="inlineStr">
+        <is>
+          <t>74,49%</t>
+        </is>
+      </c>
+      <c r="P17" s="2" t="inlineStr">
+        <is>
+          <t>81,34%</t>
+        </is>
+      </c>
+      <c r="Q17" s="2" t="inlineStr">
+        <is>
+          <t>767</t>
+        </is>
+      </c>
+      <c r="R17" s="2" t="inlineStr">
+        <is>
+          <t>524783</t>
+        </is>
+      </c>
+      <c r="S17" s="2" t="inlineStr">
+        <is>
+          <t>508235</t>
+        </is>
+      </c>
+      <c r="T17" s="2" t="inlineStr">
+        <is>
+          <t>542250</t>
+        </is>
+      </c>
+      <c r="U17" s="2" t="inlineStr">
+        <is>
+          <t>79,75%</t>
+        </is>
+      </c>
+      <c r="V17" s="2" t="inlineStr">
+        <is>
           <t>77,24%</t>
         </is>
       </c>
-      <c r="I17" s="2" t="inlineStr">
-        <is>
-          <t>84,96%</t>
-        </is>
-      </c>
-      <c r="J17" s="2" t="inlineStr">
-        <is>
-          <t>443</t>
-        </is>
-      </c>
-      <c r="K17" s="2" t="inlineStr">
-        <is>
-          <t>249348</t>
-        </is>
-      </c>
-      <c r="L17" s="2" t="inlineStr">
-        <is>
-          <t>237817</t>
-        </is>
-      </c>
-      <c r="M17" s="2" t="inlineStr">
-        <is>
-          <t>260056</t>
-        </is>
-      </c>
-      <c r="N17" s="2" t="inlineStr">
-        <is>
-          <t>78,19%</t>
-        </is>
-      </c>
-      <c r="O17" s="2" t="inlineStr">
-        <is>
-          <t>74,58%</t>
-        </is>
-      </c>
-      <c r="P17" s="2" t="inlineStr">
-        <is>
-          <t>81,55%</t>
-        </is>
-      </c>
-      <c r="Q17" s="2" t="inlineStr">
-        <is>
-          <t>767</t>
-        </is>
-      </c>
-      <c r="R17" s="2" t="inlineStr">
-        <is>
-          <t>524783</t>
-        </is>
-      </c>
-      <c r="S17" s="2" t="inlineStr">
-        <is>
-          <t>506221</t>
-        </is>
-      </c>
-      <c r="T17" s="2" t="inlineStr">
-        <is>
-          <t>540187</t>
-        </is>
-      </c>
-      <c r="U17" s="2" t="inlineStr">
-        <is>
-          <t>79,75%</t>
-        </is>
-      </c>
-      <c r="V17" s="2" t="inlineStr">
-        <is>
-          <t>76,93%</t>
-        </is>
-      </c>
       <c r="W17" s="2" t="inlineStr">
         <is>
-          <t>82,09%</t>
+          <t>82,41%</t>
         </is>
       </c>
     </row>
@@ -5442,12 +5442,12 @@
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>43201</t>
+          <t>42957</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>64300</t>
+          <t>62926</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
@@ -5457,12 +5457,12 @@
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>20,76%</t>
+          <t>20,64%</t>
         </is>
       </c>
       <c r="I19" s="2" t="inlineStr">
         <is>
-          <t>30,9%</t>
+          <t>30,24%</t>
         </is>
       </c>
       <c r="J19" s="2" t="inlineStr">
@@ -5477,12 +5477,12 @@
       </c>
       <c r="L19" s="2" t="inlineStr">
         <is>
-          <t>131925</t>
+          <t>134233</t>
         </is>
       </c>
       <c r="M19" s="2" t="inlineStr">
         <is>
-          <t>389646</t>
+          <t>405077</t>
         </is>
       </c>
       <c r="N19" s="2" t="inlineStr">
@@ -5492,12 +5492,12 @@
       </c>
       <c r="O19" s="2" t="inlineStr">
         <is>
-          <t>29,15%</t>
+          <t>29,66%</t>
         </is>
       </c>
       <c r="P19" s="2" t="inlineStr">
         <is>
-          <t>86,08%</t>
+          <t>89,49%</t>
         </is>
       </c>
       <c r="Q19" s="2" t="inlineStr">
@@ -5512,12 +5512,12 @@
       </c>
       <c r="S19" s="2" t="inlineStr">
         <is>
-          <t>182532</t>
+          <t>177611</t>
         </is>
       </c>
       <c r="T19" s="2" t="inlineStr">
         <is>
-          <t>518583</t>
+          <t>529813</t>
         </is>
       </c>
       <c r="U19" s="2" t="inlineStr">
@@ -5527,12 +5527,12 @@
       </c>
       <c r="V19" s="2" t="inlineStr">
         <is>
-          <t>27,63%</t>
+          <t>26,88%</t>
         </is>
       </c>
       <c r="W19" s="2" t="inlineStr">
         <is>
-          <t>78,49%</t>
+          <t>80,19%</t>
         </is>
       </c>
     </row>
@@ -5555,12 +5555,12 @@
       </c>
       <c r="E20" s="2" t="inlineStr">
         <is>
-          <t>143784</t>
+          <t>145158</t>
         </is>
       </c>
       <c r="F20" s="2" t="inlineStr">
         <is>
-          <t>164883</t>
+          <t>165127</t>
         </is>
       </c>
       <c r="G20" s="2" t="inlineStr">
@@ -5570,12 +5570,12 @@
       </c>
       <c r="H20" s="2" t="inlineStr">
         <is>
-          <t>69,1%</t>
+          <t>69,76%</t>
         </is>
       </c>
       <c r="I20" s="2" t="inlineStr">
         <is>
-          <t>79,24%</t>
+          <t>79,36%</t>
         </is>
       </c>
       <c r="J20" s="2" t="inlineStr">
@@ -5590,12 +5590,12 @@
       </c>
       <c r="L20" s="2" t="inlineStr">
         <is>
-          <t>62996</t>
+          <t>47565</t>
         </is>
       </c>
       <c r="M20" s="2" t="inlineStr">
         <is>
-          <t>320717</t>
+          <t>318409</t>
         </is>
       </c>
       <c r="N20" s="2" t="inlineStr">
@@ -5605,12 +5605,12 @@
       </c>
       <c r="O20" s="2" t="inlineStr">
         <is>
-          <t>13,92%</t>
+          <t>10,51%</t>
         </is>
       </c>
       <c r="P20" s="2" t="inlineStr">
         <is>
-          <t>70,85%</t>
+          <t>70,34%</t>
         </is>
       </c>
       <c r="Q20" s="2" t="inlineStr">
@@ -5625,12 +5625,12 @@
       </c>
       <c r="S20" s="2" t="inlineStr">
         <is>
-          <t>142144</t>
+          <t>130914</t>
         </is>
       </c>
       <c r="T20" s="2" t="inlineStr">
         <is>
-          <t>478195</t>
+          <t>483116</t>
         </is>
       </c>
       <c r="U20" s="2" t="inlineStr">
@@ -5640,12 +5640,12 @@
       </c>
       <c r="V20" s="2" t="inlineStr">
         <is>
-          <t>21,51%</t>
+          <t>19,81%</t>
         </is>
       </c>
       <c r="W20" s="2" t="inlineStr">
         <is>
-          <t>72,37%</t>
+          <t>73,12%</t>
         </is>
       </c>
     </row>
@@ -5785,12 +5785,12 @@
       </c>
       <c r="E22" s="2" t="inlineStr">
         <is>
-          <t>47648</t>
+          <t>48232</t>
         </is>
       </c>
       <c r="F22" s="2" t="inlineStr">
         <is>
-          <t>67321</t>
+          <t>67093</t>
         </is>
       </c>
       <c r="G22" s="2" t="inlineStr">
@@ -5800,12 +5800,12 @@
       </c>
       <c r="H22" s="2" t="inlineStr">
         <is>
-          <t>31,39%</t>
+          <t>31,78%</t>
         </is>
       </c>
       <c r="I22" s="2" t="inlineStr">
         <is>
-          <t>44,36%</t>
+          <t>44,21%</t>
         </is>
       </c>
       <c r="J22" s="2" t="inlineStr">
@@ -5820,12 +5820,12 @@
       </c>
       <c r="L22" s="2" t="inlineStr">
         <is>
-          <t>77605</t>
+          <t>76912</t>
         </is>
       </c>
       <c r="M22" s="2" t="inlineStr">
         <is>
-          <t>98375</t>
+          <t>98350</t>
         </is>
       </c>
       <c r="N22" s="2" t="inlineStr">
@@ -5835,12 +5835,12 @@
       </c>
       <c r="O22" s="2" t="inlineStr">
         <is>
-          <t>33,22%</t>
+          <t>32,92%</t>
         </is>
       </c>
       <c r="P22" s="2" t="inlineStr">
         <is>
-          <t>42,11%</t>
+          <t>42,1%</t>
         </is>
       </c>
       <c r="Q22" s="2" t="inlineStr">
@@ -5855,12 +5855,12 @@
       </c>
       <c r="S22" s="2" t="inlineStr">
         <is>
-          <t>131538</t>
+          <t>130329</t>
         </is>
       </c>
       <c r="T22" s="2" t="inlineStr">
         <is>
-          <t>160902</t>
+          <t>159750</t>
         </is>
       </c>
       <c r="U22" s="2" t="inlineStr">
@@ -5870,12 +5870,12 @@
       </c>
       <c r="V22" s="2" t="inlineStr">
         <is>
-          <t>34,13%</t>
+          <t>33,82%</t>
         </is>
       </c>
       <c r="W22" s="2" t="inlineStr">
         <is>
-          <t>41,75%</t>
+          <t>41,45%</t>
         </is>
       </c>
     </row>
@@ -5898,12 +5898,12 @@
       </c>
       <c r="E23" s="2" t="inlineStr">
         <is>
-          <t>84454</t>
+          <t>84682</t>
         </is>
       </c>
       <c r="F23" s="2" t="inlineStr">
         <is>
-          <t>104127</t>
+          <t>103543</t>
         </is>
       </c>
       <c r="G23" s="2" t="inlineStr">
@@ -5913,12 +5913,12 @@
       </c>
       <c r="H23" s="2" t="inlineStr">
         <is>
-          <t>55,64%</t>
+          <t>55,79%</t>
         </is>
       </c>
       <c r="I23" s="2" t="inlineStr">
         <is>
-          <t>68,61%</t>
+          <t>68,22%</t>
         </is>
       </c>
       <c r="J23" s="2" t="inlineStr">
@@ -5933,12 +5933,12 @@
       </c>
       <c r="L23" s="2" t="inlineStr">
         <is>
-          <t>135229</t>
+          <t>135254</t>
         </is>
       </c>
       <c r="M23" s="2" t="inlineStr">
         <is>
-          <t>155999</t>
+          <t>156692</t>
         </is>
       </c>
       <c r="N23" s="2" t="inlineStr">
@@ -5948,12 +5948,12 @@
       </c>
       <c r="O23" s="2" t="inlineStr">
         <is>
-          <t>57,89%</t>
+          <t>57,9%</t>
         </is>
       </c>
       <c r="P23" s="2" t="inlineStr">
         <is>
-          <t>66,78%</t>
+          <t>67,08%</t>
         </is>
       </c>
       <c r="Q23" s="2" t="inlineStr">
@@ -5968,12 +5968,12 @@
       </c>
       <c r="S23" s="2" t="inlineStr">
         <is>
-          <t>224477</t>
+          <t>225629</t>
         </is>
       </c>
       <c r="T23" s="2" t="inlineStr">
         <is>
-          <t>253841</t>
+          <t>255050</t>
         </is>
       </c>
       <c r="U23" s="2" t="inlineStr">
@@ -5983,12 +5983,12 @@
       </c>
       <c r="V23" s="2" t="inlineStr">
         <is>
-          <t>58,25%</t>
+          <t>58,55%</t>
         </is>
       </c>
       <c r="W23" s="2" t="inlineStr">
         <is>
-          <t>65,87%</t>
+          <t>66,18%</t>
         </is>
       </c>
     </row>
@@ -6128,12 +6128,12 @@
       </c>
       <c r="E25" s="2" t="inlineStr">
         <is>
-          <t>140230</t>
+          <t>142409</t>
         </is>
       </c>
       <c r="F25" s="2" t="inlineStr">
         <is>
-          <t>242999</t>
+          <t>245913</t>
         </is>
       </c>
       <c r="G25" s="2" t="inlineStr">
@@ -6143,12 +6143,12 @@
       </c>
       <c r="H25" s="2" t="inlineStr">
         <is>
-          <t>6,67%</t>
+          <t>6,77%</t>
         </is>
       </c>
       <c r="I25" s="2" t="inlineStr">
         <is>
-          <t>11,56%</t>
+          <t>11,7%</t>
         </is>
       </c>
       <c r="J25" s="2" t="inlineStr">
@@ -6163,12 +6163,12 @@
       </c>
       <c r="L25" s="2" t="inlineStr">
         <is>
-          <t>283334</t>
+          <t>285289</t>
         </is>
       </c>
       <c r="M25" s="2" t="inlineStr">
         <is>
-          <t>948226</t>
+          <t>1033907</t>
         </is>
       </c>
       <c r="N25" s="2" t="inlineStr">
@@ -6178,12 +6178,12 @@
       </c>
       <c r="O25" s="2" t="inlineStr">
         <is>
-          <t>12,7%</t>
+          <t>12,79%</t>
         </is>
       </c>
       <c r="P25" s="2" t="inlineStr">
         <is>
-          <t>42,5%</t>
+          <t>46,34%</t>
         </is>
       </c>
       <c r="Q25" s="2" t="inlineStr">
@@ -6198,12 +6198,12 @@
       </c>
       <c r="S25" s="2" t="inlineStr">
         <is>
-          <t>477701</t>
+          <t>473415</t>
         </is>
       </c>
       <c r="T25" s="2" t="inlineStr">
         <is>
-          <t>1207517</t>
+          <t>1206082</t>
         </is>
       </c>
       <c r="U25" s="2" t="inlineStr">
@@ -6213,12 +6213,12 @@
       </c>
       <c r="V25" s="2" t="inlineStr">
         <is>
-          <t>11,02%</t>
+          <t>10,92%</t>
         </is>
       </c>
       <c r="W25" s="2" t="inlineStr">
         <is>
-          <t>27,86%</t>
+          <t>27,83%</t>
         </is>
       </c>
     </row>
@@ -6241,12 +6241,12 @@
       </c>
       <c r="E26" s="2" t="inlineStr">
         <is>
-          <t>1859526</t>
+          <t>1856612</t>
         </is>
       </c>
       <c r="F26" s="2" t="inlineStr">
         <is>
-          <t>1962295</t>
+          <t>1960116</t>
         </is>
       </c>
       <c r="G26" s="2" t="inlineStr">
@@ -6256,12 +6256,12 @@
       </c>
       <c r="H26" s="2" t="inlineStr">
         <is>
-          <t>88,44%</t>
+          <t>88,3%</t>
         </is>
       </c>
       <c r="I26" s="2" t="inlineStr">
         <is>
-          <t>93,33%</t>
+          <t>93,23%</t>
         </is>
       </c>
       <c r="J26" s="2" t="inlineStr">
@@ -6276,12 +6276,12 @@
       </c>
       <c r="L26" s="2" t="inlineStr">
         <is>
-          <t>1283110</t>
+          <t>1197429</t>
         </is>
       </c>
       <c r="M26" s="2" t="inlineStr">
         <is>
-          <t>1948002</t>
+          <t>1946047</t>
         </is>
       </c>
       <c r="N26" s="2" t="inlineStr">
@@ -6291,12 +6291,12 @@
       </c>
       <c r="O26" s="2" t="inlineStr">
         <is>
-          <t>57,5%</t>
+          <t>53,66%</t>
         </is>
       </c>
       <c r="P26" s="2" t="inlineStr">
         <is>
-          <t>87,3%</t>
+          <t>87,21%</t>
         </is>
       </c>
       <c r="Q26" s="2" t="inlineStr">
@@ -6311,12 +6311,12 @@
       </c>
       <c r="S26" s="2" t="inlineStr">
         <is>
-          <t>3126344</t>
+          <t>3127779</t>
         </is>
       </c>
       <c r="T26" s="2" t="inlineStr">
         <is>
-          <t>3856160</t>
+          <t>3860446</t>
         </is>
       </c>
       <c r="U26" s="2" t="inlineStr">
@@ -6326,12 +6326,12 @@
       </c>
       <c r="V26" s="2" t="inlineStr">
         <is>
-          <t>72,14%</t>
+          <t>72,17%</t>
         </is>
       </c>
       <c r="W26" s="2" t="inlineStr">
         <is>
-          <t>88,98%</t>
+          <t>89,08%</t>
         </is>
       </c>
     </row>

--- a/data/trans_orig/CONS_COL-Edad-trans_orig.xlsx
+++ b/data/trans_orig/CONS_COL-Edad-trans_orig.xlsx
@@ -7,9 +7,9 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="País Vasco" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Andalucia" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="C.Valenciana" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Andalucia" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="C.Valenciana" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="País Vasco" sheetId="3" state="visible" r:id="rId3"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -545,7 +545,7 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Consumo de medicamentos para el colesterol en País Vasco (tasa de respuesta: 99,45%)</t>
+          <t>Consumo de medicamentos para el colesterol en Andalucia (tasa de respuesta: 99,9%)</t>
         </is>
       </c>
       <c r="B1" s="2" t="n"/>
@@ -765,72 +765,72 @@
       </c>
       <c r="J4" s="2" t="inlineStr">
         <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="K4" s="2" t="inlineStr">
+        <is>
+          <t>2032</t>
+        </is>
+      </c>
+      <c r="L4" s="2" t="inlineStr">
+        <is>
           <t>0</t>
         </is>
       </c>
-      <c r="K4" s="2" t="inlineStr">
+      <c r="M4" s="2" t="inlineStr">
+        <is>
+          <t>9255</t>
+        </is>
+      </c>
+      <c r="N4" s="2" t="inlineStr">
+        <is>
+          <t>0,93%</t>
+        </is>
+      </c>
+      <c r="O4" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="P4" s="2" t="inlineStr">
+        <is>
+          <t>4,21%</t>
+        </is>
+      </c>
+      <c r="Q4" s="2" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="R4" s="2" t="inlineStr">
+        <is>
+          <t>2032</t>
+        </is>
+      </c>
+      <c r="S4" s="2" t="inlineStr">
         <is>
           <t>0</t>
         </is>
       </c>
-      <c r="L4" s="2" t="inlineStr">
-        <is>
-          <t>—</t>
-        </is>
-      </c>
-      <c r="M4" s="2" t="inlineStr">
-        <is>
-          <t>—</t>
-        </is>
-      </c>
-      <c r="N4" s="2" t="inlineStr">
+      <c r="T4" s="2" t="inlineStr">
+        <is>
+          <t>10171</t>
+        </is>
+      </c>
+      <c r="U4" s="2" t="inlineStr">
+        <is>
+          <t>0,44%</t>
+        </is>
+      </c>
+      <c r="V4" s="2" t="inlineStr">
         <is>
           <t>0,0%</t>
         </is>
       </c>
-      <c r="O4" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="P4" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="Q4" s="2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="R4" s="2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="S4" s="2" t="inlineStr">
-        <is>
-          <t>—</t>
-        </is>
-      </c>
-      <c r="T4" s="2" t="inlineStr">
-        <is>
-          <t>—</t>
-        </is>
-      </c>
-      <c r="U4" s="2" t="inlineStr">
-        <is>
-          <t>0,0%</t>
-        </is>
-      </c>
-      <c r="V4" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
       <c r="W4" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>2,21%</t>
         </is>
       </c>
     </row>
@@ -843,12 +843,12 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>376</t>
+          <t>94</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>76881</t>
+          <t>241265</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
@@ -878,72 +878,72 @@
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>348</t>
+          <t>117</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>66242</t>
+          <t>217623</t>
         </is>
       </c>
       <c r="L5" s="2" t="inlineStr">
         <is>
-          <t>—</t>
+          <t>210400</t>
         </is>
       </c>
       <c r="M5" s="2" t="inlineStr">
         <is>
-          <t>—</t>
+          <t>219655</t>
         </is>
       </c>
       <c r="N5" s="2" t="inlineStr">
         <is>
+          <t>99,07%</t>
+        </is>
+      </c>
+      <c r="O5" s="2" t="inlineStr">
+        <is>
+          <t>95,79%</t>
+        </is>
+      </c>
+      <c r="P5" s="2" t="inlineStr">
+        <is>
           <t>100,0%</t>
         </is>
       </c>
-      <c r="O5" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="P5" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
       <c r="Q5" s="2" t="inlineStr">
         <is>
-          <t>724</t>
+          <t>211</t>
         </is>
       </c>
       <c r="R5" s="2" t="inlineStr">
         <is>
-          <t>143123</t>
+          <t>458888</t>
         </is>
       </c>
       <c r="S5" s="2" t="inlineStr">
         <is>
-          <t>—</t>
+          <t>450749</t>
         </is>
       </c>
       <c r="T5" s="2" t="inlineStr">
         <is>
-          <t>—</t>
+          <t>460920</t>
         </is>
       </c>
       <c r="U5" s="2" t="inlineStr">
         <is>
+          <t>99,56%</t>
+        </is>
+      </c>
+      <c r="V5" s="2" t="inlineStr">
+        <is>
+          <t>97,79%</t>
+        </is>
+      </c>
+      <c r="W5" s="2" t="inlineStr">
+        <is>
           <t>100,0%</t>
-        </is>
-      </c>
-      <c r="V5" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="W5" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
         </is>
       </c>
     </row>
@@ -956,22 +956,22 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>376</t>
+          <t>94</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>76881</t>
+          <t>241265</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>76881</t>
+          <t>241265</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>76881</t>
+          <t>241265</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
@@ -991,22 +991,22 @@
       </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>348</t>
+          <t>118</t>
         </is>
       </c>
       <c r="K6" s="2" t="inlineStr">
         <is>
-          <t>66242</t>
+          <t>219655</t>
         </is>
       </c>
       <c r="L6" s="2" t="inlineStr">
         <is>
-          <t>66242</t>
+          <t>219655</t>
         </is>
       </c>
       <c r="M6" s="2" t="inlineStr">
         <is>
-          <t>66242</t>
+          <t>219655</t>
         </is>
       </c>
       <c r="N6" s="2" t="inlineStr">
@@ -1026,22 +1026,22 @@
       </c>
       <c r="Q6" s="2" t="inlineStr">
         <is>
-          <t>724</t>
+          <t>212</t>
         </is>
       </c>
       <c r="R6" s="2" t="inlineStr">
         <is>
-          <t>143123</t>
+          <t>460920</t>
         </is>
       </c>
       <c r="S6" s="2" t="inlineStr">
         <is>
-          <t>143123</t>
+          <t>460920</t>
         </is>
       </c>
       <c r="T6" s="2" t="inlineStr">
         <is>
-          <t>143123</t>
+          <t>460920</t>
         </is>
       </c>
       <c r="U6" s="2" t="inlineStr">
@@ -1073,107 +1073,107 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>0</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>431</t>
+          <t>0</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>—</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>1498</t>
+          <t>—</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>0,57%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>2,0%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>3</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>3218</t>
         </is>
       </c>
       <c r="L7" s="2" t="inlineStr">
         <is>
-          <t>—</t>
+          <t>950</t>
         </is>
       </c>
       <c r="M7" s="2" t="inlineStr">
         <is>
-          <t>—</t>
+          <t>8452</t>
         </is>
       </c>
       <c r="N7" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>1,14%</t>
         </is>
       </c>
       <c r="O7" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>0,34%</t>
         </is>
       </c>
       <c r="P7" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>2,98%</t>
         </is>
       </c>
       <c r="Q7" s="2" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
       <c r="R7" s="2" t="inlineStr">
         <is>
-          <t>431</t>
+          <t>3218</t>
         </is>
       </c>
       <c r="S7" s="2" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>934</t>
         </is>
       </c>
       <c r="T7" s="2" t="inlineStr">
         <is>
-          <t>1556</t>
+          <t>8814</t>
         </is>
       </c>
       <c r="U7" s="2" t="inlineStr">
         <is>
-          <t>0,3%</t>
+          <t>0,59%</t>
         </is>
       </c>
       <c r="V7" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>0,17%</t>
         </is>
       </c>
       <c r="W7" s="2" t="inlineStr">
         <is>
-          <t>1,09%</t>
+          <t>1,62%</t>
         </is>
       </c>
     </row>
@@ -1186,107 +1186,107 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>395</t>
+          <t>153</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>74552</t>
+          <t>261974</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>73485</t>
+          <t>—</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>74983</t>
+          <t>—</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>99,43%</t>
+          <t>100,0%</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>98,0%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="I8" s="2" t="inlineStr">
         <is>
-          <t>100,0%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
-          <t>367</t>
+          <t>246</t>
         </is>
       </c>
       <c r="K8" s="2" t="inlineStr">
         <is>
-          <t>68048</t>
+          <t>280235</t>
         </is>
       </c>
       <c r="L8" s="2" t="inlineStr">
         <is>
-          <t>—</t>
+          <t>275001</t>
         </is>
       </c>
       <c r="M8" s="2" t="inlineStr">
         <is>
-          <t>—</t>
+          <t>282503</t>
         </is>
       </c>
       <c r="N8" s="2" t="inlineStr">
         <is>
-          <t>100,0%</t>
+          <t>98,86%</t>
         </is>
       </c>
       <c r="O8" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>97,02%</t>
         </is>
       </c>
       <c r="P8" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>99,66%</t>
         </is>
       </c>
       <c r="Q8" s="2" t="inlineStr">
         <is>
-          <t>762</t>
+          <t>399</t>
         </is>
       </c>
       <c r="R8" s="2" t="inlineStr">
         <is>
-          <t>142600</t>
+          <t>542208</t>
         </is>
       </c>
       <c r="S8" s="2" t="inlineStr">
         <is>
-          <t>141475</t>
+          <t>536612</t>
         </is>
       </c>
       <c r="T8" s="2" t="inlineStr">
         <is>
-          <t>143031</t>
+          <t>544492</t>
         </is>
       </c>
       <c r="U8" s="2" t="inlineStr">
         <is>
-          <t>99,7%</t>
+          <t>99,41%</t>
         </is>
       </c>
       <c r="V8" s="2" t="inlineStr">
         <is>
-          <t>98,91%</t>
+          <t>98,38%</t>
         </is>
       </c>
       <c r="W8" s="2" t="inlineStr">
         <is>
-          <t>100,0%</t>
+          <t>99,83%</t>
         </is>
       </c>
     </row>
@@ -1299,22 +1299,22 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>397</t>
+          <t>153</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>74983</t>
+          <t>261974</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>74983</t>
+          <t>261974</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>74983</t>
+          <t>261974</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
@@ -1334,22 +1334,22 @@
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>367</t>
+          <t>249</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>68048</t>
+          <t>283453</t>
         </is>
       </c>
       <c r="L9" s="2" t="inlineStr">
         <is>
-          <t>68048</t>
+          <t>283453</t>
         </is>
       </c>
       <c r="M9" s="2" t="inlineStr">
         <is>
-          <t>68048</t>
+          <t>283453</t>
         </is>
       </c>
       <c r="N9" s="2" t="inlineStr">
@@ -1369,22 +1369,22 @@
       </c>
       <c r="Q9" s="2" t="inlineStr">
         <is>
-          <t>764</t>
+          <t>402</t>
         </is>
       </c>
       <c r="R9" s="2" t="inlineStr">
         <is>
-          <t>143031</t>
+          <t>545426</t>
         </is>
       </c>
       <c r="S9" s="2" t="inlineStr">
         <is>
-          <t>143031</t>
+          <t>545426</t>
         </is>
       </c>
       <c r="T9" s="2" t="inlineStr">
         <is>
-          <t>143031</t>
+          <t>545426</t>
         </is>
       </c>
       <c r="U9" s="2" t="inlineStr">
@@ -1416,107 +1416,107 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>17</t>
+          <t>8</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>3247</t>
+          <t>9394</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>1857</t>
+          <t>3879</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>5205</t>
+          <t>17913</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>3,12%</t>
+          <t>2,55%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>1,79%</t>
+          <t>1,05%</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
         <is>
-          <t>5,01%</t>
+          <t>4,86%</t>
         </is>
       </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>8</t>
         </is>
       </c>
       <c r="K10" s="2" t="inlineStr">
         <is>
-          <t>675</t>
+          <t>5679</t>
         </is>
       </c>
       <c r="L10" s="2" t="inlineStr">
         <is>
-          <t>106</t>
+          <t>2707</t>
         </is>
       </c>
       <c r="M10" s="2" t="inlineStr">
         <is>
-          <t>2313</t>
+          <t>11384</t>
         </is>
       </c>
       <c r="N10" s="2" t="inlineStr">
         <is>
-          <t>0,61%</t>
+          <t>1,52%</t>
         </is>
       </c>
       <c r="O10" s="2" t="inlineStr">
         <is>
-          <t>0,1%</t>
+          <t>0,72%</t>
         </is>
       </c>
       <c r="P10" s="2" t="inlineStr">
         <is>
-          <t>2,09%</t>
+          <t>3,05%</t>
         </is>
       </c>
       <c r="Q10" s="2" t="inlineStr">
         <is>
-          <t>20</t>
+          <t>16</t>
         </is>
       </c>
       <c r="R10" s="2" t="inlineStr">
         <is>
-          <t>3922</t>
+          <t>15073</t>
         </is>
       </c>
       <c r="S10" s="2" t="inlineStr">
         <is>
-          <t>2460</t>
+          <t>8975</t>
         </is>
       </c>
       <c r="T10" s="2" t="inlineStr">
         <is>
-          <t>6182</t>
+          <t>24645</t>
         </is>
       </c>
       <c r="U10" s="2" t="inlineStr">
         <is>
-          <t>1,83%</t>
+          <t>2,03%</t>
         </is>
       </c>
       <c r="V10" s="2" t="inlineStr">
         <is>
-          <t>1,15%</t>
+          <t>1,21%</t>
         </is>
       </c>
       <c r="W10" s="2" t="inlineStr">
         <is>
-          <t>2,88%</t>
+          <t>3,32%</t>
         </is>
       </c>
     </row>
@@ -1529,107 +1529,107 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>551</t>
+          <t>305</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>100713</t>
+          <t>358924</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>98755</t>
+          <t>350405</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>102103</t>
+          <t>364439</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>96,88%</t>
+          <t>97,45%</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>94,99%</t>
+          <t>95,14%</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>98,21%</t>
+          <t>98,95%</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>577</t>
+          <t>485</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>110040</t>
+          <t>367706</t>
         </is>
       </c>
       <c r="L11" s="2" t="inlineStr">
         <is>
-          <t>108402</t>
+          <t>362001</t>
         </is>
       </c>
       <c r="M11" s="2" t="inlineStr">
         <is>
-          <t>110609</t>
+          <t>370678</t>
         </is>
       </c>
       <c r="N11" s="2" t="inlineStr">
         <is>
-          <t>99,39%</t>
+          <t>98,48%</t>
         </is>
       </c>
       <c r="O11" s="2" t="inlineStr">
         <is>
-          <t>97,91%</t>
+          <t>96,95%</t>
         </is>
       </c>
       <c r="P11" s="2" t="inlineStr">
         <is>
-          <t>99,9%</t>
+          <t>99,28%</t>
         </is>
       </c>
       <c r="Q11" s="2" t="inlineStr">
         <is>
-          <t>1128</t>
+          <t>790</t>
         </is>
       </c>
       <c r="R11" s="2" t="inlineStr">
         <is>
-          <t>210753</t>
+          <t>726630</t>
         </is>
       </c>
       <c r="S11" s="2" t="inlineStr">
         <is>
-          <t>208493</t>
+          <t>717058</t>
         </is>
       </c>
       <c r="T11" s="2" t="inlineStr">
         <is>
-          <t>212215</t>
+          <t>732728</t>
         </is>
       </c>
       <c r="U11" s="2" t="inlineStr">
         <is>
-          <t>98,17%</t>
+          <t>97,97%</t>
         </is>
       </c>
       <c r="V11" s="2" t="inlineStr">
         <is>
-          <t>97,12%</t>
+          <t>96,68%</t>
         </is>
       </c>
       <c r="W11" s="2" t="inlineStr">
         <is>
-          <t>98,85%</t>
+          <t>98,79%</t>
         </is>
       </c>
     </row>
@@ -1642,22 +1642,22 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
-          <t>568</t>
+          <t>313</t>
         </is>
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
-          <t>103960</t>
+          <t>368318</t>
         </is>
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>103960</t>
+          <t>368318</t>
         </is>
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>103960</t>
+          <t>368318</t>
         </is>
       </c>
       <c r="G12" s="2" t="inlineStr">
@@ -1677,22 +1677,22 @@
       </c>
       <c r="J12" s="2" t="inlineStr">
         <is>
-          <t>580</t>
+          <t>493</t>
         </is>
       </c>
       <c r="K12" s="2" t="inlineStr">
         <is>
-          <t>110715</t>
+          <t>373385</t>
         </is>
       </c>
       <c r="L12" s="2" t="inlineStr">
         <is>
-          <t>110715</t>
+          <t>373385</t>
         </is>
       </c>
       <c r="M12" s="2" t="inlineStr">
         <is>
-          <t>110715</t>
+          <t>373385</t>
         </is>
       </c>
       <c r="N12" s="2" t="inlineStr">
@@ -1712,22 +1712,22 @@
       </c>
       <c r="Q12" s="2" t="inlineStr">
         <is>
-          <t>1148</t>
+          <t>806</t>
         </is>
       </c>
       <c r="R12" s="2" t="inlineStr">
         <is>
-          <t>214675</t>
+          <t>741703</t>
         </is>
       </c>
       <c r="S12" s="2" t="inlineStr">
         <is>
-          <t>214675</t>
+          <t>741703</t>
         </is>
       </c>
       <c r="T12" s="2" t="inlineStr">
         <is>
-          <t>214675</t>
+          <t>741703</t>
         </is>
       </c>
       <c r="U12" s="2" t="inlineStr">
@@ -1759,107 +1759,107 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>50</t>
+          <t>28</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>9129</t>
+          <t>29161</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>6907</t>
+          <t>19436</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>12221</t>
+          <t>40705</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>6,31%</t>
+          <t>6,88%</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>4,77%</t>
+          <t>4,58%</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>8,44%</t>
+          <t>9,6%</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>30</t>
+          <t>43</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>5187</t>
+          <t>27572</t>
         </is>
       </c>
       <c r="L13" s="2" t="inlineStr">
         <is>
-          <t>3397</t>
+          <t>20035</t>
         </is>
       </c>
       <c r="M13" s="2" t="inlineStr">
         <is>
-          <t>7270</t>
+          <t>36138</t>
         </is>
       </c>
       <c r="N13" s="2" t="inlineStr">
         <is>
-          <t>3,4%</t>
+          <t>6,25%</t>
         </is>
       </c>
       <c r="O13" s="2" t="inlineStr">
         <is>
-          <t>2,23%</t>
+          <t>4,54%</t>
         </is>
       </c>
       <c r="P13" s="2" t="inlineStr">
         <is>
-          <t>4,77%</t>
+          <t>8,19%</t>
         </is>
       </c>
       <c r="Q13" s="2" t="inlineStr">
         <is>
-          <t>80</t>
+          <t>71</t>
         </is>
       </c>
       <c r="R13" s="2" t="inlineStr">
         <is>
-          <t>14316</t>
+          <t>56733</t>
         </is>
       </c>
       <c r="S13" s="2" t="inlineStr">
         <is>
-          <t>11301</t>
+          <t>44063</t>
         </is>
       </c>
       <c r="T13" s="2" t="inlineStr">
         <is>
-          <t>17839</t>
+          <t>70582</t>
         </is>
       </c>
       <c r="U13" s="2" t="inlineStr">
         <is>
-          <t>4,82%</t>
+          <t>6,56%</t>
         </is>
       </c>
       <c r="V13" s="2" t="inlineStr">
         <is>
-          <t>3,8%</t>
+          <t>5,09%</t>
         </is>
       </c>
       <c r="W13" s="2" t="inlineStr">
         <is>
-          <t>6,0%</t>
+          <t>8,16%</t>
         </is>
       </c>
     </row>
@@ -1872,107 +1872,107 @@
       </c>
       <c r="C14" s="2" t="inlineStr">
         <is>
-          <t>753</t>
+          <t>362</t>
         </is>
       </c>
       <c r="D14" s="2" t="inlineStr">
         <is>
-          <t>135649</t>
+          <t>394780</t>
         </is>
       </c>
       <c r="E14" s="2" t="inlineStr">
         <is>
-          <t>132557</t>
+          <t>383236</t>
         </is>
       </c>
       <c r="F14" s="2" t="inlineStr">
         <is>
-          <t>137871</t>
+          <t>404505</t>
         </is>
       </c>
       <c r="G14" s="2" t="inlineStr">
         <is>
-          <t>93,69%</t>
+          <t>93,12%</t>
         </is>
       </c>
       <c r="H14" s="2" t="inlineStr">
         <is>
-          <t>91,56%</t>
+          <t>90,4%</t>
         </is>
       </c>
       <c r="I14" s="2" t="inlineStr">
         <is>
-          <t>95,23%</t>
+          <t>95,42%</t>
         </is>
       </c>
       <c r="J14" s="2" t="inlineStr">
         <is>
-          <t>782</t>
+          <t>617</t>
         </is>
       </c>
       <c r="K14" s="2" t="inlineStr">
         <is>
-          <t>147357</t>
+          <t>413720</t>
         </is>
       </c>
       <c r="L14" s="2" t="inlineStr">
         <is>
-          <t>145274</t>
+          <t>405154</t>
         </is>
       </c>
       <c r="M14" s="2" t="inlineStr">
         <is>
-          <t>149147</t>
+          <t>421257</t>
         </is>
       </c>
       <c r="N14" s="2" t="inlineStr">
         <is>
-          <t>96,6%</t>
+          <t>93,75%</t>
         </is>
       </c>
       <c r="O14" s="2" t="inlineStr">
         <is>
-          <t>95,23%</t>
+          <t>91,81%</t>
         </is>
       </c>
       <c r="P14" s="2" t="inlineStr">
         <is>
-          <t>97,77%</t>
+          <t>95,46%</t>
         </is>
       </c>
       <c r="Q14" s="2" t="inlineStr">
         <is>
-          <t>1535</t>
+          <t>979</t>
         </is>
       </c>
       <c r="R14" s="2" t="inlineStr">
         <is>
-          <t>283005</t>
+          <t>808501</t>
         </is>
       </c>
       <c r="S14" s="2" t="inlineStr">
         <is>
-          <t>279482</t>
+          <t>794652</t>
         </is>
       </c>
       <c r="T14" s="2" t="inlineStr">
         <is>
-          <t>286020</t>
+          <t>821171</t>
         </is>
       </c>
       <c r="U14" s="2" t="inlineStr">
         <is>
-          <t>95,18%</t>
+          <t>93,44%</t>
         </is>
       </c>
       <c r="V14" s="2" t="inlineStr">
         <is>
-          <t>94,0%</t>
+          <t>91,84%</t>
         </is>
       </c>
       <c r="W14" s="2" t="inlineStr">
         <is>
-          <t>96,2%</t>
+          <t>94,91%</t>
         </is>
       </c>
     </row>
@@ -1985,22 +1985,22 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>803</t>
+          <t>390</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>144778</t>
+          <t>423941</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>144778</t>
+          <t>423941</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>144778</t>
+          <t>423941</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
@@ -2020,22 +2020,22 @@
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>812</t>
+          <t>660</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>152544</t>
+          <t>441292</t>
         </is>
       </c>
       <c r="L15" s="2" t="inlineStr">
         <is>
-          <t>152544</t>
+          <t>441292</t>
         </is>
       </c>
       <c r="M15" s="2" t="inlineStr">
         <is>
-          <t>152544</t>
+          <t>441292</t>
         </is>
       </c>
       <c r="N15" s="2" t="inlineStr">
@@ -2055,22 +2055,22 @@
       </c>
       <c r="Q15" s="2" t="inlineStr">
         <is>
-          <t>1615</t>
+          <t>1050</t>
         </is>
       </c>
       <c r="R15" s="2" t="inlineStr">
         <is>
-          <t>297321</t>
+          <t>865234</t>
         </is>
       </c>
       <c r="S15" s="2" t="inlineStr">
         <is>
-          <t>297321</t>
+          <t>865234</t>
         </is>
       </c>
       <c r="T15" s="2" t="inlineStr">
         <is>
-          <t>297321</t>
+          <t>865234</t>
         </is>
       </c>
       <c r="U15" s="2" t="inlineStr">
@@ -2102,107 +2102,107 @@
       </c>
       <c r="C16" s="2" t="inlineStr">
         <is>
-          <t>137</t>
+          <t>74</t>
         </is>
       </c>
       <c r="D16" s="2" t="inlineStr">
         <is>
-          <t>23834</t>
+          <t>66268</t>
         </is>
       </c>
       <c r="E16" s="2" t="inlineStr">
         <is>
-          <t>19894</t>
+          <t>52875</t>
         </is>
       </c>
       <c r="F16" s="2" t="inlineStr">
         <is>
-          <t>27878</t>
+          <t>80987</t>
         </is>
       </c>
       <c r="G16" s="2" t="inlineStr">
         <is>
-          <t>18,39%</t>
+          <t>18,01%</t>
         </is>
       </c>
       <c r="H16" s="2" t="inlineStr">
         <is>
-          <t>15,35%</t>
+          <t>14,37%</t>
         </is>
       </c>
       <c r="I16" s="2" t="inlineStr">
         <is>
-          <t>21,51%</t>
+          <t>22,0%</t>
         </is>
       </c>
       <c r="J16" s="2" t="inlineStr">
         <is>
-          <t>102</t>
+          <t>123</t>
         </is>
       </c>
       <c r="K16" s="2" t="inlineStr">
         <is>
-          <t>18138</t>
+          <t>78207</t>
         </is>
       </c>
       <c r="L16" s="2" t="inlineStr">
         <is>
-          <t>14894</t>
+          <t>67192</t>
         </is>
       </c>
       <c r="M16" s="2" t="inlineStr">
         <is>
-          <t>21842</t>
+          <t>90902</t>
         </is>
       </c>
       <c r="N16" s="2" t="inlineStr">
         <is>
-          <t>11,94%</t>
+          <t>21,7%</t>
         </is>
       </c>
       <c r="O16" s="2" t="inlineStr">
         <is>
-          <t>9,8%</t>
+          <t>18,65%</t>
         </is>
       </c>
       <c r="P16" s="2" t="inlineStr">
         <is>
-          <t>14,38%</t>
+          <t>25,22%</t>
         </is>
       </c>
       <c r="Q16" s="2" t="inlineStr">
         <is>
-          <t>239</t>
+          <t>197</t>
         </is>
       </c>
       <c r="R16" s="2" t="inlineStr">
         <is>
-          <t>41972</t>
+          <t>144474</t>
         </is>
       </c>
       <c r="S16" s="2" t="inlineStr">
         <is>
-          <t>36708</t>
+          <t>125081</t>
         </is>
       </c>
       <c r="T16" s="2" t="inlineStr">
         <is>
-          <t>47430</t>
+          <t>161474</t>
         </is>
       </c>
       <c r="U16" s="2" t="inlineStr">
         <is>
-          <t>14,91%</t>
+          <t>19,83%</t>
         </is>
       </c>
       <c r="V16" s="2" t="inlineStr">
         <is>
-          <t>13,04%</t>
+          <t>17,17%</t>
         </is>
       </c>
       <c r="W16" s="2" t="inlineStr">
         <is>
-          <t>16,85%</t>
+          <t>22,17%</t>
         </is>
       </c>
     </row>
@@ -2215,107 +2215,107 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>596</t>
+          <t>324</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>105748</t>
+          <t>301775</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>101704</t>
+          <t>287056</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>109688</t>
+          <t>315168</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>81,61%</t>
+          <t>81,99%</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>78,49%</t>
+          <t>78,0%</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>84,65%</t>
+          <t>85,63%</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>757</t>
+          <t>443</t>
         </is>
       </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
-          <t>133777</t>
+          <t>282159</t>
         </is>
       </c>
       <c r="L17" s="2" t="inlineStr">
         <is>
-          <t>130073</t>
+          <t>269464</t>
         </is>
       </c>
       <c r="M17" s="2" t="inlineStr">
         <is>
-          <t>137021</t>
+          <t>293174</t>
         </is>
       </c>
       <c r="N17" s="2" t="inlineStr">
         <is>
-          <t>88,06%</t>
+          <t>78,3%</t>
         </is>
       </c>
       <c r="O17" s="2" t="inlineStr">
         <is>
-          <t>85,62%</t>
+          <t>74,78%</t>
         </is>
       </c>
       <c r="P17" s="2" t="inlineStr">
         <is>
-          <t>90,2%</t>
+          <t>81,35%</t>
         </is>
       </c>
       <c r="Q17" s="2" t="inlineStr">
         <is>
-          <t>1353</t>
+          <t>767</t>
         </is>
       </c>
       <c r="R17" s="2" t="inlineStr">
         <is>
-          <t>239526</t>
+          <t>583934</t>
         </is>
       </c>
       <c r="S17" s="2" t="inlineStr">
         <is>
-          <t>234068</t>
+          <t>566934</t>
         </is>
       </c>
       <c r="T17" s="2" t="inlineStr">
         <is>
-          <t>244790</t>
+          <t>603327</t>
         </is>
       </c>
       <c r="U17" s="2" t="inlineStr">
         <is>
-          <t>85,09%</t>
+          <t>80,17%</t>
         </is>
       </c>
       <c r="V17" s="2" t="inlineStr">
         <is>
-          <t>83,15%</t>
+          <t>77,83%</t>
         </is>
       </c>
       <c r="W17" s="2" t="inlineStr">
         <is>
-          <t>86,96%</t>
+          <t>82,83%</t>
         </is>
       </c>
     </row>
@@ -2328,22 +2328,22 @@
       </c>
       <c r="C18" s="2" t="inlineStr">
         <is>
-          <t>733</t>
+          <t>398</t>
         </is>
       </c>
       <c r="D18" s="2" t="inlineStr">
         <is>
-          <t>129582</t>
+          <t>368043</t>
         </is>
       </c>
       <c r="E18" s="2" t="inlineStr">
         <is>
-          <t>129582</t>
+          <t>368043</t>
         </is>
       </c>
       <c r="F18" s="2" t="inlineStr">
         <is>
-          <t>129582</t>
+          <t>368043</t>
         </is>
       </c>
       <c r="G18" s="2" t="inlineStr">
@@ -2363,22 +2363,22 @@
       </c>
       <c r="J18" s="2" t="inlineStr">
         <is>
-          <t>859</t>
+          <t>566</t>
         </is>
       </c>
       <c r="K18" s="2" t="inlineStr">
         <is>
-          <t>151915</t>
+          <t>360366</t>
         </is>
       </c>
       <c r="L18" s="2" t="inlineStr">
         <is>
-          <t>151915</t>
+          <t>360366</t>
         </is>
       </c>
       <c r="M18" s="2" t="inlineStr">
         <is>
-          <t>151915</t>
+          <t>360366</t>
         </is>
       </c>
       <c r="N18" s="2" t="inlineStr">
@@ -2398,22 +2398,22 @@
       </c>
       <c r="Q18" s="2" t="inlineStr">
         <is>
-          <t>1592</t>
+          <t>964</t>
         </is>
       </c>
       <c r="R18" s="2" t="inlineStr">
         <is>
-          <t>281498</t>
+          <t>728408</t>
         </is>
       </c>
       <c r="S18" s="2" t="inlineStr">
         <is>
-          <t>281498</t>
+          <t>728408</t>
         </is>
       </c>
       <c r="T18" s="2" t="inlineStr">
         <is>
-          <t>281498</t>
+          <t>728408</t>
         </is>
       </c>
       <c r="U18" s="2" t="inlineStr">
@@ -2445,107 +2445,107 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>220</t>
+          <t>82</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>36501</t>
+          <t>57568</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>32282</t>
+          <t>47243</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>40630</t>
+          <t>69127</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
         <is>
-          <t>34,94%</t>
+          <t>24,89%</t>
         </is>
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>30,9%</t>
+          <t>20,43%</t>
         </is>
       </c>
       <c r="I19" s="2" t="inlineStr">
         <is>
-          <t>38,89%</t>
+          <t>29,89%</t>
         </is>
       </c>
       <c r="J19" s="2" t="inlineStr">
         <is>
-          <t>196</t>
+          <t>151</t>
         </is>
       </c>
       <c r="K19" s="2" t="inlineStr">
         <is>
-          <t>33229</t>
+          <t>83664</t>
         </is>
       </c>
       <c r="L19" s="2" t="inlineStr">
         <is>
-          <t>29173</t>
+          <t>72542</t>
         </is>
       </c>
       <c r="M19" s="2" t="inlineStr">
         <is>
-          <t>37382</t>
+          <t>94824</t>
         </is>
       </c>
       <c r="N19" s="2" t="inlineStr">
         <is>
-          <t>28,7%</t>
+          <t>30,98%</t>
         </is>
       </c>
       <c r="O19" s="2" t="inlineStr">
         <is>
-          <t>25,2%</t>
+          <t>26,86%</t>
         </is>
       </c>
       <c r="P19" s="2" t="inlineStr">
         <is>
-          <t>32,29%</t>
+          <t>35,12%</t>
         </is>
       </c>
       <c r="Q19" s="2" t="inlineStr">
         <is>
-          <t>416</t>
+          <t>233</t>
         </is>
       </c>
       <c r="R19" s="2" t="inlineStr">
         <is>
-          <t>69729</t>
+          <t>141232</t>
         </is>
       </c>
       <c r="S19" s="2" t="inlineStr">
         <is>
-          <t>64140</t>
+          <t>125056</t>
         </is>
       </c>
       <c r="T19" s="2" t="inlineStr">
         <is>
-          <t>76086</t>
+          <t>157825</t>
         </is>
       </c>
       <c r="U19" s="2" t="inlineStr">
         <is>
-          <t>31,66%</t>
+          <t>28,17%</t>
         </is>
       </c>
       <c r="V19" s="2" t="inlineStr">
         <is>
-          <t>29,12%</t>
+          <t>24,95%</t>
         </is>
       </c>
       <c r="W19" s="2" t="inlineStr">
         <is>
-          <t>34,55%</t>
+          <t>31,48%</t>
         </is>
       </c>
     </row>
@@ -2558,107 +2558,107 @@
       </c>
       <c r="C20" s="2" t="inlineStr">
         <is>
-          <t>426</t>
+          <t>235</t>
         </is>
       </c>
       <c r="D20" s="2" t="inlineStr">
         <is>
-          <t>67965</t>
+          <t>173705</t>
         </is>
       </c>
       <c r="E20" s="2" t="inlineStr">
         <is>
-          <t>63836</t>
+          <t>162146</t>
         </is>
       </c>
       <c r="F20" s="2" t="inlineStr">
         <is>
-          <t>72184</t>
+          <t>184030</t>
         </is>
       </c>
       <c r="G20" s="2" t="inlineStr">
         <is>
-          <t>65,06%</t>
+          <t>75,11%</t>
         </is>
       </c>
       <c r="H20" s="2" t="inlineStr">
         <is>
-          <t>61,11%</t>
+          <t>70,11%</t>
         </is>
       </c>
       <c r="I20" s="2" t="inlineStr">
         <is>
-          <t>69,1%</t>
+          <t>79,57%</t>
         </is>
       </c>
       <c r="J20" s="2" t="inlineStr">
         <is>
-          <t>507</t>
+          <t>331</t>
         </is>
       </c>
       <c r="K20" s="2" t="inlineStr">
         <is>
-          <t>82551</t>
+          <t>186368</t>
         </is>
       </c>
       <c r="L20" s="2" t="inlineStr">
         <is>
-          <t>78398</t>
+          <t>175208</t>
         </is>
       </c>
       <c r="M20" s="2" t="inlineStr">
         <is>
-          <t>86607</t>
+          <t>197490</t>
         </is>
       </c>
       <c r="N20" s="2" t="inlineStr">
         <is>
-          <t>71,3%</t>
+          <t>69,02%</t>
         </is>
       </c>
       <c r="O20" s="2" t="inlineStr">
         <is>
-          <t>67,71%</t>
+          <t>64,88%</t>
         </is>
       </c>
       <c r="P20" s="2" t="inlineStr">
         <is>
-          <t>74,8%</t>
+          <t>73,14%</t>
         </is>
       </c>
       <c r="Q20" s="2" t="inlineStr">
         <is>
-          <t>933</t>
+          <t>566</t>
         </is>
       </c>
       <c r="R20" s="2" t="inlineStr">
         <is>
-          <t>150517</t>
+          <t>360072</t>
         </is>
       </c>
       <c r="S20" s="2" t="inlineStr">
         <is>
-          <t>144160</t>
+          <t>343479</t>
         </is>
       </c>
       <c r="T20" s="2" t="inlineStr">
         <is>
-          <t>156106</t>
+          <t>376248</t>
         </is>
       </c>
       <c r="U20" s="2" t="inlineStr">
         <is>
-          <t>68,34%</t>
+          <t>71,83%</t>
         </is>
       </c>
       <c r="V20" s="2" t="inlineStr">
         <is>
-          <t>65,45%</t>
+          <t>68,52%</t>
         </is>
       </c>
       <c r="W20" s="2" t="inlineStr">
         <is>
-          <t>70,88%</t>
+          <t>75,05%</t>
         </is>
       </c>
     </row>
@@ -2671,22 +2671,22 @@
       </c>
       <c r="C21" s="2" t="inlineStr">
         <is>
-          <t>646</t>
+          <t>317</t>
         </is>
       </c>
       <c r="D21" s="2" t="inlineStr">
         <is>
-          <t>104466</t>
+          <t>231273</t>
         </is>
       </c>
       <c r="E21" s="2" t="inlineStr">
         <is>
-          <t>104466</t>
+          <t>231273</t>
         </is>
       </c>
       <c r="F21" s="2" t="inlineStr">
         <is>
-          <t>104466</t>
+          <t>231273</t>
         </is>
       </c>
       <c r="G21" s="2" t="inlineStr">
@@ -2706,22 +2706,22 @@
       </c>
       <c r="J21" s="2" t="inlineStr">
         <is>
-          <t>703</t>
+          <t>482</t>
         </is>
       </c>
       <c r="K21" s="2" t="inlineStr">
         <is>
-          <t>115780</t>
+          <t>270032</t>
         </is>
       </c>
       <c r="L21" s="2" t="inlineStr">
         <is>
-          <t>115780</t>
+          <t>270032</t>
         </is>
       </c>
       <c r="M21" s="2" t="inlineStr">
         <is>
-          <t>115780</t>
+          <t>270032</t>
         </is>
       </c>
       <c r="N21" s="2" t="inlineStr">
@@ -2741,22 +2741,22 @@
       </c>
       <c r="Q21" s="2" t="inlineStr">
         <is>
-          <t>1349</t>
+          <t>799</t>
         </is>
       </c>
       <c r="R21" s="2" t="inlineStr">
         <is>
-          <t>220246</t>
+          <t>501304</t>
         </is>
       </c>
       <c r="S21" s="2" t="inlineStr">
         <is>
-          <t>220246</t>
+          <t>501304</t>
         </is>
       </c>
       <c r="T21" s="2" t="inlineStr">
         <is>
-          <t>220246</t>
+          <t>501304</t>
         </is>
       </c>
       <c r="U21" s="2" t="inlineStr">
@@ -2788,107 +2788,107 @@
       </c>
       <c r="C22" s="2" t="inlineStr">
         <is>
-          <t>216</t>
+          <t>90</t>
         </is>
       </c>
       <c r="D22" s="2" t="inlineStr">
         <is>
-          <t>34240</t>
+          <t>62513</t>
         </is>
       </c>
       <c r="E22" s="2" t="inlineStr">
         <is>
-          <t>30356</t>
+          <t>52870</t>
         </is>
       </c>
       <c r="F22" s="2" t="inlineStr">
         <is>
-          <t>38422</t>
+          <t>73124</t>
         </is>
       </c>
       <c r="G22" s="2" t="inlineStr">
         <is>
-          <t>38,38%</t>
+          <t>37,75%</t>
         </is>
       </c>
       <c r="H22" s="2" t="inlineStr">
         <is>
-          <t>34,02%</t>
+          <t>31,93%</t>
         </is>
       </c>
       <c r="I22" s="2" t="inlineStr">
         <is>
-          <t>43,06%</t>
+          <t>44,16%</t>
         </is>
       </c>
       <c r="J22" s="2" t="inlineStr">
         <is>
-          <t>248</t>
+          <t>167</t>
         </is>
       </c>
       <c r="K22" s="2" t="inlineStr">
         <is>
-          <t>39884</t>
+          <t>95898</t>
         </is>
       </c>
       <c r="L22" s="2" t="inlineStr">
         <is>
-          <t>35584</t>
+          <t>83897</t>
         </is>
       </c>
       <c r="M22" s="2" t="inlineStr">
         <is>
-          <t>44421</t>
+          <t>108178</t>
         </is>
       </c>
       <c r="N22" s="2" t="inlineStr">
         <is>
-          <t>30,14%</t>
+          <t>37,37%</t>
         </is>
       </c>
       <c r="O22" s="2" t="inlineStr">
         <is>
-          <t>26,89%</t>
+          <t>32,69%</t>
         </is>
       </c>
       <c r="P22" s="2" t="inlineStr">
         <is>
-          <t>33,57%</t>
+          <t>42,16%</t>
         </is>
       </c>
       <c r="Q22" s="2" t="inlineStr">
         <is>
-          <t>464</t>
+          <t>257</t>
         </is>
       </c>
       <c r="R22" s="2" t="inlineStr">
         <is>
-          <t>74124</t>
+          <t>158412</t>
         </is>
       </c>
       <c r="S22" s="2" t="inlineStr">
         <is>
-          <t>67474</t>
+          <t>142901</t>
         </is>
       </c>
       <c r="T22" s="2" t="inlineStr">
         <is>
-          <t>80380</t>
+          <t>174424</t>
         </is>
       </c>
       <c r="U22" s="2" t="inlineStr">
         <is>
-          <t>33,46%</t>
+          <t>37,52%</t>
         </is>
       </c>
       <c r="V22" s="2" t="inlineStr">
         <is>
-          <t>30,46%</t>
+          <t>33,85%</t>
         </is>
       </c>
       <c r="W22" s="2" t="inlineStr">
         <is>
-          <t>36,28%</t>
+          <t>41,31%</t>
         </is>
       </c>
     </row>
@@ -2901,107 +2901,107 @@
       </c>
       <c r="C23" s="2" t="inlineStr">
         <is>
-          <t>339</t>
+          <t>141</t>
         </is>
       </c>
       <c r="D23" s="2" t="inlineStr">
         <is>
-          <t>54983</t>
+          <t>103068</t>
         </is>
       </c>
       <c r="E23" s="2" t="inlineStr">
         <is>
-          <t>50801</t>
+          <t>92457</t>
         </is>
       </c>
       <c r="F23" s="2" t="inlineStr">
         <is>
-          <t>58867</t>
+          <t>112711</t>
         </is>
       </c>
       <c r="G23" s="2" t="inlineStr">
         <is>
-          <t>61,62%</t>
+          <t>62,25%</t>
         </is>
       </c>
       <c r="H23" s="2" t="inlineStr">
         <is>
-          <t>56,94%</t>
+          <t>55,84%</t>
         </is>
       </c>
       <c r="I23" s="2" t="inlineStr">
         <is>
-          <t>65,98%</t>
+          <t>68,07%</t>
         </is>
       </c>
       <c r="J23" s="2" t="inlineStr">
         <is>
-          <t>558</t>
+          <t>274</t>
         </is>
       </c>
       <c r="K23" s="2" t="inlineStr">
         <is>
-          <t>92428</t>
+          <t>160709</t>
         </is>
       </c>
       <c r="L23" s="2" t="inlineStr">
         <is>
-          <t>87891</t>
+          <t>148429</t>
         </is>
       </c>
       <c r="M23" s="2" t="inlineStr">
         <is>
-          <t>96728</t>
+          <t>172710</t>
         </is>
       </c>
       <c r="N23" s="2" t="inlineStr">
         <is>
-          <t>69,86%</t>
+          <t>62,63%</t>
         </is>
       </c>
       <c r="O23" s="2" t="inlineStr">
         <is>
-          <t>66,43%</t>
+          <t>57,84%</t>
         </is>
       </c>
       <c r="P23" s="2" t="inlineStr">
         <is>
-          <t>73,11%</t>
+          <t>67,31%</t>
         </is>
       </c>
       <c r="Q23" s="2" t="inlineStr">
         <is>
-          <t>897</t>
+          <t>415</t>
         </is>
       </c>
       <c r="R23" s="2" t="inlineStr">
         <is>
-          <t>147411</t>
+          <t>263776</t>
         </is>
       </c>
       <c r="S23" s="2" t="inlineStr">
         <is>
-          <t>141155</t>
+          <t>247764</t>
         </is>
       </c>
       <c r="T23" s="2" t="inlineStr">
         <is>
-          <t>154061</t>
+          <t>279287</t>
         </is>
       </c>
       <c r="U23" s="2" t="inlineStr">
         <is>
-          <t>66,54%</t>
+          <t>62,48%</t>
         </is>
       </c>
       <c r="V23" s="2" t="inlineStr">
         <is>
-          <t>63,72%</t>
+          <t>58,69%</t>
         </is>
       </c>
       <c r="W23" s="2" t="inlineStr">
         <is>
-          <t>69,54%</t>
+          <t>66,15%</t>
         </is>
       </c>
     </row>
@@ -3014,22 +3014,22 @@
       </c>
       <c r="C24" s="2" t="inlineStr">
         <is>
-          <t>555</t>
+          <t>231</t>
         </is>
       </c>
       <c r="D24" s="2" t="inlineStr">
         <is>
-          <t>89223</t>
+          <t>165581</t>
         </is>
       </c>
       <c r="E24" s="2" t="inlineStr">
         <is>
-          <t>89223</t>
+          <t>165581</t>
         </is>
       </c>
       <c r="F24" s="2" t="inlineStr">
         <is>
-          <t>89223</t>
+          <t>165581</t>
         </is>
       </c>
       <c r="G24" s="2" t="inlineStr">
@@ -3049,22 +3049,22 @@
       </c>
       <c r="J24" s="2" t="inlineStr">
         <is>
-          <t>806</t>
+          <t>441</t>
         </is>
       </c>
       <c r="K24" s="2" t="inlineStr">
         <is>
-          <t>132312</t>
+          <t>256607</t>
         </is>
       </c>
       <c r="L24" s="2" t="inlineStr">
         <is>
-          <t>132312</t>
+          <t>256607</t>
         </is>
       </c>
       <c r="M24" s="2" t="inlineStr">
         <is>
-          <t>132312</t>
+          <t>256607</t>
         </is>
       </c>
       <c r="N24" s="2" t="inlineStr">
@@ -3084,22 +3084,22 @@
       </c>
       <c r="Q24" s="2" t="inlineStr">
         <is>
-          <t>1361</t>
+          <t>672</t>
         </is>
       </c>
       <c r="R24" s="2" t="inlineStr">
         <is>
-          <t>221535</t>
+          <t>422188</t>
         </is>
       </c>
       <c r="S24" s="2" t="inlineStr">
         <is>
-          <t>221535</t>
+          <t>422188</t>
         </is>
       </c>
       <c r="T24" s="2" t="inlineStr">
         <is>
-          <t>221535</t>
+          <t>422188</t>
         </is>
       </c>
       <c r="U24" s="2" t="inlineStr">
@@ -3131,107 +3131,107 @@
       </c>
       <c r="C25" s="2" t="inlineStr">
         <is>
-          <t>642</t>
+          <t>282</t>
         </is>
       </c>
       <c r="D25" s="2" t="inlineStr">
         <is>
-          <t>107381</t>
+          <t>224904</t>
         </is>
       </c>
       <c r="E25" s="2" t="inlineStr">
         <is>
-          <t>100066</t>
+          <t>197258</t>
         </is>
       </c>
       <c r="F25" s="2" t="inlineStr">
         <is>
-          <t>115764</t>
+          <t>250631</t>
         </is>
       </c>
       <c r="G25" s="2" t="inlineStr">
         <is>
-          <t>14,83%</t>
+          <t>10,92%</t>
         </is>
       </c>
       <c r="H25" s="2" t="inlineStr">
         <is>
-          <t>13,82%</t>
+          <t>9,57%</t>
         </is>
       </c>
       <c r="I25" s="2" t="inlineStr">
         <is>
-          <t>15,99%</t>
+          <t>12,16%</t>
         </is>
       </c>
       <c r="J25" s="2" t="inlineStr">
         <is>
-          <t>579</t>
+          <t>496</t>
         </is>
       </c>
       <c r="K25" s="2" t="inlineStr">
         <is>
-          <t>97112</t>
+          <t>296270</t>
         </is>
       </c>
       <c r="L25" s="2" t="inlineStr">
         <is>
-          <t>89726</t>
+          <t>274373</t>
         </is>
       </c>
       <c r="M25" s="2" t="inlineStr">
         <is>
-          <t>105385</t>
+          <t>321651</t>
         </is>
       </c>
       <c r="N25" s="2" t="inlineStr">
         <is>
-          <t>12,18%</t>
+          <t>13,44%</t>
         </is>
       </c>
       <c r="O25" s="2" t="inlineStr">
         <is>
-          <t>11,25%</t>
+          <t>12,44%</t>
         </is>
       </c>
       <c r="P25" s="2" t="inlineStr">
         <is>
-          <t>13,21%</t>
+          <t>14,59%</t>
         </is>
       </c>
       <c r="Q25" s="2" t="inlineStr">
         <is>
-          <t>1221</t>
+          <t>778</t>
         </is>
       </c>
       <c r="R25" s="2" t="inlineStr">
         <is>
-          <t>204494</t>
+          <t>521174</t>
         </is>
       </c>
       <c r="S25" s="2" t="inlineStr">
         <is>
-          <t>193928</t>
+          <t>481171</t>
         </is>
       </c>
       <c r="T25" s="2" t="inlineStr">
         <is>
-          <t>216346</t>
+          <t>557247</t>
         </is>
       </c>
       <c r="U25" s="2" t="inlineStr">
         <is>
-          <t>13,44%</t>
+          <t>12,22%</t>
         </is>
       </c>
       <c r="V25" s="2" t="inlineStr">
         <is>
-          <t>12,75%</t>
+          <t>11,28%</t>
         </is>
       </c>
       <c r="W25" s="2" t="inlineStr">
         <is>
-          <t>14,22%</t>
+          <t>13,07%</t>
         </is>
       </c>
     </row>
@@ -3244,107 +3244,107 @@
       </c>
       <c r="C26" s="2" t="inlineStr">
         <is>
-          <t>3436</t>
+          <t>1614</t>
         </is>
       </c>
       <c r="D26" s="2" t="inlineStr">
         <is>
-          <t>616491</t>
+          <t>1835491</t>
         </is>
       </c>
       <c r="E26" s="2" t="inlineStr">
         <is>
-          <t>608108</t>
+          <t>1809764</t>
         </is>
       </c>
       <c r="F26" s="2" t="inlineStr">
         <is>
-          <t>623806</t>
+          <t>1863137</t>
         </is>
       </c>
       <c r="G26" s="2" t="inlineStr">
         <is>
-          <t>85,17%</t>
+          <t>89,08%</t>
         </is>
       </c>
       <c r="H26" s="2" t="inlineStr">
         <is>
-          <t>84,01%</t>
+          <t>87,84%</t>
         </is>
       </c>
       <c r="I26" s="2" t="inlineStr">
         <is>
-          <t>86,18%</t>
+          <t>90,43%</t>
         </is>
       </c>
       <c r="J26" s="2" t="inlineStr">
         <is>
-          <t>3896</t>
+          <t>2513</t>
         </is>
       </c>
       <c r="K26" s="2" t="inlineStr">
         <is>
-          <t>700444</t>
+          <t>1908520</t>
         </is>
       </c>
       <c r="L26" s="2" t="inlineStr">
         <is>
-          <t>692171</t>
+          <t>1883139</t>
         </is>
       </c>
       <c r="M26" s="2" t="inlineStr">
         <is>
-          <t>707830</t>
+          <t>1930417</t>
         </is>
       </c>
       <c r="N26" s="2" t="inlineStr">
         <is>
-          <t>87,82%</t>
+          <t>86,56%</t>
         </is>
       </c>
       <c r="O26" s="2" t="inlineStr">
         <is>
-          <t>86,79%</t>
+          <t>85,41%</t>
         </is>
       </c>
       <c r="P26" s="2" t="inlineStr">
         <is>
-          <t>88,75%</t>
+          <t>87,56%</t>
         </is>
       </c>
       <c r="Q26" s="2" t="inlineStr">
         <is>
-          <t>7332</t>
+          <t>4127</t>
         </is>
       </c>
       <c r="R26" s="2" t="inlineStr">
         <is>
-          <t>1316935</t>
+          <t>3744011</t>
         </is>
       </c>
       <c r="S26" s="2" t="inlineStr">
         <is>
-          <t>1305083</t>
+          <t>3707938</t>
         </is>
       </c>
       <c r="T26" s="2" t="inlineStr">
         <is>
-          <t>1327501</t>
+          <t>3784014</t>
         </is>
       </c>
       <c r="U26" s="2" t="inlineStr">
         <is>
-          <t>86,56%</t>
+          <t>87,78%</t>
         </is>
       </c>
       <c r="V26" s="2" t="inlineStr">
         <is>
-          <t>85,78%</t>
+          <t>86,93%</t>
         </is>
       </c>
       <c r="W26" s="2" t="inlineStr">
         <is>
-          <t>87,25%</t>
+          <t>88,72%</t>
         </is>
       </c>
     </row>
@@ -3357,22 +3357,22 @@
       </c>
       <c r="C27" s="2" t="inlineStr">
         <is>
-          <t>4078</t>
+          <t>1896</t>
         </is>
       </c>
       <c r="D27" s="2" t="inlineStr">
         <is>
-          <t>723872</t>
+          <t>2060395</t>
         </is>
       </c>
       <c r="E27" s="2" t="inlineStr">
         <is>
-          <t>723872</t>
+          <t>2060395</t>
         </is>
       </c>
       <c r="F27" s="2" t="inlineStr">
         <is>
-          <t>723872</t>
+          <t>2060395</t>
         </is>
       </c>
       <c r="G27" s="2" t="inlineStr">
@@ -3392,22 +3392,22 @@
       </c>
       <c r="J27" s="2" t="inlineStr">
         <is>
-          <t>4475</t>
+          <t>3009</t>
         </is>
       </c>
       <c r="K27" s="2" t="inlineStr">
         <is>
-          <t>797556</t>
+          <t>2204790</t>
         </is>
       </c>
       <c r="L27" s="2" t="inlineStr">
         <is>
-          <t>797556</t>
+          <t>2204790</t>
         </is>
       </c>
       <c r="M27" s="2" t="inlineStr">
         <is>
-          <t>797556</t>
+          <t>2204790</t>
         </is>
       </c>
       <c r="N27" s="2" t="inlineStr">
@@ -3427,22 +3427,22 @@
       </c>
       <c r="Q27" s="2" t="inlineStr">
         <is>
-          <t>8553</t>
+          <t>4905</t>
         </is>
       </c>
       <c r="R27" s="2" t="inlineStr">
         <is>
-          <t>1521429</t>
+          <t>4265185</t>
         </is>
       </c>
       <c r="S27" s="2" t="inlineStr">
         <is>
-          <t>1521429</t>
+          <t>4265185</t>
         </is>
       </c>
       <c r="T27" s="2" t="inlineStr">
         <is>
-          <t>1521429</t>
+          <t>4265185</t>
         </is>
       </c>
       <c r="U27" s="2" t="inlineStr">
@@ -3532,7 +3532,7 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Consumo de medicamentos para el colesterol en Andalucia (tasa de respuesta: 99,9%)</t>
+          <t>Consumo de medicamentos para el colesterol en C.Valenciana (tasa de respuesta: 99,74%)</t>
         </is>
       </c>
       <c r="B1" s="2" t="n"/>
@@ -3757,7 +3757,7 @@
       </c>
       <c r="K4" s="2" t="inlineStr">
         <is>
-          <t>1621</t>
+          <t>1595</t>
         </is>
       </c>
       <c r="L4" s="2" t="inlineStr">
@@ -3767,12 +3767,12 @@
       </c>
       <c r="M4" s="2" t="inlineStr">
         <is>
-          <t>7411</t>
+          <t>9390</t>
         </is>
       </c>
       <c r="N4" s="2" t="inlineStr">
         <is>
-          <t>0,88%</t>
+          <t>0,94%</t>
         </is>
       </c>
       <c r="O4" s="2" t="inlineStr">
@@ -3782,7 +3782,7 @@
       </c>
       <c r="P4" s="2" t="inlineStr">
         <is>
-          <t>4,02%</t>
+          <t>5,51%</t>
         </is>
       </c>
       <c r="Q4" s="2" t="inlineStr">
@@ -3792,7 +3792,7 @@
       </c>
       <c r="R4" s="2" t="inlineStr">
         <is>
-          <t>1621</t>
+          <t>1595</t>
         </is>
       </c>
       <c r="S4" s="2" t="inlineStr">
@@ -3802,12 +3802,12 @@
       </c>
       <c r="T4" s="2" t="inlineStr">
         <is>
-          <t>7981</t>
+          <t>7957</t>
         </is>
       </c>
       <c r="U4" s="2" t="inlineStr">
         <is>
-          <t>0,39%</t>
+          <t>0,47%</t>
         </is>
       </c>
       <c r="V4" s="2" t="inlineStr">
@@ -3817,7 +3817,7 @@
       </c>
       <c r="W4" s="2" t="inlineStr">
         <is>
-          <t>1,9%</t>
+          <t>2,34%</t>
         </is>
       </c>
     </row>
@@ -3830,12 +3830,12 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>94</t>
+          <t>272</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>236236</t>
+          <t>170171</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
@@ -3865,32 +3865,32 @@
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>117</t>
+          <t>269</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>182732</t>
+          <t>168847</t>
         </is>
       </c>
       <c r="L5" s="2" t="inlineStr">
         <is>
-          <t>176942</t>
+          <t>161052</t>
         </is>
       </c>
       <c r="M5" s="2" t="inlineStr">
         <is>
-          <t>184353</t>
+          <t>170442</t>
         </is>
       </c>
       <c r="N5" s="2" t="inlineStr">
         <is>
-          <t>99,12%</t>
+          <t>99,06%</t>
         </is>
       </c>
       <c r="O5" s="2" t="inlineStr">
         <is>
-          <t>95,98%</t>
+          <t>94,49%</t>
         </is>
       </c>
       <c r="P5" s="2" t="inlineStr">
@@ -3900,32 +3900,32 @@
       </c>
       <c r="Q5" s="2" t="inlineStr">
         <is>
-          <t>211</t>
+          <t>541</t>
         </is>
       </c>
       <c r="R5" s="2" t="inlineStr">
         <is>
-          <t>418968</t>
+          <t>339018</t>
         </is>
       </c>
       <c r="S5" s="2" t="inlineStr">
         <is>
-          <t>412608</t>
+          <t>332656</t>
         </is>
       </c>
       <c r="T5" s="2" t="inlineStr">
         <is>
-          <t>420589</t>
+          <t>340613</t>
         </is>
       </c>
       <c r="U5" s="2" t="inlineStr">
         <is>
-          <t>99,61%</t>
+          <t>99,53%</t>
         </is>
       </c>
       <c r="V5" s="2" t="inlineStr">
         <is>
-          <t>98,1%</t>
+          <t>97,66%</t>
         </is>
       </c>
       <c r="W5" s="2" t="inlineStr">
@@ -3943,22 +3943,22 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>94</t>
+          <t>272</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>236236</t>
+          <t>170171</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>236236</t>
+          <t>170171</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>236236</t>
+          <t>170171</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
@@ -3978,22 +3978,22 @@
       </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>118</t>
+          <t>270</t>
         </is>
       </c>
       <c r="K6" s="2" t="inlineStr">
         <is>
-          <t>184353</t>
+          <t>170442</t>
         </is>
       </c>
       <c r="L6" s="2" t="inlineStr">
         <is>
-          <t>184353</t>
+          <t>170442</t>
         </is>
       </c>
       <c r="M6" s="2" t="inlineStr">
         <is>
-          <t>184353</t>
+          <t>170442</t>
         </is>
       </c>
       <c r="N6" s="2" t="inlineStr">
@@ -4013,22 +4013,22 @@
       </c>
       <c r="Q6" s="2" t="inlineStr">
         <is>
-          <t>212</t>
+          <t>542</t>
         </is>
       </c>
       <c r="R6" s="2" t="inlineStr">
         <is>
-          <t>420589</t>
+          <t>340613</t>
         </is>
       </c>
       <c r="S6" s="2" t="inlineStr">
         <is>
-          <t>420589</t>
+          <t>340613</t>
         </is>
       </c>
       <c r="T6" s="2" t="inlineStr">
         <is>
-          <t>420589</t>
+          <t>340613</t>
         </is>
       </c>
       <c r="U6" s="2" t="inlineStr">
@@ -4060,37 +4060,37 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>5</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>3322</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>—</t>
+          <t>1132</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>—</t>
+          <t>7560</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>1,82%</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>0,62%</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>4,15%</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
@@ -4100,67 +4100,67 @@
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>3104</t>
+          <t>2057</t>
         </is>
       </c>
       <c r="L7" s="2" t="inlineStr">
         <is>
-          <t>759</t>
+          <t>442</t>
         </is>
       </c>
       <c r="M7" s="2" t="inlineStr">
         <is>
-          <t>9107</t>
+          <t>5820</t>
         </is>
       </c>
       <c r="N7" s="2" t="inlineStr">
         <is>
-          <t>0,99%</t>
+          <t>0,97%</t>
         </is>
       </c>
       <c r="O7" s="2" t="inlineStr">
         <is>
-          <t>0,24%</t>
+          <t>0,21%</t>
         </is>
       </c>
       <c r="P7" s="2" t="inlineStr">
         <is>
-          <t>2,9%</t>
+          <t>2,75%</t>
         </is>
       </c>
       <c r="Q7" s="2" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>8</t>
         </is>
       </c>
       <c r="R7" s="2" t="inlineStr">
         <is>
-          <t>3104</t>
+          <t>5379</t>
         </is>
       </c>
       <c r="S7" s="2" t="inlineStr">
         <is>
-          <t>827</t>
+          <t>2279</t>
         </is>
       </c>
       <c r="T7" s="2" t="inlineStr">
         <is>
-          <t>8498</t>
+          <t>10488</t>
         </is>
       </c>
       <c r="U7" s="2" t="inlineStr">
         <is>
-          <t>0,57%</t>
+          <t>1,37%</t>
         </is>
       </c>
       <c r="V7" s="2" t="inlineStr">
         <is>
-          <t>0,15%</t>
+          <t>0,58%</t>
         </is>
       </c>
       <c r="W7" s="2" t="inlineStr">
         <is>
-          <t>1,56%</t>
+          <t>2,66%</t>
         </is>
       </c>
     </row>
@@ -4173,107 +4173,107 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>153</t>
+          <t>284</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>229368</t>
+          <t>178891</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>—</t>
+          <t>174653</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>—</t>
+          <t>181081</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>100,0%</t>
+          <t>98,18%</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>95,85%</t>
         </is>
       </c>
       <c r="I8" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>99,38%</t>
         </is>
       </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
-          <t>246</t>
+          <t>312</t>
         </is>
       </c>
       <c r="K8" s="2" t="inlineStr">
         <is>
-          <t>311324</t>
+          <t>209421</t>
         </is>
       </c>
       <c r="L8" s="2" t="inlineStr">
         <is>
-          <t>305321</t>
+          <t>205658</t>
         </is>
       </c>
       <c r="M8" s="2" t="inlineStr">
         <is>
-          <t>313669</t>
+          <t>211036</t>
         </is>
       </c>
       <c r="N8" s="2" t="inlineStr">
         <is>
-          <t>99,01%</t>
+          <t>99,03%</t>
         </is>
       </c>
       <c r="O8" s="2" t="inlineStr">
         <is>
-          <t>97,1%</t>
+          <t>97,25%</t>
         </is>
       </c>
       <c r="P8" s="2" t="inlineStr">
         <is>
-          <t>99,76%</t>
+          <t>99,79%</t>
         </is>
       </c>
       <c r="Q8" s="2" t="inlineStr">
         <is>
-          <t>399</t>
+          <t>596</t>
         </is>
       </c>
       <c r="R8" s="2" t="inlineStr">
         <is>
-          <t>540692</t>
+          <t>388311</t>
         </is>
       </c>
       <c r="S8" s="2" t="inlineStr">
         <is>
-          <t>535298</t>
+          <t>383202</t>
         </is>
       </c>
       <c r="T8" s="2" t="inlineStr">
         <is>
-          <t>542969</t>
+          <t>391411</t>
         </is>
       </c>
       <c r="U8" s="2" t="inlineStr">
         <is>
-          <t>99,43%</t>
+          <t>98,63%</t>
         </is>
       </c>
       <c r="V8" s="2" t="inlineStr">
         <is>
-          <t>98,44%</t>
+          <t>97,34%</t>
         </is>
       </c>
       <c r="W8" s="2" t="inlineStr">
         <is>
-          <t>99,85%</t>
+          <t>99,42%</t>
         </is>
       </c>
     </row>
@@ -4286,22 +4286,22 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>153</t>
+          <t>289</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>229368</t>
+          <t>182213</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>229368</t>
+          <t>182213</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>229368</t>
+          <t>182213</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
@@ -4321,22 +4321,22 @@
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>249</t>
+          <t>315</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>314428</t>
+          <t>211478</t>
         </is>
       </c>
       <c r="L9" s="2" t="inlineStr">
         <is>
-          <t>314428</t>
+          <t>211478</t>
         </is>
       </c>
       <c r="M9" s="2" t="inlineStr">
         <is>
-          <t>314428</t>
+          <t>211478</t>
         </is>
       </c>
       <c r="N9" s="2" t="inlineStr">
@@ -4356,22 +4356,22 @@
       </c>
       <c r="Q9" s="2" t="inlineStr">
         <is>
-          <t>402</t>
+          <t>604</t>
         </is>
       </c>
       <c r="R9" s="2" t="inlineStr">
         <is>
-          <t>543796</t>
+          <t>393690</t>
         </is>
       </c>
       <c r="S9" s="2" t="inlineStr">
         <is>
-          <t>543796</t>
+          <t>393690</t>
         </is>
       </c>
       <c r="T9" s="2" t="inlineStr">
         <is>
-          <t>543796</t>
+          <t>393690</t>
         </is>
       </c>
       <c r="U9" s="2" t="inlineStr">
@@ -4403,107 +4403,107 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>8</t>
+          <t>15</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>5920</t>
+          <t>9426</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>2199</t>
+          <t>5472</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>12368</t>
+          <t>16385</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>1,91%</t>
+          <t>3,8%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>0,71%</t>
+          <t>2,2%</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
         <is>
-          <t>3,98%</t>
+          <t>6,6%</t>
         </is>
       </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>8</t>
+          <t>6</t>
         </is>
       </c>
       <c r="K10" s="2" t="inlineStr">
         <is>
-          <t>3020</t>
+          <t>4553</t>
         </is>
       </c>
       <c r="L10" s="2" t="inlineStr">
         <is>
-          <t>1215</t>
+          <t>1747</t>
         </is>
       </c>
       <c r="M10" s="2" t="inlineStr">
         <is>
-          <t>7624</t>
+          <t>10184</t>
         </is>
       </c>
       <c r="N10" s="2" t="inlineStr">
         <is>
-          <t>0,94%</t>
+          <t>1,83%</t>
         </is>
       </c>
       <c r="O10" s="2" t="inlineStr">
         <is>
-          <t>0,38%</t>
+          <t>0,7%</t>
         </is>
       </c>
       <c r="P10" s="2" t="inlineStr">
         <is>
-          <t>2,36%</t>
+          <t>4,1%</t>
         </is>
       </c>
       <c r="Q10" s="2" t="inlineStr">
         <is>
-          <t>16</t>
+          <t>21</t>
         </is>
       </c>
       <c r="R10" s="2" t="inlineStr">
         <is>
-          <t>8941</t>
+          <t>13979</t>
         </is>
       </c>
       <c r="S10" s="2" t="inlineStr">
         <is>
-          <t>4460</t>
+          <t>8609</t>
         </is>
       </c>
       <c r="T10" s="2" t="inlineStr">
         <is>
-          <t>15988</t>
+          <t>22333</t>
         </is>
       </c>
       <c r="U10" s="2" t="inlineStr">
         <is>
-          <t>1,41%</t>
+          <t>2,81%</t>
         </is>
       </c>
       <c r="V10" s="2" t="inlineStr">
         <is>
-          <t>0,7%</t>
+          <t>1,73%</t>
         </is>
       </c>
       <c r="W10" s="2" t="inlineStr">
         <is>
-          <t>2,52%</t>
+          <t>4,49%</t>
         </is>
       </c>
     </row>
@@ -4516,107 +4516,107 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>305</t>
+          <t>377</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>304849</t>
+          <t>238887</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>298401</t>
+          <t>231928</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>308570</t>
+          <t>242841</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>98,09%</t>
+          <t>96,2%</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>96,02%</t>
+          <t>93,4%</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>99,29%</t>
+          <t>97,8%</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>485</t>
+          <t>400</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>319593</t>
+          <t>244098</t>
         </is>
       </c>
       <c r="L11" s="2" t="inlineStr">
         <is>
-          <t>314989</t>
+          <t>238467</t>
         </is>
       </c>
       <c r="M11" s="2" t="inlineStr">
         <is>
-          <t>321398</t>
+          <t>246904</t>
         </is>
       </c>
       <c r="N11" s="2" t="inlineStr">
         <is>
-          <t>99,06%</t>
+          <t>98,17%</t>
         </is>
       </c>
       <c r="O11" s="2" t="inlineStr">
         <is>
-          <t>97,64%</t>
+          <t>95,9%</t>
         </is>
       </c>
       <c r="P11" s="2" t="inlineStr">
         <is>
-          <t>99,62%</t>
+          <t>99,3%</t>
         </is>
       </c>
       <c r="Q11" s="2" t="inlineStr">
         <is>
-          <t>790</t>
+          <t>777</t>
         </is>
       </c>
       <c r="R11" s="2" t="inlineStr">
         <is>
-          <t>624440</t>
+          <t>482985</t>
         </is>
       </c>
       <c r="S11" s="2" t="inlineStr">
         <is>
-          <t>617393</t>
+          <t>474631</t>
         </is>
       </c>
       <c r="T11" s="2" t="inlineStr">
         <is>
-          <t>628921</t>
+          <t>488355</t>
         </is>
       </c>
       <c r="U11" s="2" t="inlineStr">
         <is>
-          <t>98,59%</t>
+          <t>97,19%</t>
         </is>
       </c>
       <c r="V11" s="2" t="inlineStr">
         <is>
-          <t>97,48%</t>
+          <t>95,51%</t>
         </is>
       </c>
       <c r="W11" s="2" t="inlineStr">
         <is>
-          <t>99,3%</t>
+          <t>98,27%</t>
         </is>
       </c>
     </row>
@@ -4629,22 +4629,22 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
-          <t>313</t>
+          <t>392</t>
         </is>
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
-          <t>310769</t>
+          <t>248313</t>
         </is>
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>310769</t>
+          <t>248313</t>
         </is>
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>310769</t>
+          <t>248313</t>
         </is>
       </c>
       <c r="G12" s="2" t="inlineStr">
@@ -4664,22 +4664,22 @@
       </c>
       <c r="J12" s="2" t="inlineStr">
         <is>
-          <t>493</t>
+          <t>406</t>
         </is>
       </c>
       <c r="K12" s="2" t="inlineStr">
         <is>
-          <t>322613</t>
+          <t>248651</t>
         </is>
       </c>
       <c r="L12" s="2" t="inlineStr">
         <is>
-          <t>322613</t>
+          <t>248651</t>
         </is>
       </c>
       <c r="M12" s="2" t="inlineStr">
         <is>
-          <t>322613</t>
+          <t>248651</t>
         </is>
       </c>
       <c r="N12" s="2" t="inlineStr">
@@ -4699,22 +4699,22 @@
       </c>
       <c r="Q12" s="2" t="inlineStr">
         <is>
-          <t>806</t>
+          <t>798</t>
         </is>
       </c>
       <c r="R12" s="2" t="inlineStr">
         <is>
-          <t>633381</t>
+          <t>496964</t>
         </is>
       </c>
       <c r="S12" s="2" t="inlineStr">
         <is>
-          <t>633381</t>
+          <t>496964</t>
         </is>
       </c>
       <c r="T12" s="2" t="inlineStr">
         <is>
-          <t>633381</t>
+          <t>496964</t>
         </is>
       </c>
       <c r="U12" s="2" t="inlineStr">
@@ -4746,107 +4746,107 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>28</t>
+          <t>44</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>28108</t>
+          <t>25512</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>9079</t>
+          <t>17993</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>52137</t>
+          <t>33759</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>4,48%</t>
+          <t>8,59%</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>1,45%</t>
+          <t>6,06%</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>8,31%</t>
+          <t>11,37%</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>43</t>
+          <t>40</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>25970</t>
+          <t>24594</t>
         </is>
       </c>
       <c r="L13" s="2" t="inlineStr">
         <is>
-          <t>18978</t>
+          <t>17845</t>
         </is>
       </c>
       <c r="M13" s="2" t="inlineStr">
         <is>
-          <t>34308</t>
+          <t>32677</t>
         </is>
       </c>
       <c r="N13" s="2" t="inlineStr">
         <is>
-          <t>6,42%</t>
+          <t>8,82%</t>
         </is>
       </c>
       <c r="O13" s="2" t="inlineStr">
         <is>
-          <t>4,69%</t>
+          <t>6,4%</t>
         </is>
       </c>
       <c r="P13" s="2" t="inlineStr">
         <is>
-          <t>8,48%</t>
+          <t>11,71%</t>
         </is>
       </c>
       <c r="Q13" s="2" t="inlineStr">
         <is>
-          <t>71</t>
+          <t>84</t>
         </is>
       </c>
       <c r="R13" s="2" t="inlineStr">
         <is>
-          <t>54078</t>
+          <t>50106</t>
         </is>
       </c>
       <c r="S13" s="2" t="inlineStr">
         <is>
-          <t>26776</t>
+          <t>39777</t>
         </is>
       </c>
       <c r="T13" s="2" t="inlineStr">
         <is>
-          <t>77671</t>
+          <t>61122</t>
         </is>
       </c>
       <c r="U13" s="2" t="inlineStr">
         <is>
-          <t>5,24%</t>
+          <t>8,7%</t>
         </is>
       </c>
       <c r="V13" s="2" t="inlineStr">
         <is>
-          <t>2,59%</t>
+          <t>6,91%</t>
         </is>
       </c>
       <c r="W13" s="2" t="inlineStr">
         <is>
-          <t>7,53%</t>
+          <t>10,61%</t>
         </is>
       </c>
     </row>
@@ -4859,107 +4859,107 @@
       </c>
       <c r="C14" s="2" t="inlineStr">
         <is>
-          <t>362</t>
+          <t>441</t>
         </is>
       </c>
       <c r="D14" s="2" t="inlineStr">
         <is>
-          <t>599056</t>
+          <t>271495</t>
         </is>
       </c>
       <c r="E14" s="2" t="inlineStr">
         <is>
-          <t>575027</t>
+          <t>263248</t>
         </is>
       </c>
       <c r="F14" s="2" t="inlineStr">
         <is>
-          <t>618085</t>
+          <t>279014</t>
         </is>
       </c>
       <c r="G14" s="2" t="inlineStr">
         <is>
-          <t>95,52%</t>
+          <t>91,41%</t>
         </is>
       </c>
       <c r="H14" s="2" t="inlineStr">
         <is>
-          <t>91,69%</t>
+          <t>88,63%</t>
         </is>
       </c>
       <c r="I14" s="2" t="inlineStr">
         <is>
-          <t>98,55%</t>
+          <t>93,94%</t>
         </is>
       </c>
       <c r="J14" s="2" t="inlineStr">
         <is>
-          <t>617</t>
+          <t>417</t>
         </is>
       </c>
       <c r="K14" s="2" t="inlineStr">
         <is>
-          <t>378832</t>
+          <t>254381</t>
         </is>
       </c>
       <c r="L14" s="2" t="inlineStr">
         <is>
-          <t>370494</t>
+          <t>246298</t>
         </is>
       </c>
       <c r="M14" s="2" t="inlineStr">
         <is>
-          <t>385824</t>
+          <t>261130</t>
         </is>
       </c>
       <c r="N14" s="2" t="inlineStr">
         <is>
-          <t>93,58%</t>
+          <t>91,18%</t>
         </is>
       </c>
       <c r="O14" s="2" t="inlineStr">
         <is>
-          <t>91,52%</t>
+          <t>88,29%</t>
         </is>
       </c>
       <c r="P14" s="2" t="inlineStr">
         <is>
-          <t>95,31%</t>
+          <t>93,6%</t>
         </is>
       </c>
       <c r="Q14" s="2" t="inlineStr">
         <is>
-          <t>979</t>
+          <t>858</t>
         </is>
       </c>
       <c r="R14" s="2" t="inlineStr">
         <is>
-          <t>977888</t>
+          <t>525877</t>
         </is>
       </c>
       <c r="S14" s="2" t="inlineStr">
         <is>
-          <t>954295</t>
+          <t>514861</t>
         </is>
       </c>
       <c r="T14" s="2" t="inlineStr">
         <is>
-          <t>1005190</t>
+          <t>536206</t>
         </is>
       </c>
       <c r="U14" s="2" t="inlineStr">
         <is>
-          <t>94,76%</t>
+          <t>91,3%</t>
         </is>
       </c>
       <c r="V14" s="2" t="inlineStr">
         <is>
-          <t>92,47%</t>
+          <t>89,39%</t>
         </is>
       </c>
       <c r="W14" s="2" t="inlineStr">
         <is>
-          <t>97,41%</t>
+          <t>93,09%</t>
         </is>
       </c>
     </row>
@@ -4972,22 +4972,22 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>390</t>
+          <t>485</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>627164</t>
+          <t>297007</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>627164</t>
+          <t>297007</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>627164</t>
+          <t>297007</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
@@ -5007,22 +5007,22 @@
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>660</t>
+          <t>457</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>404802</t>
+          <t>278975</t>
         </is>
       </c>
       <c r="L15" s="2" t="inlineStr">
         <is>
-          <t>404802</t>
+          <t>278975</t>
         </is>
       </c>
       <c r="M15" s="2" t="inlineStr">
         <is>
-          <t>404802</t>
+          <t>278975</t>
         </is>
       </c>
       <c r="N15" s="2" t="inlineStr">
@@ -5042,22 +5042,22 @@
       </c>
       <c r="Q15" s="2" t="inlineStr">
         <is>
-          <t>1050</t>
+          <t>942</t>
         </is>
       </c>
       <c r="R15" s="2" t="inlineStr">
         <is>
-          <t>1031966</t>
+          <t>575983</t>
         </is>
       </c>
       <c r="S15" s="2" t="inlineStr">
         <is>
-          <t>1031966</t>
+          <t>575983</t>
         </is>
       </c>
       <c r="T15" s="2" t="inlineStr">
         <is>
-          <t>1031966</t>
+          <t>575983</t>
         </is>
       </c>
       <c r="U15" s="2" t="inlineStr">
@@ -5089,72 +5089,72 @@
       </c>
       <c r="C16" s="2" t="inlineStr">
         <is>
-          <t>74</t>
+          <t>95</t>
         </is>
       </c>
       <c r="D16" s="2" t="inlineStr">
         <is>
-          <t>63695</t>
+          <t>59773</t>
         </is>
       </c>
       <c r="E16" s="2" t="inlineStr">
         <is>
-          <t>50179</t>
+          <t>48856</t>
         </is>
       </c>
       <c r="F16" s="2" t="inlineStr">
         <is>
-          <t>77613</t>
+          <t>70864</t>
         </is>
       </c>
       <c r="G16" s="2" t="inlineStr">
         <is>
-          <t>18,78%</t>
+          <t>25,47%</t>
         </is>
       </c>
       <c r="H16" s="2" t="inlineStr">
         <is>
-          <t>14,8%</t>
+          <t>20,82%</t>
         </is>
       </c>
       <c r="I16" s="2" t="inlineStr">
         <is>
-          <t>22,89%</t>
+          <t>30,19%</t>
         </is>
       </c>
       <c r="J16" s="2" t="inlineStr">
         <is>
-          <t>123</t>
+          <t>102</t>
         </is>
       </c>
       <c r="K16" s="2" t="inlineStr">
         <is>
-          <t>69546</t>
+          <t>61755</t>
         </is>
       </c>
       <c r="L16" s="2" t="inlineStr">
         <is>
-          <t>59521</t>
+          <t>50770</t>
         </is>
       </c>
       <c r="M16" s="2" t="inlineStr">
         <is>
-          <t>81363</t>
+          <t>73429</t>
         </is>
       </c>
       <c r="N16" s="2" t="inlineStr">
         <is>
-          <t>21,81%</t>
+          <t>24,3%</t>
         </is>
       </c>
       <c r="O16" s="2" t="inlineStr">
         <is>
-          <t>18,66%</t>
+          <t>19,98%</t>
         </is>
       </c>
       <c r="P16" s="2" t="inlineStr">
         <is>
-          <t>25,51%</t>
+          <t>28,9%</t>
         </is>
       </c>
       <c r="Q16" s="2" t="inlineStr">
@@ -5164,32 +5164,32 @@
       </c>
       <c r="R16" s="2" t="inlineStr">
         <is>
-          <t>133241</t>
+          <t>121528</t>
         </is>
       </c>
       <c r="S16" s="2" t="inlineStr">
         <is>
-          <t>115774</t>
+          <t>105882</t>
         </is>
       </c>
       <c r="T16" s="2" t="inlineStr">
         <is>
-          <t>149789</t>
+          <t>138679</t>
         </is>
       </c>
       <c r="U16" s="2" t="inlineStr">
         <is>
-          <t>20,25%</t>
+          <t>24,86%</t>
         </is>
       </c>
       <c r="V16" s="2" t="inlineStr">
         <is>
-          <t>17,59%</t>
+          <t>21,66%</t>
         </is>
       </c>
       <c r="W16" s="2" t="inlineStr">
         <is>
-          <t>22,76%</t>
+          <t>28,37%</t>
         </is>
       </c>
     </row>
@@ -5202,107 +5202,107 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>324</t>
+          <t>275</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>275434</t>
+          <t>174927</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>261516</t>
+          <t>163836</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>288950</t>
+          <t>185844</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>81,22%</t>
+          <t>74,53%</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>77,11%</t>
+          <t>69,81%</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>85,2%</t>
+          <t>79,18%</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>443</t>
+          <t>316</t>
         </is>
       </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
-          <t>249348</t>
+          <t>192341</t>
         </is>
       </c>
       <c r="L17" s="2" t="inlineStr">
         <is>
-          <t>237531</t>
+          <t>180667</t>
         </is>
       </c>
       <c r="M17" s="2" t="inlineStr">
         <is>
-          <t>259373</t>
+          <t>203326</t>
         </is>
       </c>
       <c r="N17" s="2" t="inlineStr">
         <is>
-          <t>78,19%</t>
+          <t>75,7%</t>
         </is>
       </c>
       <c r="O17" s="2" t="inlineStr">
         <is>
-          <t>74,49%</t>
+          <t>71,1%</t>
         </is>
       </c>
       <c r="P17" s="2" t="inlineStr">
         <is>
-          <t>81,34%</t>
+          <t>80,02%</t>
         </is>
       </c>
       <c r="Q17" s="2" t="inlineStr">
         <is>
-          <t>767</t>
+          <t>591</t>
         </is>
       </c>
       <c r="R17" s="2" t="inlineStr">
         <is>
-          <t>524783</t>
+          <t>367268</t>
         </is>
       </c>
       <c r="S17" s="2" t="inlineStr">
         <is>
-          <t>508235</t>
+          <t>350117</t>
         </is>
       </c>
       <c r="T17" s="2" t="inlineStr">
         <is>
-          <t>542250</t>
+          <t>382914</t>
         </is>
       </c>
       <c r="U17" s="2" t="inlineStr">
         <is>
-          <t>79,75%</t>
+          <t>75,14%</t>
         </is>
       </c>
       <c r="V17" s="2" t="inlineStr">
         <is>
-          <t>77,24%</t>
+          <t>71,63%</t>
         </is>
       </c>
       <c r="W17" s="2" t="inlineStr">
         <is>
-          <t>82,41%</t>
+          <t>78,34%</t>
         </is>
       </c>
     </row>
@@ -5315,22 +5315,22 @@
       </c>
       <c r="C18" s="2" t="inlineStr">
         <is>
-          <t>398</t>
+          <t>370</t>
         </is>
       </c>
       <c r="D18" s="2" t="inlineStr">
         <is>
-          <t>339129</t>
+          <t>234700</t>
         </is>
       </c>
       <c r="E18" s="2" t="inlineStr">
         <is>
-          <t>339129</t>
+          <t>234700</t>
         </is>
       </c>
       <c r="F18" s="2" t="inlineStr">
         <is>
-          <t>339129</t>
+          <t>234700</t>
         </is>
       </c>
       <c r="G18" s="2" t="inlineStr">
@@ -5350,22 +5350,22 @@
       </c>
       <c r="J18" s="2" t="inlineStr">
         <is>
-          <t>566</t>
+          <t>418</t>
         </is>
       </c>
       <c r="K18" s="2" t="inlineStr">
         <is>
-          <t>318894</t>
+          <t>254096</t>
         </is>
       </c>
       <c r="L18" s="2" t="inlineStr">
         <is>
-          <t>318894</t>
+          <t>254096</t>
         </is>
       </c>
       <c r="M18" s="2" t="inlineStr">
         <is>
-          <t>318894</t>
+          <t>254096</t>
         </is>
       </c>
       <c r="N18" s="2" t="inlineStr">
@@ -5385,22 +5385,22 @@
       </c>
       <c r="Q18" s="2" t="inlineStr">
         <is>
-          <t>964</t>
+          <t>788</t>
         </is>
       </c>
       <c r="R18" s="2" t="inlineStr">
         <is>
-          <t>658024</t>
+          <t>488796</t>
         </is>
       </c>
       <c r="S18" s="2" t="inlineStr">
         <is>
-          <t>658024</t>
+          <t>488796</t>
         </is>
       </c>
       <c r="T18" s="2" t="inlineStr">
         <is>
-          <t>658024</t>
+          <t>488796</t>
         </is>
       </c>
       <c r="U18" s="2" t="inlineStr">
@@ -5432,107 +5432,107 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>82</t>
+          <t>231</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>53012</t>
+          <t>74243</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>42957</t>
+          <t>66266</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>62926</t>
+          <t>82230</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
         <is>
-          <t>25,48%</t>
+          <t>40,34%</t>
         </is>
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>20,64%</t>
+          <t>36,0%</t>
         </is>
       </c>
       <c r="I19" s="2" t="inlineStr">
         <is>
-          <t>30,24%</t>
+          <t>44,68%</t>
         </is>
       </c>
       <c r="J19" s="2" t="inlineStr">
         <is>
-          <t>151</t>
+          <t>188</t>
         </is>
       </c>
       <c r="K19" s="2" t="inlineStr">
         <is>
-          <t>280797</t>
+          <t>73767</t>
         </is>
       </c>
       <c r="L19" s="2" t="inlineStr">
         <is>
-          <t>134233</t>
+          <t>65654</t>
         </is>
       </c>
       <c r="M19" s="2" t="inlineStr">
         <is>
-          <t>405077</t>
+          <t>82889</t>
         </is>
       </c>
       <c r="N19" s="2" t="inlineStr">
         <is>
-          <t>62,04%</t>
+          <t>39,1%</t>
         </is>
       </c>
       <c r="O19" s="2" t="inlineStr">
         <is>
-          <t>29,66%</t>
+          <t>34,8%</t>
         </is>
       </c>
       <c r="P19" s="2" t="inlineStr">
         <is>
-          <t>89,49%</t>
+          <t>43,93%</t>
         </is>
       </c>
       <c r="Q19" s="2" t="inlineStr">
         <is>
-          <t>233</t>
+          <t>419</t>
         </is>
       </c>
       <c r="R19" s="2" t="inlineStr">
         <is>
-          <t>333810</t>
+          <t>148010</t>
         </is>
       </c>
       <c r="S19" s="2" t="inlineStr">
         <is>
-          <t>177611</t>
+          <t>136441</t>
         </is>
       </c>
       <c r="T19" s="2" t="inlineStr">
         <is>
-          <t>529813</t>
+          <t>161168</t>
         </is>
       </c>
       <c r="U19" s="2" t="inlineStr">
         <is>
-          <t>50,52%</t>
+          <t>39,71%</t>
         </is>
       </c>
       <c r="V19" s="2" t="inlineStr">
         <is>
-          <t>26,88%</t>
+          <t>36,61%</t>
         </is>
       </c>
       <c r="W19" s="2" t="inlineStr">
         <is>
-          <t>80,19%</t>
+          <t>43,24%</t>
         </is>
       </c>
     </row>
@@ -5545,107 +5545,107 @@
       </c>
       <c r="C20" s="2" t="inlineStr">
         <is>
-          <t>235</t>
+          <t>339</t>
         </is>
       </c>
       <c r="D20" s="2" t="inlineStr">
         <is>
-          <t>155072</t>
+          <t>109805</t>
         </is>
       </c>
       <c r="E20" s="2" t="inlineStr">
         <is>
-          <t>145158</t>
+          <t>101818</t>
         </is>
       </c>
       <c r="F20" s="2" t="inlineStr">
         <is>
-          <t>165127</t>
+          <t>117782</t>
         </is>
       </c>
       <c r="G20" s="2" t="inlineStr">
         <is>
-          <t>74,52%</t>
+          <t>59,66%</t>
         </is>
       </c>
       <c r="H20" s="2" t="inlineStr">
         <is>
-          <t>69,76%</t>
+          <t>55,32%</t>
         </is>
       </c>
       <c r="I20" s="2" t="inlineStr">
         <is>
-          <t>79,36%</t>
+          <t>64,0%</t>
         </is>
       </c>
       <c r="J20" s="2" t="inlineStr">
         <is>
-          <t>331</t>
+          <t>298</t>
         </is>
       </c>
       <c r="K20" s="2" t="inlineStr">
         <is>
-          <t>171845</t>
+          <t>114907</t>
         </is>
       </c>
       <c r="L20" s="2" t="inlineStr">
         <is>
-          <t>47565</t>
+          <t>105785</t>
         </is>
       </c>
       <c r="M20" s="2" t="inlineStr">
         <is>
-          <t>318409</t>
+          <t>123020</t>
         </is>
       </c>
       <c r="N20" s="2" t="inlineStr">
         <is>
-          <t>37,96%</t>
+          <t>60,9%</t>
         </is>
       </c>
       <c r="O20" s="2" t="inlineStr">
         <is>
-          <t>10,51%</t>
+          <t>56,07%</t>
         </is>
       </c>
       <c r="P20" s="2" t="inlineStr">
         <is>
-          <t>70,34%</t>
+          <t>65,2%</t>
         </is>
       </c>
       <c r="Q20" s="2" t="inlineStr">
         <is>
-          <t>566</t>
+          <t>637</t>
         </is>
       </c>
       <c r="R20" s="2" t="inlineStr">
         <is>
-          <t>326917</t>
+          <t>224713</t>
         </is>
       </c>
       <c r="S20" s="2" t="inlineStr">
         <is>
-          <t>130914</t>
+          <t>211555</t>
         </is>
       </c>
       <c r="T20" s="2" t="inlineStr">
         <is>
-          <t>483116</t>
+          <t>236282</t>
         </is>
       </c>
       <c r="U20" s="2" t="inlineStr">
         <is>
-          <t>49,48%</t>
+          <t>60,29%</t>
         </is>
       </c>
       <c r="V20" s="2" t="inlineStr">
         <is>
-          <t>19,81%</t>
+          <t>56,76%</t>
         </is>
       </c>
       <c r="W20" s="2" t="inlineStr">
         <is>
-          <t>73,12%</t>
+          <t>63,39%</t>
         </is>
       </c>
     </row>
@@ -5658,22 +5658,22 @@
       </c>
       <c r="C21" s="2" t="inlineStr">
         <is>
-          <t>317</t>
+          <t>570</t>
         </is>
       </c>
       <c r="D21" s="2" t="inlineStr">
         <is>
-          <t>208084</t>
+          <t>184048</t>
         </is>
       </c>
       <c r="E21" s="2" t="inlineStr">
         <is>
-          <t>208084</t>
+          <t>184048</t>
         </is>
       </c>
       <c r="F21" s="2" t="inlineStr">
         <is>
-          <t>208084</t>
+          <t>184048</t>
         </is>
       </c>
       <c r="G21" s="2" t="inlineStr">
@@ -5693,22 +5693,22 @@
       </c>
       <c r="J21" s="2" t="inlineStr">
         <is>
-          <t>482</t>
+          <t>486</t>
         </is>
       </c>
       <c r="K21" s="2" t="inlineStr">
         <is>
-          <t>452642</t>
+          <t>188674</t>
         </is>
       </c>
       <c r="L21" s="2" t="inlineStr">
         <is>
-          <t>452642</t>
+          <t>188674</t>
         </is>
       </c>
       <c r="M21" s="2" t="inlineStr">
         <is>
-          <t>452642</t>
+          <t>188674</t>
         </is>
       </c>
       <c r="N21" s="2" t="inlineStr">
@@ -5728,22 +5728,22 @@
       </c>
       <c r="Q21" s="2" t="inlineStr">
         <is>
-          <t>799</t>
+          <t>1056</t>
         </is>
       </c>
       <c r="R21" s="2" t="inlineStr">
         <is>
-          <t>660727</t>
+          <t>372723</t>
         </is>
       </c>
       <c r="S21" s="2" t="inlineStr">
         <is>
-          <t>660727</t>
+          <t>372723</t>
         </is>
       </c>
       <c r="T21" s="2" t="inlineStr">
         <is>
-          <t>660727</t>
+          <t>372723</t>
         </is>
       </c>
       <c r="U21" s="2" t="inlineStr">
@@ -5775,107 +5775,107 @@
       </c>
       <c r="C22" s="2" t="inlineStr">
         <is>
-          <t>90</t>
+          <t>189</t>
         </is>
       </c>
       <c r="D22" s="2" t="inlineStr">
         <is>
-          <t>57545</t>
+          <t>56137</t>
         </is>
       </c>
       <c r="E22" s="2" t="inlineStr">
         <is>
-          <t>48232</t>
+          <t>49554</t>
         </is>
       </c>
       <c r="F22" s="2" t="inlineStr">
         <is>
-          <t>67093</t>
+          <t>62838</t>
         </is>
       </c>
       <c r="G22" s="2" t="inlineStr">
         <is>
-          <t>37,91%</t>
+          <t>38,31%</t>
         </is>
       </c>
       <c r="H22" s="2" t="inlineStr">
         <is>
-          <t>31,78%</t>
+          <t>33,82%</t>
         </is>
       </c>
       <c r="I22" s="2" t="inlineStr">
         <is>
-          <t>44,21%</t>
+          <t>42,88%</t>
         </is>
       </c>
       <c r="J22" s="2" t="inlineStr">
         <is>
-          <t>167</t>
+          <t>242</t>
         </is>
       </c>
       <c r="K22" s="2" t="inlineStr">
         <is>
-          <t>87640</t>
+          <t>96802</t>
         </is>
       </c>
       <c r="L22" s="2" t="inlineStr">
         <is>
-          <t>76912</t>
+          <t>87455</t>
         </is>
       </c>
       <c r="M22" s="2" t="inlineStr">
         <is>
-          <t>98350</t>
+          <t>106241</t>
         </is>
       </c>
       <c r="N22" s="2" t="inlineStr">
         <is>
-          <t>37,52%</t>
+          <t>45,7%</t>
         </is>
       </c>
       <c r="O22" s="2" t="inlineStr">
         <is>
-          <t>32,92%</t>
+          <t>41,29%</t>
         </is>
       </c>
       <c r="P22" s="2" t="inlineStr">
         <is>
-          <t>42,1%</t>
+          <t>50,16%</t>
         </is>
       </c>
       <c r="Q22" s="2" t="inlineStr">
         <is>
-          <t>257</t>
+          <t>431</t>
         </is>
       </c>
       <c r="R22" s="2" t="inlineStr">
         <is>
-          <t>145185</t>
+          <t>152939</t>
         </is>
       </c>
       <c r="S22" s="2" t="inlineStr">
         <is>
-          <t>130329</t>
+          <t>140179</t>
         </is>
       </c>
       <c r="T22" s="2" t="inlineStr">
         <is>
-          <t>159750</t>
+          <t>163972</t>
         </is>
       </c>
       <c r="U22" s="2" t="inlineStr">
         <is>
-          <t>37,67%</t>
+          <t>42,68%</t>
         </is>
       </c>
       <c r="V22" s="2" t="inlineStr">
         <is>
-          <t>33,82%</t>
+          <t>39,12%</t>
         </is>
       </c>
       <c r="W22" s="2" t="inlineStr">
         <is>
-          <t>41,45%</t>
+          <t>45,76%</t>
         </is>
       </c>
     </row>
@@ -5888,107 +5888,107 @@
       </c>
       <c r="C23" s="2" t="inlineStr">
         <is>
-          <t>141</t>
+          <t>292</t>
         </is>
       </c>
       <c r="D23" s="2" t="inlineStr">
         <is>
-          <t>94230</t>
+          <t>90396</t>
         </is>
       </c>
       <c r="E23" s="2" t="inlineStr">
         <is>
-          <t>84682</t>
+          <t>83695</t>
         </is>
       </c>
       <c r="F23" s="2" t="inlineStr">
         <is>
-          <t>103543</t>
+          <t>96979</t>
         </is>
       </c>
       <c r="G23" s="2" t="inlineStr">
         <is>
-          <t>62,09%</t>
+          <t>61,69%</t>
         </is>
       </c>
       <c r="H23" s="2" t="inlineStr">
         <is>
-          <t>55,79%</t>
+          <t>57,12%</t>
         </is>
       </c>
       <c r="I23" s="2" t="inlineStr">
         <is>
-          <t>68,22%</t>
+          <t>66,18%</t>
         </is>
       </c>
       <c r="J23" s="2" t="inlineStr">
         <is>
-          <t>274</t>
+          <t>286</t>
         </is>
       </c>
       <c r="K23" s="2" t="inlineStr">
         <is>
-          <t>145964</t>
+          <t>115018</t>
         </is>
       </c>
       <c r="L23" s="2" t="inlineStr">
         <is>
-          <t>135254</t>
+          <t>105579</t>
         </is>
       </c>
       <c r="M23" s="2" t="inlineStr">
         <is>
-          <t>156692</t>
+          <t>124365</t>
         </is>
       </c>
       <c r="N23" s="2" t="inlineStr">
         <is>
-          <t>62,48%</t>
+          <t>54,3%</t>
         </is>
       </c>
       <c r="O23" s="2" t="inlineStr">
         <is>
-          <t>57,9%</t>
+          <t>49,84%</t>
         </is>
       </c>
       <c r="P23" s="2" t="inlineStr">
         <is>
-          <t>67,08%</t>
+          <t>58,71%</t>
         </is>
       </c>
       <c r="Q23" s="2" t="inlineStr">
         <is>
-          <t>415</t>
+          <t>578</t>
         </is>
       </c>
       <c r="R23" s="2" t="inlineStr">
         <is>
-          <t>240194</t>
+          <t>205414</t>
         </is>
       </c>
       <c r="S23" s="2" t="inlineStr">
         <is>
-          <t>225629</t>
+          <t>194381</t>
         </is>
       </c>
       <c r="T23" s="2" t="inlineStr">
         <is>
-          <t>255050</t>
+          <t>218174</t>
         </is>
       </c>
       <c r="U23" s="2" t="inlineStr">
         <is>
-          <t>62,33%</t>
+          <t>57,32%</t>
         </is>
       </c>
       <c r="V23" s="2" t="inlineStr">
         <is>
-          <t>58,55%</t>
+          <t>54,24%</t>
         </is>
       </c>
       <c r="W23" s="2" t="inlineStr">
         <is>
-          <t>66,18%</t>
+          <t>60,88%</t>
         </is>
       </c>
     </row>
@@ -6001,22 +6001,22 @@
       </c>
       <c r="C24" s="2" t="inlineStr">
         <is>
-          <t>231</t>
+          <t>481</t>
         </is>
       </c>
       <c r="D24" s="2" t="inlineStr">
         <is>
-          <t>151775</t>
+          <t>146533</t>
         </is>
       </c>
       <c r="E24" s="2" t="inlineStr">
         <is>
-          <t>151775</t>
+          <t>146533</t>
         </is>
       </c>
       <c r="F24" s="2" t="inlineStr">
         <is>
-          <t>151775</t>
+          <t>146533</t>
         </is>
       </c>
       <c r="G24" s="2" t="inlineStr">
@@ -6036,22 +6036,22 @@
       </c>
       <c r="J24" s="2" t="inlineStr">
         <is>
-          <t>441</t>
+          <t>528</t>
         </is>
       </c>
       <c r="K24" s="2" t="inlineStr">
         <is>
-          <t>233604</t>
+          <t>211820</t>
         </is>
       </c>
       <c r="L24" s="2" t="inlineStr">
         <is>
-          <t>233604</t>
+          <t>211820</t>
         </is>
       </c>
       <c r="M24" s="2" t="inlineStr">
         <is>
-          <t>233604</t>
+          <t>211820</t>
         </is>
       </c>
       <c r="N24" s="2" t="inlineStr">
@@ -6071,22 +6071,22 @@
       </c>
       <c r="Q24" s="2" t="inlineStr">
         <is>
-          <t>672</t>
+          <t>1009</t>
         </is>
       </c>
       <c r="R24" s="2" t="inlineStr">
         <is>
-          <t>385379</t>
+          <t>358353</t>
         </is>
       </c>
       <c r="S24" s="2" t="inlineStr">
         <is>
-          <t>385379</t>
+          <t>358353</t>
         </is>
       </c>
       <c r="T24" s="2" t="inlineStr">
         <is>
-          <t>385379</t>
+          <t>358353</t>
         </is>
       </c>
       <c r="U24" s="2" t="inlineStr">
@@ -6118,107 +6118,107 @@
       </c>
       <c r="C25" s="2" t="inlineStr">
         <is>
-          <t>282</t>
+          <t>579</t>
         </is>
       </c>
       <c r="D25" s="2" t="inlineStr">
         <is>
-          <t>208281</t>
+          <t>228412</t>
         </is>
       </c>
       <c r="E25" s="2" t="inlineStr">
         <is>
-          <t>142409</t>
+          <t>209208</t>
         </is>
       </c>
       <c r="F25" s="2" t="inlineStr">
         <is>
-          <t>245913</t>
+          <t>248537</t>
         </is>
       </c>
       <c r="G25" s="2" t="inlineStr">
         <is>
-          <t>9,91%</t>
+          <t>15,61%</t>
         </is>
       </c>
       <c r="H25" s="2" t="inlineStr">
         <is>
-          <t>6,77%</t>
+          <t>14,3%</t>
         </is>
       </c>
       <c r="I25" s="2" t="inlineStr">
         <is>
-          <t>11,7%</t>
+          <t>16,99%</t>
         </is>
       </c>
       <c r="J25" s="2" t="inlineStr">
         <is>
-          <t>496</t>
+          <t>582</t>
         </is>
       </c>
       <c r="K25" s="2" t="inlineStr">
         <is>
-          <t>471698</t>
+          <t>265124</t>
         </is>
       </c>
       <c r="L25" s="2" t="inlineStr">
         <is>
-          <t>285289</t>
+          <t>245219</t>
         </is>
       </c>
       <c r="M25" s="2" t="inlineStr">
         <is>
-          <t>1033907</t>
+          <t>288627</t>
         </is>
       </c>
       <c r="N25" s="2" t="inlineStr">
         <is>
-          <t>21,14%</t>
+          <t>16,95%</t>
         </is>
       </c>
       <c r="O25" s="2" t="inlineStr">
         <is>
-          <t>12,79%</t>
+          <t>15,68%</t>
         </is>
       </c>
       <c r="P25" s="2" t="inlineStr">
         <is>
-          <t>46,34%</t>
+          <t>18,45%</t>
         </is>
       </c>
       <c r="Q25" s="2" t="inlineStr">
         <is>
-          <t>778</t>
+          <t>1161</t>
         </is>
       </c>
       <c r="R25" s="2" t="inlineStr">
         <is>
-          <t>679980</t>
+          <t>493536</t>
         </is>
       </c>
       <c r="S25" s="2" t="inlineStr">
         <is>
-          <t>473415</t>
+          <t>467091</t>
         </is>
       </c>
       <c r="T25" s="2" t="inlineStr">
         <is>
-          <t>1206082</t>
+          <t>525931</t>
         </is>
       </c>
       <c r="U25" s="2" t="inlineStr">
         <is>
-          <t>15,69%</t>
+          <t>16,3%</t>
         </is>
       </c>
       <c r="V25" s="2" t="inlineStr">
         <is>
-          <t>10,92%</t>
+          <t>15,43%</t>
         </is>
       </c>
       <c r="W25" s="2" t="inlineStr">
         <is>
-          <t>27,83%</t>
+          <t>17,37%</t>
         </is>
       </c>
     </row>
@@ -6231,107 +6231,107 @@
       </c>
       <c r="C26" s="2" t="inlineStr">
         <is>
-          <t>1614</t>
+          <t>2280</t>
         </is>
       </c>
       <c r="D26" s="2" t="inlineStr">
         <is>
-          <t>1894244</t>
+          <t>1234574</t>
         </is>
       </c>
       <c r="E26" s="2" t="inlineStr">
         <is>
-          <t>1856612</t>
+          <t>1214449</t>
         </is>
       </c>
       <c r="F26" s="2" t="inlineStr">
         <is>
-          <t>1960116</t>
+          <t>1253778</t>
         </is>
       </c>
       <c r="G26" s="2" t="inlineStr">
         <is>
-          <t>90,09%</t>
+          <t>84,39%</t>
         </is>
       </c>
       <c r="H26" s="2" t="inlineStr">
         <is>
-          <t>88,3%</t>
+          <t>83,01%</t>
         </is>
       </c>
       <c r="I26" s="2" t="inlineStr">
         <is>
-          <t>93,23%</t>
+          <t>85,7%</t>
         </is>
       </c>
       <c r="J26" s="2" t="inlineStr">
         <is>
-          <t>2513</t>
+          <t>2298</t>
         </is>
       </c>
       <c r="K26" s="2" t="inlineStr">
         <is>
-          <t>1759638</t>
+          <t>1299013</t>
         </is>
       </c>
       <c r="L26" s="2" t="inlineStr">
         <is>
-          <t>1197429</t>
+          <t>1275510</t>
         </is>
       </c>
       <c r="M26" s="2" t="inlineStr">
         <is>
-          <t>1946047</t>
+          <t>1318918</t>
         </is>
       </c>
       <c r="N26" s="2" t="inlineStr">
         <is>
-          <t>78,86%</t>
+          <t>83,05%</t>
         </is>
       </c>
       <c r="O26" s="2" t="inlineStr">
         <is>
-          <t>53,66%</t>
+          <t>81,55%</t>
         </is>
       </c>
       <c r="P26" s="2" t="inlineStr">
         <is>
-          <t>87,21%</t>
+          <t>84,32%</t>
         </is>
       </c>
       <c r="Q26" s="2" t="inlineStr">
         <is>
-          <t>4127</t>
+          <t>4578</t>
         </is>
       </c>
       <c r="R26" s="2" t="inlineStr">
         <is>
-          <t>3653881</t>
+          <t>2533586</t>
         </is>
       </c>
       <c r="S26" s="2" t="inlineStr">
         <is>
-          <t>3127779</t>
+          <t>2501191</t>
         </is>
       </c>
       <c r="T26" s="2" t="inlineStr">
         <is>
-          <t>3860446</t>
+          <t>2560031</t>
         </is>
       </c>
       <c r="U26" s="2" t="inlineStr">
         <is>
-          <t>84,31%</t>
+          <t>83,7%</t>
         </is>
       </c>
       <c r="V26" s="2" t="inlineStr">
         <is>
-          <t>72,17%</t>
+          <t>82,63%</t>
         </is>
       </c>
       <c r="W26" s="2" t="inlineStr">
         <is>
-          <t>89,08%</t>
+          <t>84,57%</t>
         </is>
       </c>
     </row>
@@ -6344,22 +6344,22 @@
       </c>
       <c r="C27" s="2" t="inlineStr">
         <is>
-          <t>1896</t>
+          <t>2859</t>
         </is>
       </c>
       <c r="D27" s="2" t="inlineStr">
         <is>
-          <t>2102525</t>
+          <t>1462986</t>
         </is>
       </c>
       <c r="E27" s="2" t="inlineStr">
         <is>
-          <t>2102525</t>
+          <t>1462986</t>
         </is>
       </c>
       <c r="F27" s="2" t="inlineStr">
         <is>
-          <t>2102525</t>
+          <t>1462986</t>
         </is>
       </c>
       <c r="G27" s="2" t="inlineStr">
@@ -6379,22 +6379,22 @@
       </c>
       <c r="J27" s="2" t="inlineStr">
         <is>
-          <t>3009</t>
+          <t>2880</t>
         </is>
       </c>
       <c r="K27" s="2" t="inlineStr">
         <is>
-          <t>2231336</t>
+          <t>1564137</t>
         </is>
       </c>
       <c r="L27" s="2" t="inlineStr">
         <is>
-          <t>2231336</t>
+          <t>1564137</t>
         </is>
       </c>
       <c r="M27" s="2" t="inlineStr">
         <is>
-          <t>2231336</t>
+          <t>1564137</t>
         </is>
       </c>
       <c r="N27" s="2" t="inlineStr">
@@ -6414,22 +6414,22 @@
       </c>
       <c r="Q27" s="2" t="inlineStr">
         <is>
-          <t>4905</t>
+          <t>5739</t>
         </is>
       </c>
       <c r="R27" s="2" t="inlineStr">
         <is>
-          <t>4333861</t>
+          <t>3027122</t>
         </is>
       </c>
       <c r="S27" s="2" t="inlineStr">
         <is>
-          <t>4333861</t>
+          <t>3027122</t>
         </is>
       </c>
       <c r="T27" s="2" t="inlineStr">
         <is>
-          <t>4333861</t>
+          <t>3027122</t>
         </is>
       </c>
       <c r="U27" s="2" t="inlineStr">
@@ -6519,7 +6519,7 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Consumo de medicamentos para el colesterol en C.Valenciana (tasa de respuesta: 99,74%)</t>
+          <t>Consumo de medicamentos para el colesterol en País Vasco (tasa de respuesta: 99,45%)</t>
         </is>
       </c>
       <c r="B1" s="2" t="n"/>
@@ -6739,72 +6739,72 @@
       </c>
       <c r="J4" s="2" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="K4" s="2" t="inlineStr">
         <is>
-          <t>1595</t>
+          <t>0</t>
         </is>
       </c>
       <c r="L4" s="2" t="inlineStr">
         <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="M4" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="N4" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="O4" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="P4" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="Q4" s="2" t="inlineStr">
+        <is>
           <t>0</t>
         </is>
       </c>
-      <c r="M4" s="2" t="inlineStr">
-        <is>
-          <t>9390</t>
-        </is>
-      </c>
-      <c r="N4" s="2" t="inlineStr">
-        <is>
-          <t>0,94%</t>
-        </is>
-      </c>
-      <c r="O4" s="2" t="inlineStr">
+      <c r="R4" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="S4" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="T4" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="U4" s="2" t="inlineStr">
         <is>
           <t>0,0%</t>
         </is>
       </c>
-      <c r="P4" s="2" t="inlineStr">
-        <is>
-          <t>5,51%</t>
-        </is>
-      </c>
-      <c r="Q4" s="2" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="R4" s="2" t="inlineStr">
-        <is>
-          <t>1595</t>
-        </is>
-      </c>
-      <c r="S4" s="2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="T4" s="2" t="inlineStr">
-        <is>
-          <t>7957</t>
-        </is>
-      </c>
-      <c r="U4" s="2" t="inlineStr">
-        <is>
-          <t>0,47%</t>
-        </is>
-      </c>
       <c r="V4" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="W4" s="2" t="inlineStr">
         <is>
-          <t>2,34%</t>
+          <t>—%</t>
         </is>
       </c>
     </row>
@@ -6817,12 +6817,12 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>272</t>
+          <t>376</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>170171</t>
+          <t>76881</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
@@ -6852,72 +6852,72 @@
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>269</t>
+          <t>348</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>168847</t>
+          <t>66242</t>
         </is>
       </c>
       <c r="L5" s="2" t="inlineStr">
         <is>
-          <t>161052</t>
+          <t>—</t>
         </is>
       </c>
       <c r="M5" s="2" t="inlineStr">
         <is>
-          <t>170442</t>
+          <t>—</t>
         </is>
       </c>
       <c r="N5" s="2" t="inlineStr">
         <is>
-          <t>99,06%</t>
+          <t>100,0%</t>
         </is>
       </c>
       <c r="O5" s="2" t="inlineStr">
         <is>
-          <t>94,49%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="P5" s="2" t="inlineStr">
         <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="Q5" s="2" t="inlineStr">
+        <is>
+          <t>724</t>
+        </is>
+      </c>
+      <c r="R5" s="2" t="inlineStr">
+        <is>
+          <t>143123</t>
+        </is>
+      </c>
+      <c r="S5" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="T5" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="U5" s="2" t="inlineStr">
+        <is>
           <t>100,0%</t>
         </is>
       </c>
-      <c r="Q5" s="2" t="inlineStr">
-        <is>
-          <t>541</t>
-        </is>
-      </c>
-      <c r="R5" s="2" t="inlineStr">
-        <is>
-          <t>339018</t>
-        </is>
-      </c>
-      <c r="S5" s="2" t="inlineStr">
-        <is>
-          <t>332656</t>
-        </is>
-      </c>
-      <c r="T5" s="2" t="inlineStr">
-        <is>
-          <t>340613</t>
-        </is>
-      </c>
-      <c r="U5" s="2" t="inlineStr">
-        <is>
-          <t>99,53%</t>
-        </is>
-      </c>
       <c r="V5" s="2" t="inlineStr">
         <is>
-          <t>97,66%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="W5" s="2" t="inlineStr">
         <is>
-          <t>100,0%</t>
+          <t>—%</t>
         </is>
       </c>
     </row>
@@ -6930,22 +6930,22 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>272</t>
+          <t>376</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>170171</t>
+          <t>76881</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>170171</t>
+          <t>76881</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>170171</t>
+          <t>76881</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
@@ -6965,22 +6965,22 @@
       </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>270</t>
+          <t>348</t>
         </is>
       </c>
       <c r="K6" s="2" t="inlineStr">
         <is>
-          <t>170442</t>
+          <t>66242</t>
         </is>
       </c>
       <c r="L6" s="2" t="inlineStr">
         <is>
-          <t>170442</t>
+          <t>66242</t>
         </is>
       </c>
       <c r="M6" s="2" t="inlineStr">
         <is>
-          <t>170442</t>
+          <t>66242</t>
         </is>
       </c>
       <c r="N6" s="2" t="inlineStr">
@@ -7000,22 +7000,22 @@
       </c>
       <c r="Q6" s="2" t="inlineStr">
         <is>
-          <t>542</t>
+          <t>724</t>
         </is>
       </c>
       <c r="R6" s="2" t="inlineStr">
         <is>
-          <t>340613</t>
+          <t>143123</t>
         </is>
       </c>
       <c r="S6" s="2" t="inlineStr">
         <is>
-          <t>340613</t>
+          <t>143123</t>
         </is>
       </c>
       <c r="T6" s="2" t="inlineStr">
         <is>
-          <t>340613</t>
+          <t>143123</t>
         </is>
       </c>
       <c r="U6" s="2" t="inlineStr">
@@ -7047,107 +7047,107 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>2</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>3322</t>
+          <t>431</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>1132</t>
+          <t>0</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>7560</t>
+          <t>1498</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>1,82%</t>
+          <t>0,57%</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>0,62%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>4,15%</t>
+          <t>2,0%</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>0</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>2057</t>
+          <t>0</t>
         </is>
       </c>
       <c r="L7" s="2" t="inlineStr">
         <is>
-          <t>442</t>
+          <t>—</t>
         </is>
       </c>
       <c r="M7" s="2" t="inlineStr">
         <is>
-          <t>5820</t>
+          <t>—</t>
         </is>
       </c>
       <c r="N7" s="2" t="inlineStr">
         <is>
-          <t>0,97%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="O7" s="2" t="inlineStr">
         <is>
-          <t>0,21%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="P7" s="2" t="inlineStr">
         <is>
-          <t>2,75%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="Q7" s="2" t="inlineStr">
         <is>
-          <t>8</t>
+          <t>2</t>
         </is>
       </c>
       <c r="R7" s="2" t="inlineStr">
         <is>
-          <t>5379</t>
+          <t>431</t>
         </is>
       </c>
       <c r="S7" s="2" t="inlineStr">
         <is>
-          <t>2279</t>
+          <t>0</t>
         </is>
       </c>
       <c r="T7" s="2" t="inlineStr">
         <is>
-          <t>10488</t>
+          <t>1556</t>
         </is>
       </c>
       <c r="U7" s="2" t="inlineStr">
         <is>
-          <t>1,37%</t>
+          <t>0,3%</t>
         </is>
       </c>
       <c r="V7" s="2" t="inlineStr">
         <is>
-          <t>0,58%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="W7" s="2" t="inlineStr">
         <is>
-          <t>2,66%</t>
+          <t>1,09%</t>
         </is>
       </c>
     </row>
@@ -7160,107 +7160,107 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>284</t>
+          <t>395</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>178891</t>
+          <t>74552</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>174653</t>
+          <t>73485</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>181081</t>
+          <t>74983</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>98,18%</t>
+          <t>99,43%</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>95,85%</t>
+          <t>98,0%</t>
         </is>
       </c>
       <c r="I8" s="2" t="inlineStr">
         <is>
-          <t>99,38%</t>
+          <t>100,0%</t>
         </is>
       </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
-          <t>312</t>
+          <t>367</t>
         </is>
       </c>
       <c r="K8" s="2" t="inlineStr">
         <is>
-          <t>209421</t>
+          <t>68048</t>
         </is>
       </c>
       <c r="L8" s="2" t="inlineStr">
         <is>
-          <t>205658</t>
+          <t>—</t>
         </is>
       </c>
       <c r="M8" s="2" t="inlineStr">
         <is>
-          <t>211036</t>
+          <t>—</t>
         </is>
       </c>
       <c r="N8" s="2" t="inlineStr">
         <is>
-          <t>99,03%</t>
+          <t>100,0%</t>
         </is>
       </c>
       <c r="O8" s="2" t="inlineStr">
         <is>
-          <t>97,25%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="P8" s="2" t="inlineStr">
         <is>
-          <t>99,79%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="Q8" s="2" t="inlineStr">
         <is>
-          <t>596</t>
+          <t>762</t>
         </is>
       </c>
       <c r="R8" s="2" t="inlineStr">
         <is>
-          <t>388311</t>
+          <t>142600</t>
         </is>
       </c>
       <c r="S8" s="2" t="inlineStr">
         <is>
-          <t>383202</t>
+          <t>141475</t>
         </is>
       </c>
       <c r="T8" s="2" t="inlineStr">
         <is>
-          <t>391411</t>
+          <t>143031</t>
         </is>
       </c>
       <c r="U8" s="2" t="inlineStr">
         <is>
-          <t>98,63%</t>
+          <t>99,7%</t>
         </is>
       </c>
       <c r="V8" s="2" t="inlineStr">
         <is>
-          <t>97,34%</t>
+          <t>98,91%</t>
         </is>
       </c>
       <c r="W8" s="2" t="inlineStr">
         <is>
-          <t>99,42%</t>
+          <t>100,0%</t>
         </is>
       </c>
     </row>
@@ -7273,22 +7273,22 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>289</t>
+          <t>397</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>182213</t>
+          <t>74983</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>182213</t>
+          <t>74983</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>182213</t>
+          <t>74983</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
@@ -7308,22 +7308,22 @@
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>315</t>
+          <t>367</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>211478</t>
+          <t>68048</t>
         </is>
       </c>
       <c r="L9" s="2" t="inlineStr">
         <is>
-          <t>211478</t>
+          <t>68048</t>
         </is>
       </c>
       <c r="M9" s="2" t="inlineStr">
         <is>
-          <t>211478</t>
+          <t>68048</t>
         </is>
       </c>
       <c r="N9" s="2" t="inlineStr">
@@ -7343,22 +7343,22 @@
       </c>
       <c r="Q9" s="2" t="inlineStr">
         <is>
-          <t>604</t>
+          <t>764</t>
         </is>
       </c>
       <c r="R9" s="2" t="inlineStr">
         <is>
-          <t>393690</t>
+          <t>143031</t>
         </is>
       </c>
       <c r="S9" s="2" t="inlineStr">
         <is>
-          <t>393690</t>
+          <t>143031</t>
         </is>
       </c>
       <c r="T9" s="2" t="inlineStr">
         <is>
-          <t>393690</t>
+          <t>143031</t>
         </is>
       </c>
       <c r="U9" s="2" t="inlineStr">
@@ -7390,107 +7390,107 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>15</t>
+          <t>17</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>9426</t>
+          <t>3247</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>5472</t>
+          <t>1857</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>16385</t>
+          <t>5205</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>3,8%</t>
+          <t>3,12%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>2,2%</t>
+          <t>1,79%</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
         <is>
-          <t>6,6%</t>
+          <t>5,01%</t>
         </is>
       </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>3</t>
         </is>
       </c>
       <c r="K10" s="2" t="inlineStr">
         <is>
-          <t>4553</t>
+          <t>675</t>
         </is>
       </c>
       <c r="L10" s="2" t="inlineStr">
         <is>
-          <t>1747</t>
+          <t>106</t>
         </is>
       </c>
       <c r="M10" s="2" t="inlineStr">
         <is>
-          <t>10184</t>
+          <t>2313</t>
         </is>
       </c>
       <c r="N10" s="2" t="inlineStr">
         <is>
+          <t>0,61%</t>
+        </is>
+      </c>
+      <c r="O10" s="2" t="inlineStr">
+        <is>
+          <t>0,1%</t>
+        </is>
+      </c>
+      <c r="P10" s="2" t="inlineStr">
+        <is>
+          <t>2,09%</t>
+        </is>
+      </c>
+      <c r="Q10" s="2" t="inlineStr">
+        <is>
+          <t>20</t>
+        </is>
+      </c>
+      <c r="R10" s="2" t="inlineStr">
+        <is>
+          <t>3922</t>
+        </is>
+      </c>
+      <c r="S10" s="2" t="inlineStr">
+        <is>
+          <t>2460</t>
+        </is>
+      </c>
+      <c r="T10" s="2" t="inlineStr">
+        <is>
+          <t>6182</t>
+        </is>
+      </c>
+      <c r="U10" s="2" t="inlineStr">
+        <is>
           <t>1,83%</t>
         </is>
       </c>
-      <c r="O10" s="2" t="inlineStr">
-        <is>
-          <t>0,7%</t>
-        </is>
-      </c>
-      <c r="P10" s="2" t="inlineStr">
-        <is>
-          <t>4,1%</t>
-        </is>
-      </c>
-      <c r="Q10" s="2" t="inlineStr">
-        <is>
-          <t>21</t>
-        </is>
-      </c>
-      <c r="R10" s="2" t="inlineStr">
-        <is>
-          <t>13979</t>
-        </is>
-      </c>
-      <c r="S10" s="2" t="inlineStr">
-        <is>
-          <t>8609</t>
-        </is>
-      </c>
-      <c r="T10" s="2" t="inlineStr">
-        <is>
-          <t>22333</t>
-        </is>
-      </c>
-      <c r="U10" s="2" t="inlineStr">
-        <is>
-          <t>2,81%</t>
-        </is>
-      </c>
       <c r="V10" s="2" t="inlineStr">
         <is>
-          <t>1,73%</t>
+          <t>1,15%</t>
         </is>
       </c>
       <c r="W10" s="2" t="inlineStr">
         <is>
-          <t>4,49%</t>
+          <t>2,88%</t>
         </is>
       </c>
     </row>
@@ -7503,107 +7503,107 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>377</t>
+          <t>551</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>238887</t>
+          <t>100713</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>231928</t>
+          <t>98755</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>242841</t>
+          <t>102103</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>96,2%</t>
+          <t>96,88%</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>93,4%</t>
+          <t>94,99%</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>97,8%</t>
+          <t>98,21%</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>400</t>
+          <t>577</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>244098</t>
+          <t>110040</t>
         </is>
       </c>
       <c r="L11" s="2" t="inlineStr">
         <is>
-          <t>238467</t>
+          <t>108402</t>
         </is>
       </c>
       <c r="M11" s="2" t="inlineStr">
         <is>
-          <t>246904</t>
+          <t>110609</t>
         </is>
       </c>
       <c r="N11" s="2" t="inlineStr">
         <is>
+          <t>99,39%</t>
+        </is>
+      </c>
+      <c r="O11" s="2" t="inlineStr">
+        <is>
+          <t>97,91%</t>
+        </is>
+      </c>
+      <c r="P11" s="2" t="inlineStr">
+        <is>
+          <t>99,9%</t>
+        </is>
+      </c>
+      <c r="Q11" s="2" t="inlineStr">
+        <is>
+          <t>1128</t>
+        </is>
+      </c>
+      <c r="R11" s="2" t="inlineStr">
+        <is>
+          <t>210753</t>
+        </is>
+      </c>
+      <c r="S11" s="2" t="inlineStr">
+        <is>
+          <t>208493</t>
+        </is>
+      </c>
+      <c r="T11" s="2" t="inlineStr">
+        <is>
+          <t>212215</t>
+        </is>
+      </c>
+      <c r="U11" s="2" t="inlineStr">
+        <is>
           <t>98,17%</t>
         </is>
       </c>
-      <c r="O11" s="2" t="inlineStr">
-        <is>
-          <t>95,9%</t>
-        </is>
-      </c>
-      <c r="P11" s="2" t="inlineStr">
-        <is>
-          <t>99,3%</t>
-        </is>
-      </c>
-      <c r="Q11" s="2" t="inlineStr">
-        <is>
-          <t>777</t>
-        </is>
-      </c>
-      <c r="R11" s="2" t="inlineStr">
-        <is>
-          <t>482985</t>
-        </is>
-      </c>
-      <c r="S11" s="2" t="inlineStr">
-        <is>
-          <t>474631</t>
-        </is>
-      </c>
-      <c r="T11" s="2" t="inlineStr">
-        <is>
-          <t>488355</t>
-        </is>
-      </c>
-      <c r="U11" s="2" t="inlineStr">
-        <is>
-          <t>97,19%</t>
-        </is>
-      </c>
       <c r="V11" s="2" t="inlineStr">
         <is>
-          <t>95,51%</t>
+          <t>97,12%</t>
         </is>
       </c>
       <c r="W11" s="2" t="inlineStr">
         <is>
-          <t>98,27%</t>
+          <t>98,85%</t>
         </is>
       </c>
     </row>
@@ -7616,22 +7616,22 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
-          <t>392</t>
+          <t>568</t>
         </is>
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
-          <t>248313</t>
+          <t>103960</t>
         </is>
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>248313</t>
+          <t>103960</t>
         </is>
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>248313</t>
+          <t>103960</t>
         </is>
       </c>
       <c r="G12" s="2" t="inlineStr">
@@ -7651,22 +7651,22 @@
       </c>
       <c r="J12" s="2" t="inlineStr">
         <is>
-          <t>406</t>
+          <t>580</t>
         </is>
       </c>
       <c r="K12" s="2" t="inlineStr">
         <is>
-          <t>248651</t>
+          <t>110715</t>
         </is>
       </c>
       <c r="L12" s="2" t="inlineStr">
         <is>
-          <t>248651</t>
+          <t>110715</t>
         </is>
       </c>
       <c r="M12" s="2" t="inlineStr">
         <is>
-          <t>248651</t>
+          <t>110715</t>
         </is>
       </c>
       <c r="N12" s="2" t="inlineStr">
@@ -7686,22 +7686,22 @@
       </c>
       <c r="Q12" s="2" t="inlineStr">
         <is>
-          <t>798</t>
+          <t>1148</t>
         </is>
       </c>
       <c r="R12" s="2" t="inlineStr">
         <is>
-          <t>496964</t>
+          <t>214675</t>
         </is>
       </c>
       <c r="S12" s="2" t="inlineStr">
         <is>
-          <t>496964</t>
+          <t>214675</t>
         </is>
       </c>
       <c r="T12" s="2" t="inlineStr">
         <is>
-          <t>496964</t>
+          <t>214675</t>
         </is>
       </c>
       <c r="U12" s="2" t="inlineStr">
@@ -7733,107 +7733,107 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>44</t>
+          <t>50</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>25512</t>
+          <t>9129</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>17993</t>
+          <t>6907</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>33759</t>
+          <t>12221</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>8,59%</t>
+          <t>6,31%</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>6,06%</t>
+          <t>4,77%</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>11,37%</t>
+          <t>8,44%</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>40</t>
+          <t>30</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>24594</t>
+          <t>5187</t>
         </is>
       </c>
       <c r="L13" s="2" t="inlineStr">
         <is>
-          <t>17845</t>
+          <t>3397</t>
         </is>
       </c>
       <c r="M13" s="2" t="inlineStr">
         <is>
-          <t>32677</t>
+          <t>7270</t>
         </is>
       </c>
       <c r="N13" s="2" t="inlineStr">
         <is>
-          <t>8,82%</t>
+          <t>3,4%</t>
         </is>
       </c>
       <c r="O13" s="2" t="inlineStr">
         <is>
-          <t>6,4%</t>
+          <t>2,23%</t>
         </is>
       </c>
       <c r="P13" s="2" t="inlineStr">
         <is>
-          <t>11,71%</t>
+          <t>4,77%</t>
         </is>
       </c>
       <c r="Q13" s="2" t="inlineStr">
         <is>
-          <t>84</t>
+          <t>80</t>
         </is>
       </c>
       <c r="R13" s="2" t="inlineStr">
         <is>
-          <t>50106</t>
+          <t>14316</t>
         </is>
       </c>
       <c r="S13" s="2" t="inlineStr">
         <is>
-          <t>39777</t>
+          <t>11301</t>
         </is>
       </c>
       <c r="T13" s="2" t="inlineStr">
         <is>
-          <t>61122</t>
+          <t>17839</t>
         </is>
       </c>
       <c r="U13" s="2" t="inlineStr">
         <is>
-          <t>8,7%</t>
+          <t>4,82%</t>
         </is>
       </c>
       <c r="V13" s="2" t="inlineStr">
         <is>
-          <t>6,91%</t>
+          <t>3,8%</t>
         </is>
       </c>
       <c r="W13" s="2" t="inlineStr">
         <is>
-          <t>10,61%</t>
+          <t>6,0%</t>
         </is>
       </c>
     </row>
@@ -7846,107 +7846,107 @@
       </c>
       <c r="C14" s="2" t="inlineStr">
         <is>
-          <t>441</t>
+          <t>753</t>
         </is>
       </c>
       <c r="D14" s="2" t="inlineStr">
         <is>
-          <t>271495</t>
+          <t>135649</t>
         </is>
       </c>
       <c r="E14" s="2" t="inlineStr">
         <is>
-          <t>263248</t>
+          <t>132557</t>
         </is>
       </c>
       <c r="F14" s="2" t="inlineStr">
         <is>
-          <t>279014</t>
+          <t>137871</t>
         </is>
       </c>
       <c r="G14" s="2" t="inlineStr">
         <is>
-          <t>91,41%</t>
+          <t>93,69%</t>
         </is>
       </c>
       <c r="H14" s="2" t="inlineStr">
         <is>
-          <t>88,63%</t>
+          <t>91,56%</t>
         </is>
       </c>
       <c r="I14" s="2" t="inlineStr">
         <is>
-          <t>93,94%</t>
+          <t>95,23%</t>
         </is>
       </c>
       <c r="J14" s="2" t="inlineStr">
         <is>
-          <t>417</t>
+          <t>782</t>
         </is>
       </c>
       <c r="K14" s="2" t="inlineStr">
         <is>
-          <t>254381</t>
+          <t>147357</t>
         </is>
       </c>
       <c r="L14" s="2" t="inlineStr">
         <is>
-          <t>246298</t>
+          <t>145274</t>
         </is>
       </c>
       <c r="M14" s="2" t="inlineStr">
         <is>
-          <t>261130</t>
+          <t>149147</t>
         </is>
       </c>
       <c r="N14" s="2" t="inlineStr">
         <is>
-          <t>91,18%</t>
+          <t>96,6%</t>
         </is>
       </c>
       <c r="O14" s="2" t="inlineStr">
         <is>
-          <t>88,29%</t>
+          <t>95,23%</t>
         </is>
       </c>
       <c r="P14" s="2" t="inlineStr">
         <is>
-          <t>93,6%</t>
+          <t>97,77%</t>
         </is>
       </c>
       <c r="Q14" s="2" t="inlineStr">
         <is>
-          <t>858</t>
+          <t>1535</t>
         </is>
       </c>
       <c r="R14" s="2" t="inlineStr">
         <is>
-          <t>525877</t>
+          <t>283005</t>
         </is>
       </c>
       <c r="S14" s="2" t="inlineStr">
         <is>
-          <t>514861</t>
+          <t>279482</t>
         </is>
       </c>
       <c r="T14" s="2" t="inlineStr">
         <is>
-          <t>536206</t>
+          <t>286020</t>
         </is>
       </c>
       <c r="U14" s="2" t="inlineStr">
         <is>
-          <t>91,3%</t>
+          <t>95,18%</t>
         </is>
       </c>
       <c r="V14" s="2" t="inlineStr">
         <is>
-          <t>89,39%</t>
+          <t>94,0%</t>
         </is>
       </c>
       <c r="W14" s="2" t="inlineStr">
         <is>
-          <t>93,09%</t>
+          <t>96,2%</t>
         </is>
       </c>
     </row>
@@ -7959,22 +7959,22 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>485</t>
+          <t>803</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>297007</t>
+          <t>144778</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>297007</t>
+          <t>144778</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>297007</t>
+          <t>144778</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
@@ -7994,22 +7994,22 @@
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>457</t>
+          <t>812</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>278975</t>
+          <t>152544</t>
         </is>
       </c>
       <c r="L15" s="2" t="inlineStr">
         <is>
-          <t>278975</t>
+          <t>152544</t>
         </is>
       </c>
       <c r="M15" s="2" t="inlineStr">
         <is>
-          <t>278975</t>
+          <t>152544</t>
         </is>
       </c>
       <c r="N15" s="2" t="inlineStr">
@@ -8029,22 +8029,22 @@
       </c>
       <c r="Q15" s="2" t="inlineStr">
         <is>
-          <t>942</t>
+          <t>1615</t>
         </is>
       </c>
       <c r="R15" s="2" t="inlineStr">
         <is>
-          <t>575983</t>
+          <t>297321</t>
         </is>
       </c>
       <c r="S15" s="2" t="inlineStr">
         <is>
-          <t>575983</t>
+          <t>297321</t>
         </is>
       </c>
       <c r="T15" s="2" t="inlineStr">
         <is>
-          <t>575983</t>
+          <t>297321</t>
         </is>
       </c>
       <c r="U15" s="2" t="inlineStr">
@@ -8076,37 +8076,37 @@
       </c>
       <c r="C16" s="2" t="inlineStr">
         <is>
-          <t>95</t>
+          <t>137</t>
         </is>
       </c>
       <c r="D16" s="2" t="inlineStr">
         <is>
-          <t>59773</t>
+          <t>23834</t>
         </is>
       </c>
       <c r="E16" s="2" t="inlineStr">
         <is>
-          <t>48856</t>
+          <t>19894</t>
         </is>
       </c>
       <c r="F16" s="2" t="inlineStr">
         <is>
-          <t>70864</t>
+          <t>27878</t>
         </is>
       </c>
       <c r="G16" s="2" t="inlineStr">
         <is>
-          <t>25,47%</t>
+          <t>18,39%</t>
         </is>
       </c>
       <c r="H16" s="2" t="inlineStr">
         <is>
-          <t>20,82%</t>
+          <t>15,35%</t>
         </is>
       </c>
       <c r="I16" s="2" t="inlineStr">
         <is>
-          <t>30,19%</t>
+          <t>21,51%</t>
         </is>
       </c>
       <c r="J16" s="2" t="inlineStr">
@@ -8116,67 +8116,67 @@
       </c>
       <c r="K16" s="2" t="inlineStr">
         <is>
-          <t>61755</t>
+          <t>18138</t>
         </is>
       </c>
       <c r="L16" s="2" t="inlineStr">
         <is>
-          <t>50770</t>
+          <t>14894</t>
         </is>
       </c>
       <c r="M16" s="2" t="inlineStr">
         <is>
-          <t>73429</t>
+          <t>21842</t>
         </is>
       </c>
       <c r="N16" s="2" t="inlineStr">
         <is>
-          <t>24,3%</t>
+          <t>11,94%</t>
         </is>
       </c>
       <c r="O16" s="2" t="inlineStr">
         <is>
-          <t>19,98%</t>
+          <t>9,8%</t>
         </is>
       </c>
       <c r="P16" s="2" t="inlineStr">
         <is>
-          <t>28,9%</t>
+          <t>14,38%</t>
         </is>
       </c>
       <c r="Q16" s="2" t="inlineStr">
         <is>
-          <t>197</t>
+          <t>239</t>
         </is>
       </c>
       <c r="R16" s="2" t="inlineStr">
         <is>
-          <t>121528</t>
+          <t>41972</t>
         </is>
       </c>
       <c r="S16" s="2" t="inlineStr">
         <is>
-          <t>105882</t>
+          <t>36708</t>
         </is>
       </c>
       <c r="T16" s="2" t="inlineStr">
         <is>
-          <t>138679</t>
+          <t>47430</t>
         </is>
       </c>
       <c r="U16" s="2" t="inlineStr">
         <is>
-          <t>24,86%</t>
+          <t>14,91%</t>
         </is>
       </c>
       <c r="V16" s="2" t="inlineStr">
         <is>
-          <t>21,66%</t>
+          <t>13,04%</t>
         </is>
       </c>
       <c r="W16" s="2" t="inlineStr">
         <is>
-          <t>28,37%</t>
+          <t>16,85%</t>
         </is>
       </c>
     </row>
@@ -8189,107 +8189,107 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>275</t>
+          <t>596</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>174927</t>
+          <t>105748</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>163836</t>
+          <t>101704</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>185844</t>
+          <t>109688</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>74,53%</t>
+          <t>81,61%</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>69,81%</t>
+          <t>78,49%</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>79,18%</t>
+          <t>84,65%</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>316</t>
+          <t>757</t>
         </is>
       </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
-          <t>192341</t>
+          <t>133777</t>
         </is>
       </c>
       <c r="L17" s="2" t="inlineStr">
         <is>
-          <t>180667</t>
+          <t>130073</t>
         </is>
       </c>
       <c r="M17" s="2" t="inlineStr">
         <is>
-          <t>203326</t>
+          <t>137021</t>
         </is>
       </c>
       <c r="N17" s="2" t="inlineStr">
         <is>
-          <t>75,7%</t>
+          <t>88,06%</t>
         </is>
       </c>
       <c r="O17" s="2" t="inlineStr">
         <is>
-          <t>71,1%</t>
+          <t>85,62%</t>
         </is>
       </c>
       <c r="P17" s="2" t="inlineStr">
         <is>
-          <t>80,02%</t>
+          <t>90,2%</t>
         </is>
       </c>
       <c r="Q17" s="2" t="inlineStr">
         <is>
-          <t>591</t>
+          <t>1353</t>
         </is>
       </c>
       <c r="R17" s="2" t="inlineStr">
         <is>
-          <t>367268</t>
+          <t>239526</t>
         </is>
       </c>
       <c r="S17" s="2" t="inlineStr">
         <is>
-          <t>350117</t>
+          <t>234068</t>
         </is>
       </c>
       <c r="T17" s="2" t="inlineStr">
         <is>
-          <t>382914</t>
+          <t>244790</t>
         </is>
       </c>
       <c r="U17" s="2" t="inlineStr">
         <is>
-          <t>75,14%</t>
+          <t>85,09%</t>
         </is>
       </c>
       <c r="V17" s="2" t="inlineStr">
         <is>
-          <t>71,63%</t>
+          <t>83,15%</t>
         </is>
       </c>
       <c r="W17" s="2" t="inlineStr">
         <is>
-          <t>78,34%</t>
+          <t>86,96%</t>
         </is>
       </c>
     </row>
@@ -8302,22 +8302,22 @@
       </c>
       <c r="C18" s="2" t="inlineStr">
         <is>
-          <t>370</t>
+          <t>733</t>
         </is>
       </c>
       <c r="D18" s="2" t="inlineStr">
         <is>
-          <t>234700</t>
+          <t>129582</t>
         </is>
       </c>
       <c r="E18" s="2" t="inlineStr">
         <is>
-          <t>234700</t>
+          <t>129582</t>
         </is>
       </c>
       <c r="F18" s="2" t="inlineStr">
         <is>
-          <t>234700</t>
+          <t>129582</t>
         </is>
       </c>
       <c r="G18" s="2" t="inlineStr">
@@ -8337,22 +8337,22 @@
       </c>
       <c r="J18" s="2" t="inlineStr">
         <is>
-          <t>418</t>
+          <t>859</t>
         </is>
       </c>
       <c r="K18" s="2" t="inlineStr">
         <is>
-          <t>254096</t>
+          <t>151915</t>
         </is>
       </c>
       <c r="L18" s="2" t="inlineStr">
         <is>
-          <t>254096</t>
+          <t>151915</t>
         </is>
       </c>
       <c r="M18" s="2" t="inlineStr">
         <is>
-          <t>254096</t>
+          <t>151915</t>
         </is>
       </c>
       <c r="N18" s="2" t="inlineStr">
@@ -8372,22 +8372,22 @@
       </c>
       <c r="Q18" s="2" t="inlineStr">
         <is>
-          <t>788</t>
+          <t>1592</t>
         </is>
       </c>
       <c r="R18" s="2" t="inlineStr">
         <is>
-          <t>488796</t>
+          <t>281498</t>
         </is>
       </c>
       <c r="S18" s="2" t="inlineStr">
         <is>
-          <t>488796</t>
+          <t>281498</t>
         </is>
       </c>
       <c r="T18" s="2" t="inlineStr">
         <is>
-          <t>488796</t>
+          <t>281498</t>
         </is>
       </c>
       <c r="U18" s="2" t="inlineStr">
@@ -8419,107 +8419,107 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>231</t>
+          <t>220</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>74243</t>
+          <t>36501</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>66266</t>
+          <t>32282</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>82230</t>
+          <t>40630</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
         <is>
-          <t>40,34%</t>
+          <t>34,94%</t>
         </is>
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>36,0%</t>
+          <t>30,9%</t>
         </is>
       </c>
       <c r="I19" s="2" t="inlineStr">
         <is>
-          <t>44,68%</t>
+          <t>38,89%</t>
         </is>
       </c>
       <c r="J19" s="2" t="inlineStr">
         <is>
-          <t>188</t>
+          <t>196</t>
         </is>
       </c>
       <c r="K19" s="2" t="inlineStr">
         <is>
-          <t>73767</t>
+          <t>33229</t>
         </is>
       </c>
       <c r="L19" s="2" t="inlineStr">
         <is>
-          <t>65654</t>
+          <t>29173</t>
         </is>
       </c>
       <c r="M19" s="2" t="inlineStr">
         <is>
-          <t>82889</t>
+          <t>37382</t>
         </is>
       </c>
       <c r="N19" s="2" t="inlineStr">
         <is>
-          <t>39,1%</t>
+          <t>28,7%</t>
         </is>
       </c>
       <c r="O19" s="2" t="inlineStr">
         <is>
-          <t>34,8%</t>
+          <t>25,2%</t>
         </is>
       </c>
       <c r="P19" s="2" t="inlineStr">
         <is>
-          <t>43,93%</t>
+          <t>32,29%</t>
         </is>
       </c>
       <c r="Q19" s="2" t="inlineStr">
         <is>
-          <t>419</t>
+          <t>416</t>
         </is>
       </c>
       <c r="R19" s="2" t="inlineStr">
         <is>
-          <t>148010</t>
+          <t>69729</t>
         </is>
       </c>
       <c r="S19" s="2" t="inlineStr">
         <is>
-          <t>136441</t>
+          <t>64140</t>
         </is>
       </c>
       <c r="T19" s="2" t="inlineStr">
         <is>
-          <t>161168</t>
+          <t>76086</t>
         </is>
       </c>
       <c r="U19" s="2" t="inlineStr">
         <is>
-          <t>39,71%</t>
+          <t>31,66%</t>
         </is>
       </c>
       <c r="V19" s="2" t="inlineStr">
         <is>
-          <t>36,61%</t>
+          <t>29,12%</t>
         </is>
       </c>
       <c r="W19" s="2" t="inlineStr">
         <is>
-          <t>43,24%</t>
+          <t>34,55%</t>
         </is>
       </c>
     </row>
@@ -8532,107 +8532,107 @@
       </c>
       <c r="C20" s="2" t="inlineStr">
         <is>
-          <t>339</t>
+          <t>426</t>
         </is>
       </c>
       <c r="D20" s="2" t="inlineStr">
         <is>
-          <t>109805</t>
+          <t>67965</t>
         </is>
       </c>
       <c r="E20" s="2" t="inlineStr">
         <is>
-          <t>101818</t>
+          <t>63836</t>
         </is>
       </c>
       <c r="F20" s="2" t="inlineStr">
         <is>
-          <t>117782</t>
+          <t>72184</t>
         </is>
       </c>
       <c r="G20" s="2" t="inlineStr">
         <is>
-          <t>59,66%</t>
+          <t>65,06%</t>
         </is>
       </c>
       <c r="H20" s="2" t="inlineStr">
         <is>
-          <t>55,32%</t>
+          <t>61,11%</t>
         </is>
       </c>
       <c r="I20" s="2" t="inlineStr">
         <is>
-          <t>64,0%</t>
+          <t>69,1%</t>
         </is>
       </c>
       <c r="J20" s="2" t="inlineStr">
         <is>
-          <t>298</t>
+          <t>507</t>
         </is>
       </c>
       <c r="K20" s="2" t="inlineStr">
         <is>
-          <t>114907</t>
+          <t>82551</t>
         </is>
       </c>
       <c r="L20" s="2" t="inlineStr">
         <is>
-          <t>105785</t>
+          <t>78398</t>
         </is>
       </c>
       <c r="M20" s="2" t="inlineStr">
         <is>
-          <t>123020</t>
+          <t>86607</t>
         </is>
       </c>
       <c r="N20" s="2" t="inlineStr">
         <is>
-          <t>60,9%</t>
+          <t>71,3%</t>
         </is>
       </c>
       <c r="O20" s="2" t="inlineStr">
         <is>
-          <t>56,07%</t>
+          <t>67,71%</t>
         </is>
       </c>
       <c r="P20" s="2" t="inlineStr">
         <is>
-          <t>65,2%</t>
+          <t>74,8%</t>
         </is>
       </c>
       <c r="Q20" s="2" t="inlineStr">
         <is>
-          <t>637</t>
+          <t>933</t>
         </is>
       </c>
       <c r="R20" s="2" t="inlineStr">
         <is>
-          <t>224713</t>
+          <t>150517</t>
         </is>
       </c>
       <c r="S20" s="2" t="inlineStr">
         <is>
-          <t>211555</t>
+          <t>144160</t>
         </is>
       </c>
       <c r="T20" s="2" t="inlineStr">
         <is>
-          <t>236282</t>
+          <t>156106</t>
         </is>
       </c>
       <c r="U20" s="2" t="inlineStr">
         <is>
-          <t>60,29%</t>
+          <t>68,34%</t>
         </is>
       </c>
       <c r="V20" s="2" t="inlineStr">
         <is>
-          <t>56,76%</t>
+          <t>65,45%</t>
         </is>
       </c>
       <c r="W20" s="2" t="inlineStr">
         <is>
-          <t>63,39%</t>
+          <t>70,88%</t>
         </is>
       </c>
     </row>
@@ -8645,22 +8645,22 @@
       </c>
       <c r="C21" s="2" t="inlineStr">
         <is>
-          <t>570</t>
+          <t>646</t>
         </is>
       </c>
       <c r="D21" s="2" t="inlineStr">
         <is>
-          <t>184048</t>
+          <t>104466</t>
         </is>
       </c>
       <c r="E21" s="2" t="inlineStr">
         <is>
-          <t>184048</t>
+          <t>104466</t>
         </is>
       </c>
       <c r="F21" s="2" t="inlineStr">
         <is>
-          <t>184048</t>
+          <t>104466</t>
         </is>
       </c>
       <c r="G21" s="2" t="inlineStr">
@@ -8680,22 +8680,22 @@
       </c>
       <c r="J21" s="2" t="inlineStr">
         <is>
-          <t>486</t>
+          <t>703</t>
         </is>
       </c>
       <c r="K21" s="2" t="inlineStr">
         <is>
-          <t>188674</t>
+          <t>115780</t>
         </is>
       </c>
       <c r="L21" s="2" t="inlineStr">
         <is>
-          <t>188674</t>
+          <t>115780</t>
         </is>
       </c>
       <c r="M21" s="2" t="inlineStr">
         <is>
-          <t>188674</t>
+          <t>115780</t>
         </is>
       </c>
       <c r="N21" s="2" t="inlineStr">
@@ -8715,22 +8715,22 @@
       </c>
       <c r="Q21" s="2" t="inlineStr">
         <is>
-          <t>1056</t>
+          <t>1349</t>
         </is>
       </c>
       <c r="R21" s="2" t="inlineStr">
         <is>
-          <t>372723</t>
+          <t>220246</t>
         </is>
       </c>
       <c r="S21" s="2" t="inlineStr">
         <is>
-          <t>372723</t>
+          <t>220246</t>
         </is>
       </c>
       <c r="T21" s="2" t="inlineStr">
         <is>
-          <t>372723</t>
+          <t>220246</t>
         </is>
       </c>
       <c r="U21" s="2" t="inlineStr">
@@ -8762,107 +8762,107 @@
       </c>
       <c r="C22" s="2" t="inlineStr">
         <is>
-          <t>189</t>
+          <t>216</t>
         </is>
       </c>
       <c r="D22" s="2" t="inlineStr">
         <is>
-          <t>56137</t>
+          <t>34240</t>
         </is>
       </c>
       <c r="E22" s="2" t="inlineStr">
         <is>
-          <t>49554</t>
+          <t>30356</t>
         </is>
       </c>
       <c r="F22" s="2" t="inlineStr">
         <is>
-          <t>62838</t>
+          <t>38422</t>
         </is>
       </c>
       <c r="G22" s="2" t="inlineStr">
         <is>
-          <t>38,31%</t>
+          <t>38,38%</t>
         </is>
       </c>
       <c r="H22" s="2" t="inlineStr">
         <is>
-          <t>33,82%</t>
+          <t>34,02%</t>
         </is>
       </c>
       <c r="I22" s="2" t="inlineStr">
         <is>
-          <t>42,88%</t>
+          <t>43,06%</t>
         </is>
       </c>
       <c r="J22" s="2" t="inlineStr">
         <is>
-          <t>242</t>
+          <t>248</t>
         </is>
       </c>
       <c r="K22" s="2" t="inlineStr">
         <is>
-          <t>96802</t>
+          <t>39884</t>
         </is>
       </c>
       <c r="L22" s="2" t="inlineStr">
         <is>
-          <t>87455</t>
+          <t>35584</t>
         </is>
       </c>
       <c r="M22" s="2" t="inlineStr">
         <is>
-          <t>106241</t>
+          <t>44421</t>
         </is>
       </c>
       <c r="N22" s="2" t="inlineStr">
         <is>
-          <t>45,7%</t>
+          <t>30,14%</t>
         </is>
       </c>
       <c r="O22" s="2" t="inlineStr">
         <is>
-          <t>41,29%</t>
+          <t>26,89%</t>
         </is>
       </c>
       <c r="P22" s="2" t="inlineStr">
         <is>
-          <t>50,16%</t>
+          <t>33,57%</t>
         </is>
       </c>
       <c r="Q22" s="2" t="inlineStr">
         <is>
-          <t>431</t>
+          <t>464</t>
         </is>
       </c>
       <c r="R22" s="2" t="inlineStr">
         <is>
-          <t>152939</t>
+          <t>74124</t>
         </is>
       </c>
       <c r="S22" s="2" t="inlineStr">
         <is>
-          <t>140179</t>
+          <t>67474</t>
         </is>
       </c>
       <c r="T22" s="2" t="inlineStr">
         <is>
-          <t>163972</t>
+          <t>80380</t>
         </is>
       </c>
       <c r="U22" s="2" t="inlineStr">
         <is>
-          <t>42,68%</t>
+          <t>33,46%</t>
         </is>
       </c>
       <c r="V22" s="2" t="inlineStr">
         <is>
-          <t>39,12%</t>
+          <t>30,46%</t>
         </is>
       </c>
       <c r="W22" s="2" t="inlineStr">
         <is>
-          <t>45,76%</t>
+          <t>36,28%</t>
         </is>
       </c>
     </row>
@@ -8875,107 +8875,107 @@
       </c>
       <c r="C23" s="2" t="inlineStr">
         <is>
-          <t>292</t>
+          <t>339</t>
         </is>
       </c>
       <c r="D23" s="2" t="inlineStr">
         <is>
-          <t>90396</t>
+          <t>54983</t>
         </is>
       </c>
       <c r="E23" s="2" t="inlineStr">
         <is>
-          <t>83695</t>
+          <t>50801</t>
         </is>
       </c>
       <c r="F23" s="2" t="inlineStr">
         <is>
-          <t>96979</t>
+          <t>58867</t>
         </is>
       </c>
       <c r="G23" s="2" t="inlineStr">
         <is>
-          <t>61,69%</t>
+          <t>61,62%</t>
         </is>
       </c>
       <c r="H23" s="2" t="inlineStr">
         <is>
-          <t>57,12%</t>
+          <t>56,94%</t>
         </is>
       </c>
       <c r="I23" s="2" t="inlineStr">
         <is>
-          <t>66,18%</t>
+          <t>65,98%</t>
         </is>
       </c>
       <c r="J23" s="2" t="inlineStr">
         <is>
-          <t>286</t>
+          <t>558</t>
         </is>
       </c>
       <c r="K23" s="2" t="inlineStr">
         <is>
-          <t>115018</t>
+          <t>92428</t>
         </is>
       </c>
       <c r="L23" s="2" t="inlineStr">
         <is>
-          <t>105579</t>
+          <t>87891</t>
         </is>
       </c>
       <c r="M23" s="2" t="inlineStr">
         <is>
-          <t>124365</t>
+          <t>96728</t>
         </is>
       </c>
       <c r="N23" s="2" t="inlineStr">
         <is>
-          <t>54,3%</t>
+          <t>69,86%</t>
         </is>
       </c>
       <c r="O23" s="2" t="inlineStr">
         <is>
-          <t>49,84%</t>
+          <t>66,43%</t>
         </is>
       </c>
       <c r="P23" s="2" t="inlineStr">
         <is>
-          <t>58,71%</t>
+          <t>73,11%</t>
         </is>
       </c>
       <c r="Q23" s="2" t="inlineStr">
         <is>
-          <t>578</t>
+          <t>897</t>
         </is>
       </c>
       <c r="R23" s="2" t="inlineStr">
         <is>
-          <t>205414</t>
+          <t>147411</t>
         </is>
       </c>
       <c r="S23" s="2" t="inlineStr">
         <is>
-          <t>194381</t>
+          <t>141155</t>
         </is>
       </c>
       <c r="T23" s="2" t="inlineStr">
         <is>
-          <t>218174</t>
+          <t>154061</t>
         </is>
       </c>
       <c r="U23" s="2" t="inlineStr">
         <is>
-          <t>57,32%</t>
+          <t>66,54%</t>
         </is>
       </c>
       <c r="V23" s="2" t="inlineStr">
         <is>
-          <t>54,24%</t>
+          <t>63,72%</t>
         </is>
       </c>
       <c r="W23" s="2" t="inlineStr">
         <is>
-          <t>60,88%</t>
+          <t>69,54%</t>
         </is>
       </c>
     </row>
@@ -8988,22 +8988,22 @@
       </c>
       <c r="C24" s="2" t="inlineStr">
         <is>
-          <t>481</t>
+          <t>555</t>
         </is>
       </c>
       <c r="D24" s="2" t="inlineStr">
         <is>
-          <t>146533</t>
+          <t>89223</t>
         </is>
       </c>
       <c r="E24" s="2" t="inlineStr">
         <is>
-          <t>146533</t>
+          <t>89223</t>
         </is>
       </c>
       <c r="F24" s="2" t="inlineStr">
         <is>
-          <t>146533</t>
+          <t>89223</t>
         </is>
       </c>
       <c r="G24" s="2" t="inlineStr">
@@ -9023,22 +9023,22 @@
       </c>
       <c r="J24" s="2" t="inlineStr">
         <is>
-          <t>528</t>
+          <t>806</t>
         </is>
       </c>
       <c r="K24" s="2" t="inlineStr">
         <is>
-          <t>211820</t>
+          <t>132312</t>
         </is>
       </c>
       <c r="L24" s="2" t="inlineStr">
         <is>
-          <t>211820</t>
+          <t>132312</t>
         </is>
       </c>
       <c r="M24" s="2" t="inlineStr">
         <is>
-          <t>211820</t>
+          <t>132312</t>
         </is>
       </c>
       <c r="N24" s="2" t="inlineStr">
@@ -9058,22 +9058,22 @@
       </c>
       <c r="Q24" s="2" t="inlineStr">
         <is>
-          <t>1009</t>
+          <t>1361</t>
         </is>
       </c>
       <c r="R24" s="2" t="inlineStr">
         <is>
-          <t>358353</t>
+          <t>221535</t>
         </is>
       </c>
       <c r="S24" s="2" t="inlineStr">
         <is>
-          <t>358353</t>
+          <t>221535</t>
         </is>
       </c>
       <c r="T24" s="2" t="inlineStr">
         <is>
-          <t>358353</t>
+          <t>221535</t>
         </is>
       </c>
       <c r="U24" s="2" t="inlineStr">
@@ -9105,107 +9105,107 @@
       </c>
       <c r="C25" s="2" t="inlineStr">
         <is>
+          <t>642</t>
+        </is>
+      </c>
+      <c r="D25" s="2" t="inlineStr">
+        <is>
+          <t>107381</t>
+        </is>
+      </c>
+      <c r="E25" s="2" t="inlineStr">
+        <is>
+          <t>100066</t>
+        </is>
+      </c>
+      <c r="F25" s="2" t="inlineStr">
+        <is>
+          <t>115764</t>
+        </is>
+      </c>
+      <c r="G25" s="2" t="inlineStr">
+        <is>
+          <t>14,83%</t>
+        </is>
+      </c>
+      <c r="H25" s="2" t="inlineStr">
+        <is>
+          <t>13,82%</t>
+        </is>
+      </c>
+      <c r="I25" s="2" t="inlineStr">
+        <is>
+          <t>15,99%</t>
+        </is>
+      </c>
+      <c r="J25" s="2" t="inlineStr">
+        <is>
           <t>579</t>
         </is>
       </c>
-      <c r="D25" s="2" t="inlineStr">
-        <is>
-          <t>228412</t>
-        </is>
-      </c>
-      <c r="E25" s="2" t="inlineStr">
-        <is>
-          <t>209208</t>
-        </is>
-      </c>
-      <c r="F25" s="2" t="inlineStr">
-        <is>
-          <t>248537</t>
-        </is>
-      </c>
-      <c r="G25" s="2" t="inlineStr">
-        <is>
-          <t>15,61%</t>
-        </is>
-      </c>
-      <c r="H25" s="2" t="inlineStr">
-        <is>
-          <t>14,3%</t>
-        </is>
-      </c>
-      <c r="I25" s="2" t="inlineStr">
-        <is>
-          <t>16,99%</t>
-        </is>
-      </c>
-      <c r="J25" s="2" t="inlineStr">
-        <is>
-          <t>582</t>
-        </is>
-      </c>
       <c r="K25" s="2" t="inlineStr">
         <is>
-          <t>265124</t>
+          <t>97112</t>
         </is>
       </c>
       <c r="L25" s="2" t="inlineStr">
         <is>
-          <t>245219</t>
+          <t>89726</t>
         </is>
       </c>
       <c r="M25" s="2" t="inlineStr">
         <is>
-          <t>288627</t>
+          <t>105385</t>
         </is>
       </c>
       <c r="N25" s="2" t="inlineStr">
         <is>
-          <t>16,95%</t>
+          <t>12,18%</t>
         </is>
       </c>
       <c r="O25" s="2" t="inlineStr">
         <is>
-          <t>15,68%</t>
+          <t>11,25%</t>
         </is>
       </c>
       <c r="P25" s="2" t="inlineStr">
         <is>
-          <t>18,45%</t>
+          <t>13,21%</t>
         </is>
       </c>
       <c r="Q25" s="2" t="inlineStr">
         <is>
-          <t>1161</t>
+          <t>1221</t>
         </is>
       </c>
       <c r="R25" s="2" t="inlineStr">
         <is>
-          <t>493536</t>
+          <t>204494</t>
         </is>
       </c>
       <c r="S25" s="2" t="inlineStr">
         <is>
-          <t>467091</t>
+          <t>193928</t>
         </is>
       </c>
       <c r="T25" s="2" t="inlineStr">
         <is>
-          <t>525931</t>
+          <t>216346</t>
         </is>
       </c>
       <c r="U25" s="2" t="inlineStr">
         <is>
-          <t>16,3%</t>
+          <t>13,44%</t>
         </is>
       </c>
       <c r="V25" s="2" t="inlineStr">
         <is>
-          <t>15,43%</t>
+          <t>12,75%</t>
         </is>
       </c>
       <c r="W25" s="2" t="inlineStr">
         <is>
-          <t>17,37%</t>
+          <t>14,22%</t>
         </is>
       </c>
     </row>
@@ -9218,107 +9218,107 @@
       </c>
       <c r="C26" s="2" t="inlineStr">
         <is>
-          <t>2280</t>
+          <t>3436</t>
         </is>
       </c>
       <c r="D26" s="2" t="inlineStr">
         <is>
-          <t>1234574</t>
+          <t>616491</t>
         </is>
       </c>
       <c r="E26" s="2" t="inlineStr">
         <is>
-          <t>1214449</t>
+          <t>608108</t>
         </is>
       </c>
       <c r="F26" s="2" t="inlineStr">
         <is>
-          <t>1253778</t>
+          <t>623806</t>
         </is>
       </c>
       <c r="G26" s="2" t="inlineStr">
         <is>
-          <t>84,39%</t>
+          <t>85,17%</t>
         </is>
       </c>
       <c r="H26" s="2" t="inlineStr">
         <is>
-          <t>83,01%</t>
+          <t>84,01%</t>
         </is>
       </c>
       <c r="I26" s="2" t="inlineStr">
         <is>
-          <t>85,7%</t>
+          <t>86,18%</t>
         </is>
       </c>
       <c r="J26" s="2" t="inlineStr">
         <is>
-          <t>2298</t>
+          <t>3896</t>
         </is>
       </c>
       <c r="K26" s="2" t="inlineStr">
         <is>
-          <t>1299013</t>
+          <t>700444</t>
         </is>
       </c>
       <c r="L26" s="2" t="inlineStr">
         <is>
-          <t>1275510</t>
+          <t>692171</t>
         </is>
       </c>
       <c r="M26" s="2" t="inlineStr">
         <is>
-          <t>1318918</t>
+          <t>707830</t>
         </is>
       </c>
       <c r="N26" s="2" t="inlineStr">
         <is>
-          <t>83,05%</t>
+          <t>87,82%</t>
         </is>
       </c>
       <c r="O26" s="2" t="inlineStr">
         <is>
-          <t>81,55%</t>
+          <t>86,79%</t>
         </is>
       </c>
       <c r="P26" s="2" t="inlineStr">
         <is>
-          <t>84,32%</t>
+          <t>88,75%</t>
         </is>
       </c>
       <c r="Q26" s="2" t="inlineStr">
         <is>
-          <t>4578</t>
+          <t>7332</t>
         </is>
       </c>
       <c r="R26" s="2" t="inlineStr">
         <is>
-          <t>2533586</t>
+          <t>1316935</t>
         </is>
       </c>
       <c r="S26" s="2" t="inlineStr">
         <is>
-          <t>2501191</t>
+          <t>1305083</t>
         </is>
       </c>
       <c r="T26" s="2" t="inlineStr">
         <is>
-          <t>2560031</t>
+          <t>1327501</t>
         </is>
       </c>
       <c r="U26" s="2" t="inlineStr">
         <is>
-          <t>83,7%</t>
+          <t>86,56%</t>
         </is>
       </c>
       <c r="V26" s="2" t="inlineStr">
         <is>
-          <t>82,63%</t>
+          <t>85,78%</t>
         </is>
       </c>
       <c r="W26" s="2" t="inlineStr">
         <is>
-          <t>84,57%</t>
+          <t>87,25%</t>
         </is>
       </c>
     </row>
@@ -9331,22 +9331,22 @@
       </c>
       <c r="C27" s="2" t="inlineStr">
         <is>
-          <t>2859</t>
+          <t>4078</t>
         </is>
       </c>
       <c r="D27" s="2" t="inlineStr">
         <is>
-          <t>1462986</t>
+          <t>723872</t>
         </is>
       </c>
       <c r="E27" s="2" t="inlineStr">
         <is>
-          <t>1462986</t>
+          <t>723872</t>
         </is>
       </c>
       <c r="F27" s="2" t="inlineStr">
         <is>
-          <t>1462986</t>
+          <t>723872</t>
         </is>
       </c>
       <c r="G27" s="2" t="inlineStr">
@@ -9366,22 +9366,22 @@
       </c>
       <c r="J27" s="2" t="inlineStr">
         <is>
-          <t>2880</t>
+          <t>4475</t>
         </is>
       </c>
       <c r="K27" s="2" t="inlineStr">
         <is>
-          <t>1564137</t>
+          <t>797556</t>
         </is>
       </c>
       <c r="L27" s="2" t="inlineStr">
         <is>
-          <t>1564137</t>
+          <t>797556</t>
         </is>
       </c>
       <c r="M27" s="2" t="inlineStr">
         <is>
-          <t>1564137</t>
+          <t>797556</t>
         </is>
       </c>
       <c r="N27" s="2" t="inlineStr">
@@ -9401,22 +9401,22 @@
       </c>
       <c r="Q27" s="2" t="inlineStr">
         <is>
-          <t>5739</t>
+          <t>8553</t>
         </is>
       </c>
       <c r="R27" s="2" t="inlineStr">
         <is>
-          <t>3027122</t>
+          <t>1521429</t>
         </is>
       </c>
       <c r="S27" s="2" t="inlineStr">
         <is>
-          <t>3027122</t>
+          <t>1521429</t>
         </is>
       </c>
       <c r="T27" s="2" t="inlineStr">
         <is>
-          <t>3027122</t>
+          <t>1521429</t>
         </is>
       </c>
       <c r="U27" s="2" t="inlineStr">
